--- a/outcome/appendix/forecast/Malaria.xlsx
+++ b/outcome/appendix/forecast/Malaria.xlsx
@@ -427,19 +427,19 @@
         <v>43831</v>
       </c>
       <c r="B2" t="n">
-        <v>287.673188009172</v>
+        <v>287.673188256057</v>
       </c>
       <c r="C2" t="n">
-        <v>234.182415528414</v>
+        <v>234.182415696043</v>
       </c>
       <c r="D2" t="n">
-        <v>212.13224045583</v>
+        <v>212.132240594507</v>
       </c>
       <c r="E2" t="n">
-        <v>364.537016957937</v>
+        <v>364.5370173396</v>
       </c>
       <c r="F2" t="n">
-        <v>419.942892240886</v>
+        <v>419.942892733947</v>
       </c>
       <c r="G2" t="s">
         <v>10</v>
@@ -448,7 +448,7 @@
         <v>348</v>
       </c>
       <c r="I2" t="n">
-        <v>-60.3268119908284</v>
+        <v>-60.3268117439433</v>
       </c>
       <c r="J2" t="s">
         <v>11</v>
@@ -459,19 +459,19 @@
         <v>43862</v>
       </c>
       <c r="B3" t="n">
-        <v>256.459192373317</v>
+        <v>256.459192575546</v>
       </c>
       <c r="C3" t="n">
-        <v>202.267863680208</v>
+        <v>202.267863754414</v>
       </c>
       <c r="D3" t="n">
-        <v>180.747119087831</v>
+        <v>180.747119121856</v>
       </c>
       <c r="E3" t="n">
-        <v>339.250192713554</v>
+        <v>339.250193179924</v>
       </c>
       <c r="F3" t="n">
-        <v>402.560977994422</v>
+        <v>402.560978714291</v>
       </c>
       <c r="G3" t="s">
         <v>10</v>
@@ -480,7 +480,7 @@
         <v>126</v>
       </c>
       <c r="I3" t="n">
-        <v>130.459192373317</v>
+        <v>130.459192575546</v>
       </c>
       <c r="J3" t="s">
         <v>12</v>
@@ -491,19 +491,19 @@
         <v>43891</v>
       </c>
       <c r="B4" t="n">
-        <v>176.104557877076</v>
+        <v>176.104558031563</v>
       </c>
       <c r="C4" t="n">
-        <v>143.01186859322</v>
+        <v>143.01186863588</v>
       </c>
       <c r="D4" t="n">
-        <v>129.409358837971</v>
+        <v>129.40935884398</v>
       </c>
       <c r="E4" t="n">
-        <v>223.878160615477</v>
+        <v>223.878160984304</v>
       </c>
       <c r="F4" t="n">
-        <v>258.466475588358</v>
+        <v>258.466476148718</v>
       </c>
       <c r="G4" t="s">
         <v>10</v>
@@ -512,7 +512,7 @@
         <v>92</v>
       </c>
       <c r="I4" t="n">
-        <v>84.1045578770762</v>
+        <v>84.104558031563</v>
       </c>
       <c r="J4" t="s">
         <v>12</v>
@@ -523,19 +523,19 @@
         <v>43922</v>
       </c>
       <c r="B5" t="n">
-        <v>190.049439277461</v>
+        <v>190.049439431466</v>
       </c>
       <c r="C5" t="n">
-        <v>151.169620015037</v>
+        <v>151.169620017098</v>
       </c>
       <c r="D5" t="n">
-        <v>135.574480057138</v>
+        <v>135.574480012874</v>
       </c>
       <c r="E5" t="n">
-        <v>248.469386961282</v>
+        <v>248.469387434287</v>
       </c>
       <c r="F5" t="n">
-        <v>292.423685802073</v>
+        <v>292.423686581451</v>
       </c>
       <c r="G5" t="s">
         <v>10</v>
@@ -544,7 +544,7 @@
         <v>54</v>
       </c>
       <c r="I5" t="n">
-        <v>136.049439277461</v>
+        <v>136.049439431466</v>
       </c>
       <c r="J5" t="s">
         <v>12</v>
@@ -555,19 +555,19 @@
         <v>43952</v>
       </c>
       <c r="B6" t="n">
-        <v>207.00971801142</v>
+        <v>207.009718218333</v>
       </c>
       <c r="C6" t="n">
-        <v>161.529209920387</v>
+        <v>161.529209914064</v>
       </c>
       <c r="D6" t="n">
-        <v>143.693109752668</v>
+        <v>143.693109684426</v>
       </c>
       <c r="E6" t="n">
-        <v>277.975926662184</v>
+        <v>277.975927348012</v>
       </c>
       <c r="F6" t="n">
-        <v>333.389772895677</v>
+        <v>333.389774069105</v>
       </c>
       <c r="G6" t="s">
         <v>10</v>
@@ -576,7 +576,7 @@
         <v>40</v>
       </c>
       <c r="I6" t="n">
-        <v>167.00971801142</v>
+        <v>167.009718218333</v>
       </c>
       <c r="J6" t="s">
         <v>12</v>
@@ -587,19 +587,19 @@
         <v>43983</v>
       </c>
       <c r="B7" t="n">
-        <v>227.297373424645</v>
+        <v>227.297373754329</v>
       </c>
       <c r="C7" t="n">
-        <v>173.974474228161</v>
+        <v>173.974474251093</v>
       </c>
       <c r="D7" t="n">
-        <v>153.528686223565</v>
+        <v>153.528686160329</v>
       </c>
       <c r="E7" t="n">
-        <v>313.772416499526</v>
+        <v>313.772417557016</v>
       </c>
       <c r="F7" t="n">
-        <v>383.97207858366</v>
+        <v>383.972080422665</v>
       </c>
       <c r="G7" t="s">
         <v>10</v>
@@ -608,7 +608,7 @@
         <v>74</v>
       </c>
       <c r="I7" t="n">
-        <v>153.297373424645</v>
+        <v>153.297373754329</v>
       </c>
       <c r="J7" t="s">
         <v>12</v>
@@ -619,19 +619,19 @@
         <v>44013</v>
       </c>
       <c r="B8" t="n">
-        <v>248.549964666341</v>
+        <v>248.549965080614</v>
       </c>
       <c r="C8" t="n">
-        <v>186.78038558867</v>
+        <v>186.780385608902</v>
       </c>
       <c r="D8" t="n">
-        <v>163.596730725358</v>
+        <v>163.596730639674</v>
       </c>
       <c r="E8" t="n">
-        <v>352.542854367939</v>
+        <v>352.542855778938</v>
       </c>
       <c r="F8" t="n">
-        <v>440.287217153112</v>
+        <v>440.287219698811</v>
       </c>
       <c r="G8" t="s">
         <v>10</v>
@@ -640,7 +640,7 @@
         <v>57</v>
       </c>
       <c r="I8" t="n">
-        <v>191.549964666341</v>
+        <v>191.549965080614</v>
       </c>
       <c r="J8" t="s">
         <v>12</v>
@@ -651,19 +651,19 @@
         <v>44044</v>
       </c>
       <c r="B9" t="n">
-        <v>223.213067962729</v>
+        <v>223.213068267961</v>
       </c>
       <c r="C9" t="n">
-        <v>170.178817330109</v>
+        <v>170.178817301019</v>
       </c>
       <c r="D9" t="n">
-        <v>149.93659784359</v>
+        <v>149.936597723192</v>
       </c>
       <c r="E9" t="n">
-        <v>309.906178555444</v>
+        <v>309.90617967761</v>
       </c>
       <c r="F9" t="n">
-        <v>380.85694320677</v>
+        <v>380.856945224361</v>
       </c>
       <c r="G9" t="s">
         <v>10</v>
@@ -672,7 +672,7 @@
         <v>57</v>
       </c>
       <c r="I9" t="n">
-        <v>166.213067962729</v>
+        <v>166.213068267961</v>
       </c>
       <c r="J9" t="s">
         <v>12</v>
@@ -683,19 +683,19 @@
         <v>44075</v>
       </c>
       <c r="B10" t="n">
-        <v>220.430308096894</v>
+        <v>220.430308374982</v>
       </c>
       <c r="C10" t="n">
-        <v>167.986760165867</v>
+        <v>167.986760107092</v>
       </c>
       <c r="D10" t="n">
-        <v>147.979783002509</v>
+        <v>147.979782852796</v>
       </c>
       <c r="E10" t="n">
-        <v>306.230767237362</v>
+        <v>306.230768347048</v>
       </c>
       <c r="F10" t="n">
-        <v>376.512232903206</v>
+        <v>376.512234929667</v>
       </c>
       <c r="G10" t="s">
         <v>10</v>
@@ -704,7 +704,7 @@
         <v>81</v>
       </c>
       <c r="I10" t="n">
-        <v>139.430308096894</v>
+        <v>139.430308374982</v>
       </c>
       <c r="J10" t="s">
         <v>12</v>
@@ -715,19 +715,19 @@
         <v>44105</v>
       </c>
       <c r="B11" t="n">
-        <v>197.266615367898</v>
+        <v>197.266615611368</v>
       </c>
       <c r="C11" t="n">
-        <v>152.634122049229</v>
+        <v>152.634121993531</v>
       </c>
       <c r="D11" t="n">
-        <v>135.302512598635</v>
+        <v>135.302512459175</v>
       </c>
       <c r="E11" t="n">
-        <v>268.088851397516</v>
+        <v>268.088852342107</v>
       </c>
       <c r="F11" t="n">
-        <v>324.327351698386</v>
+        <v>324.327353380585</v>
       </c>
       <c r="G11" t="s">
         <v>10</v>
@@ -736,7 +736,7 @@
         <v>78</v>
       </c>
       <c r="I11" t="n">
-        <v>119.266615367898</v>
+        <v>119.266615611368</v>
       </c>
       <c r="J11" t="s">
         <v>12</v>
@@ -747,19 +747,19 @@
         <v>44136</v>
       </c>
       <c r="B12" t="n">
-        <v>228.584130062265</v>
+        <v>228.584130484731</v>
       </c>
       <c r="C12" t="n">
-        <v>172.501980883933</v>
+        <v>172.501980872153</v>
       </c>
       <c r="D12" t="n">
-        <v>151.349583086034</v>
+        <v>151.349582957611</v>
       </c>
       <c r="E12" t="n">
-        <v>322.188626106184</v>
+        <v>322.188627620857</v>
       </c>
       <c r="F12" t="n">
-        <v>400.459433559467</v>
+        <v>400.459436306505</v>
       </c>
       <c r="G12" t="s">
         <v>10</v>
@@ -768,7 +768,7 @@
         <v>63</v>
       </c>
       <c r="I12" t="n">
-        <v>165.584130062265</v>
+        <v>165.584130484731</v>
       </c>
       <c r="J12" t="s">
         <v>12</v>
@@ -779,19 +779,19 @@
         <v>44166</v>
       </c>
       <c r="B13" t="n">
-        <v>188.74909146705</v>
+        <v>188.749091747399</v>
       </c>
       <c r="C13" t="n">
-        <v>146.532718118468</v>
+        <v>146.532718080069</v>
       </c>
       <c r="D13" t="n">
-        <v>130.075101251194</v>
+        <v>130.07510112219</v>
       </c>
       <c r="E13" t="n">
-        <v>255.292020410329</v>
+        <v>255.29202142481</v>
       </c>
       <c r="F13" t="n">
-        <v>307.77969081279</v>
+        <v>307.77969258943</v>
       </c>
       <c r="G13" t="s">
         <v>10</v>
@@ -800,7 +800,7 @@
         <v>73</v>
       </c>
       <c r="I13" t="n">
-        <v>115.74909146705</v>
+        <v>115.749091747399</v>
       </c>
       <c r="J13" t="s">
         <v>12</v>
@@ -811,19 +811,19 @@
         <v>44197</v>
       </c>
       <c r="B14" t="n">
-        <v>269.341573294881</v>
+        <v>269.341573884857</v>
       </c>
       <c r="C14" t="n">
-        <v>191.328890172137</v>
+        <v>191.328890098361</v>
       </c>
       <c r="D14" t="n">
-        <v>163.891285489097</v>
+        <v>163.891285263025</v>
       </c>
       <c r="E14" t="n">
-        <v>417.304129847972</v>
+        <v>417.304132528506</v>
       </c>
       <c r="F14" t="n">
-        <v>559.39364451744</v>
+        <v>559.393650107257</v>
       </c>
       <c r="G14" t="s">
         <v>10</v>
@@ -832,7 +832,7 @@
         <v>68</v>
       </c>
       <c r="I14" t="n">
-        <v>201.341573294881</v>
+        <v>201.341573884857</v>
       </c>
       <c r="J14" t="s">
         <v>12</v>
@@ -843,19 +843,19 @@
         <v>44228</v>
       </c>
       <c r="B15" t="n">
-        <v>236.944830767127</v>
+        <v>236.94483126306</v>
       </c>
       <c r="C15" t="n">
-        <v>169.548141850117</v>
+        <v>169.548141748369</v>
       </c>
       <c r="D15" t="n">
-        <v>145.644709253112</v>
+        <v>145.644709013408</v>
       </c>
       <c r="E15" t="n">
-        <v>362.761749487367</v>
+        <v>362.7617518325</v>
       </c>
       <c r="F15" t="n">
-        <v>481.452206525971</v>
+        <v>481.452211388487</v>
       </c>
       <c r="G15" t="s">
         <v>10</v>
@@ -864,7 +864,7 @@
         <v>58</v>
       </c>
       <c r="I15" t="n">
-        <v>178.944830767127</v>
+        <v>178.94483126306</v>
       </c>
       <c r="J15" t="s">
         <v>12</v>
@@ -875,19 +875,19 @@
         <v>44256</v>
       </c>
       <c r="B16" t="n">
-        <v>167.588202105349</v>
+        <v>167.588202399649</v>
       </c>
       <c r="C16" t="n">
-        <v>126.262196248765</v>
+        <v>126.262196165841</v>
       </c>
       <c r="D16" t="n">
-        <v>110.705283083219</v>
+        <v>110.705282901928</v>
       </c>
       <c r="E16" t="n">
-        <v>236.797990885731</v>
+        <v>236.797992154374</v>
       </c>
       <c r="F16" t="n">
-        <v>294.874570177141</v>
+        <v>294.874572562597</v>
       </c>
       <c r="G16" t="s">
         <v>10</v>
@@ -896,7 +896,7 @@
         <v>63</v>
       </c>
       <c r="I16" t="n">
-        <v>104.588202105349</v>
+        <v>104.588202399649</v>
       </c>
       <c r="J16" t="s">
         <v>12</v>
@@ -907,19 +907,19 @@
         <v>44287</v>
       </c>
       <c r="B17" t="n">
-        <v>178.447531295811</v>
+        <v>178.447531619513</v>
       </c>
       <c r="C17" t="n">
-        <v>132.131604879044</v>
+        <v>132.131604761499</v>
       </c>
       <c r="D17" t="n">
-        <v>115.043698838589</v>
+        <v>115.043698611754</v>
       </c>
       <c r="E17" t="n">
-        <v>258.849304105909</v>
+        <v>258.849305649419</v>
       </c>
       <c r="F17" t="n">
-        <v>328.916364669144</v>
+        <v>328.916367696882</v>
       </c>
       <c r="G17" t="s">
         <v>10</v>
@@ -928,7 +928,7 @@
         <v>74</v>
       </c>
       <c r="I17" t="n">
-        <v>104.447531295811</v>
+        <v>104.447531619513</v>
       </c>
       <c r="J17" t="s">
         <v>12</v>
@@ -939,19 +939,19 @@
         <v>44317</v>
       </c>
       <c r="B18" t="n">
-        <v>195.798845144168</v>
+        <v>195.798845525873</v>
       </c>
       <c r="C18" t="n">
-        <v>141.826013210243</v>
+        <v>141.826013054688</v>
       </c>
       <c r="D18" t="n">
-        <v>122.412738882016</v>
+        <v>122.412738601389</v>
       </c>
       <c r="E18" t="n">
-        <v>293.946270299397</v>
+        <v>293.946272296804</v>
       </c>
       <c r="F18" t="n">
-        <v>383.882534281578</v>
+        <v>383.882538402042</v>
       </c>
       <c r="G18" t="s">
         <v>10</v>
@@ -960,7 +960,7 @@
         <v>97</v>
       </c>
       <c r="I18" t="n">
-        <v>98.7988451441683</v>
+        <v>98.798845525873</v>
       </c>
       <c r="J18" t="s">
         <v>12</v>
@@ -971,19 +971,19 @@
         <v>44348</v>
       </c>
       <c r="B19" t="n">
-        <v>221.050576477628</v>
+        <v>221.050576958293</v>
       </c>
       <c r="C19" t="n">
-        <v>155.713180567728</v>
+        <v>155.71318036743</v>
       </c>
       <c r="D19" t="n">
-        <v>132.953654108685</v>
+        <v>132.95365376146</v>
       </c>
       <c r="E19" t="n">
-        <v>347.27263171515</v>
+        <v>347.272634473393</v>
       </c>
       <c r="F19" t="n">
-        <v>471.043684362622</v>
+        <v>471.043690432655</v>
       </c>
       <c r="G19" t="s">
         <v>10</v>
@@ -992,7 +992,7 @@
         <v>109</v>
       </c>
       <c r="I19" t="n">
-        <v>112.050576477628</v>
+        <v>112.050576958293</v>
       </c>
       <c r="J19" t="s">
         <v>12</v>
@@ -1003,19 +1003,19 @@
         <v>44378</v>
       </c>
       <c r="B20" t="n">
-        <v>244.269597953258</v>
+        <v>244.269598522759</v>
       </c>
       <c r="C20" t="n">
-        <v>167.884956055763</v>
+        <v>167.884955802746</v>
       </c>
       <c r="D20" t="n">
-        <v>142.015733749935</v>
+        <v>142.015733331614</v>
       </c>
       <c r="E20" t="n">
-        <v>400.174020058277</v>
+        <v>400.174023662265</v>
       </c>
       <c r="F20" t="n">
-        <v>563.16427547389</v>
+        <v>563.16428393314</v>
       </c>
       <c r="G20" t="s">
         <v>10</v>
@@ -1024,7 +1024,7 @@
         <v>92</v>
       </c>
       <c r="I20" t="n">
-        <v>152.269597953258</v>
+        <v>152.269598522759</v>
       </c>
       <c r="J20" t="s">
         <v>12</v>
@@ -1035,19 +1035,19 @@
         <v>44409</v>
       </c>
       <c r="B21" t="n">
-        <v>216.813437667477</v>
+        <v>216.813438125357</v>
       </c>
       <c r="C21" t="n">
-        <v>152.203317492006</v>
+        <v>152.203317248274</v>
       </c>
       <c r="D21" t="n">
-        <v>129.785770374637</v>
+        <v>129.785769982812</v>
       </c>
       <c r="E21" t="n">
-        <v>342.582742120007</v>
+        <v>342.58274497615</v>
       </c>
       <c r="F21" t="n">
-        <v>466.988794598046</v>
+        <v>466.988801000063</v>
       </c>
       <c r="G21" t="s">
         <v>10</v>
@@ -1056,7 +1056,7 @@
         <v>60</v>
       </c>
       <c r="I21" t="n">
-        <v>156.813437667477</v>
+        <v>156.813438125357</v>
       </c>
       <c r="J21" t="s">
         <v>12</v>
@@ -1067,19 +1067,19 @@
         <v>44440</v>
       </c>
       <c r="B22" t="n">
-        <v>212.964149422235</v>
+        <v>212.964149860659</v>
       </c>
       <c r="C22" t="n">
-        <v>149.580980759546</v>
+        <v>149.580980498893</v>
       </c>
       <c r="D22" t="n">
-        <v>127.575686598522</v>
+        <v>127.575686190983</v>
       </c>
       <c r="E22" t="n">
-        <v>336.199522353092</v>
+        <v>336.199525185792</v>
       </c>
       <c r="F22" t="n">
-        <v>457.933933164579</v>
+        <v>457.933939536359</v>
       </c>
       <c r="G22" t="s">
         <v>10</v>
@@ -1088,7 +1088,7 @@
         <v>49</v>
       </c>
       <c r="I22" t="n">
-        <v>163.964149422235</v>
+        <v>163.964149860659</v>
       </c>
       <c r="J22" t="s">
         <v>12</v>
@@ -1099,19 +1099,19 @@
         <v>44470</v>
       </c>
       <c r="B23" t="n">
-        <v>192.187045053324</v>
+        <v>192.187045424565</v>
       </c>
       <c r="C23" t="n">
-        <v>137.364210107974</v>
+        <v>137.364209864918</v>
       </c>
       <c r="D23" t="n">
-        <v>117.945848592274</v>
+        <v>117.945848214252</v>
       </c>
       <c r="E23" t="n">
-        <v>294.784583095614</v>
+        <v>294.784585439429</v>
       </c>
       <c r="F23" t="n">
-        <v>391.839050220944</v>
+        <v>391.839055301854</v>
       </c>
       <c r="G23" t="s">
         <v>10</v>
@@ -1120,7 +1120,7 @@
         <v>46</v>
       </c>
       <c r="I23" t="n">
-        <v>146.187045053324</v>
+        <v>146.187045424565</v>
       </c>
       <c r="J23" t="s">
         <v>12</v>
@@ -1131,19 +1131,19 @@
         <v>44501</v>
       </c>
       <c r="B24" t="n">
-        <v>231.240979574074</v>
+        <v>231.240980098048</v>
       </c>
       <c r="C24" t="n">
-        <v>158.771757958171</v>
+        <v>158.77175764143</v>
       </c>
       <c r="D24" t="n">
-        <v>134.256522794062</v>
+        <v>134.256522312037</v>
       </c>
       <c r="E24" t="n">
-        <v>379.489212349389</v>
+        <v>379.489216025821</v>
       </c>
       <c r="F24" t="n">
-        <v>534.892958596619</v>
+        <v>534.892967363661</v>
       </c>
       <c r="G24" t="s">
         <v>10</v>
@@ -1152,7 +1152,7 @@
         <v>62</v>
       </c>
       <c r="I24" t="n">
-        <v>169.240979574074</v>
+        <v>169.240980098048</v>
       </c>
       <c r="J24" t="s">
         <v>12</v>
@@ -1163,19 +1163,19 @@
         <v>44531</v>
       </c>
       <c r="B25" t="n">
-        <v>188.615139394612</v>
+        <v>188.615139763135</v>
       </c>
       <c r="C25" t="n">
-        <v>134.629361911063</v>
+        <v>134.629361650428</v>
       </c>
       <c r="D25" t="n">
-        <v>115.537133982543</v>
+        <v>115.537133584753</v>
       </c>
       <c r="E25" t="n">
-        <v>289.942397292469</v>
+        <v>289.94239969734</v>
       </c>
       <c r="F25" t="n">
-        <v>386.110044337612</v>
+        <v>386.110049585401</v>
       </c>
       <c r="G25" t="s">
         <v>10</v>
@@ -1184,7 +1184,7 @@
         <v>72</v>
       </c>
       <c r="I25" t="n">
-        <v>116.615139394612</v>
+        <v>116.615139763135</v>
       </c>
       <c r="J25" t="s">
         <v>12</v>
@@ -1195,19 +1195,19 @@
         <v>44562</v>
       </c>
       <c r="B26" t="n">
-        <v>265.851854479261</v>
+        <v>265.85185528009</v>
       </c>
       <c r="C26" t="n">
-        <v>170.171757585472</v>
+        <v>170.17175724534</v>
       </c>
       <c r="D26" t="n">
-        <v>140.276704700597</v>
+        <v>140.27670417257</v>
       </c>
       <c r="E26" t="n">
-        <v>496.954779910906</v>
+        <v>496.954786335964</v>
       </c>
       <c r="F26" t="n">
-        <v>795.821335576305</v>
+        <v>795.821354264005</v>
       </c>
       <c r="G26" t="s">
         <v>10</v>
@@ -1216,7 +1216,7 @@
         <v>26</v>
       </c>
       <c r="I26" t="n">
-        <v>239.851854479261</v>
+        <v>239.85185528009</v>
       </c>
       <c r="J26" t="s">
         <v>12</v>
@@ -1227,19 +1227,19 @@
         <v>44593</v>
       </c>
       <c r="B27" t="n">
-        <v>235.764069112874</v>
+        <v>235.764069772014</v>
       </c>
       <c r="C27" t="n">
-        <v>152.092708077328</v>
+        <v>152.092707752974</v>
       </c>
       <c r="D27" t="n">
-        <v>125.719406013159</v>
+        <v>125.719405525293</v>
       </c>
       <c r="E27" t="n">
-        <v>434.019435994128</v>
+        <v>434.019441378688</v>
       </c>
       <c r="F27" t="n">
-        <v>683.92092727708</v>
+        <v>683.920942618336</v>
       </c>
       <c r="G27" t="s">
         <v>10</v>
@@ -1248,7 +1248,7 @@
         <v>30</v>
       </c>
       <c r="I27" t="n">
-        <v>205.764069112874</v>
+        <v>205.764069772014</v>
       </c>
       <c r="J27" t="s">
         <v>12</v>
@@ -1259,19 +1259,19 @@
         <v>44621</v>
       </c>
       <c r="B28" t="n">
-        <v>166.050906860435</v>
+        <v>166.050907260128</v>
       </c>
       <c r="C28" t="n">
-        <v>114.487371975564</v>
+        <v>114.487371759821</v>
       </c>
       <c r="D28" t="n">
-        <v>96.9611781138181</v>
+        <v>96.9611777747323</v>
       </c>
       <c r="E28" t="n">
-        <v>270.54416642191</v>
+        <v>270.544169080885</v>
       </c>
       <c r="F28" t="n">
-        <v>378.864950955103</v>
+        <v>378.864957195665</v>
       </c>
       <c r="G28" t="s">
         <v>10</v>
@@ -1280,7 +1280,7 @@
         <v>31</v>
       </c>
       <c r="I28" t="n">
-        <v>135.050906860435</v>
+        <v>135.050907260128</v>
       </c>
       <c r="J28" t="s">
         <v>12</v>
@@ -1291,19 +1291,19 @@
         <v>44652</v>
       </c>
       <c r="B29" t="n">
-        <v>177.513580566031</v>
+        <v>177.513580999007</v>
       </c>
       <c r="C29" t="n">
-        <v>119.570523321264</v>
+        <v>119.570523054917</v>
       </c>
       <c r="D29" t="n">
-        <v>100.391854860423</v>
+        <v>100.39185446429</v>
       </c>
       <c r="E29" t="n">
-        <v>301.368751405789</v>
+        <v>301.368754674822</v>
       </c>
       <c r="F29" t="n">
-        <v>438.277011673613</v>
+        <v>438.27701989671</v>
       </c>
       <c r="G29" t="s">
         <v>10</v>
@@ -1312,7 +1312,7 @@
         <v>34</v>
       </c>
       <c r="I29" t="n">
-        <v>143.513580566031</v>
+        <v>143.513580999007</v>
       </c>
       <c r="J29" t="s">
         <v>12</v>
@@ -1323,19 +1323,19 @@
         <v>44682</v>
       </c>
       <c r="B30" t="n">
-        <v>193.879376387505</v>
+        <v>193.879376905431</v>
       </c>
       <c r="C30" t="n">
-        <v>127.070002146501</v>
+        <v>127.070001832474</v>
       </c>
       <c r="D30" t="n">
-        <v>105.631676200835</v>
+        <v>105.63167574446</v>
       </c>
       <c r="E30" t="n">
-        <v>346.211999136629</v>
+        <v>346.212003432586</v>
       </c>
       <c r="F30" t="n">
-        <v>528.829068878955</v>
+        <v>528.829080605676</v>
       </c>
       <c r="G30" t="s">
         <v>10</v>
@@ -1344,7 +1344,7 @@
         <v>37</v>
       </c>
       <c r="I30" t="n">
-        <v>156.879376387505</v>
+        <v>156.879376905431</v>
       </c>
       <c r="J30" t="s">
         <v>12</v>
@@ -1355,19 +1355,19 @@
         <v>44713</v>
       </c>
       <c r="B31" t="n">
-        <v>216.013445790307</v>
+        <v>216.013446463132</v>
       </c>
       <c r="C31" t="n">
-        <v>137.049720891271</v>
+        <v>137.049720531785</v>
       </c>
       <c r="D31" t="n">
-        <v>112.622421426361</v>
+        <v>112.622420905018</v>
       </c>
       <c r="E31" t="n">
-        <v>411.000510710807</v>
+        <v>411.000516737342</v>
       </c>
       <c r="F31" t="n">
-        <v>670.834249992979</v>
+        <v>670.834268269271</v>
       </c>
       <c r="G31" t="s">
         <v>10</v>
@@ -1376,7 +1376,7 @@
         <v>62</v>
       </c>
       <c r="I31" t="n">
-        <v>154.013445790307</v>
+        <v>154.013446463132</v>
       </c>
       <c r="J31" t="s">
         <v>12</v>
@@ -1387,19 +1387,19 @@
         <v>44743</v>
       </c>
       <c r="B32" t="n">
-        <v>237.212036050348</v>
+        <v>237.212036854288</v>
       </c>
       <c r="C32" t="n">
-        <v>146.087961356755</v>
+        <v>146.087960935491</v>
       </c>
       <c r="D32" t="n">
-        <v>118.82318295009</v>
+        <v>118.82318235341</v>
       </c>
       <c r="E32" t="n">
-        <v>480.029724164644</v>
+        <v>480.029732215162</v>
       </c>
       <c r="F32" t="n">
-        <v>840.335830227298</v>
+        <v>840.335857642834</v>
       </c>
       <c r="G32" t="s">
         <v>10</v>
@@ -1408,7 +1408,7 @@
         <v>79</v>
       </c>
       <c r="I32" t="n">
-        <v>158.212036050348</v>
+        <v>158.212036854288</v>
       </c>
       <c r="J32" t="s">
         <v>12</v>
@@ -1419,19 +1419,19 @@
         <v>44774</v>
       </c>
       <c r="B33" t="n">
-        <v>212.059861369199</v>
+        <v>212.059862011363</v>
       </c>
       <c r="C33" t="n">
-        <v>133.799328213001</v>
+        <v>133.799327810163</v>
       </c>
       <c r="D33" t="n">
-        <v>109.739468363039</v>
+        <v>109.739467802035</v>
       </c>
       <c r="E33" t="n">
-        <v>408.018781161218</v>
+        <v>408.018787409182</v>
       </c>
       <c r="F33" t="n">
-        <v>674.197988743705</v>
+        <v>674.198008226522</v>
       </c>
       <c r="G33" t="s">
         <v>10</v>
@@ -1440,7 +1440,7 @@
         <v>217</v>
       </c>
       <c r="I33" t="n">
-        <v>-4.9401386308007</v>
+        <v>-4.94013798863719</v>
       </c>
       <c r="J33" t="s">
         <v>11</v>
@@ -1451,19 +1451,19 @@
         <v>44805</v>
       </c>
       <c r="B34" t="n">
-        <v>208.80515701221</v>
+        <v>208.805157624737</v>
       </c>
       <c r="C34" t="n">
-        <v>131.689482721408</v>
+        <v>131.689482299149</v>
       </c>
       <c r="D34" t="n">
-        <v>107.992959494436</v>
+        <v>107.992958917514</v>
       </c>
       <c r="E34" t="n">
-        <v>402.106032883077</v>
+        <v>402.106039089167</v>
       </c>
       <c r="F34" t="n">
-        <v>665.067598620247</v>
+        <v>665.067618089113</v>
       </c>
       <c r="G34" t="s">
         <v>10</v>
@@ -1472,7 +1472,7 @@
         <v>96</v>
       </c>
       <c r="I34" t="n">
-        <v>112.80515701221</v>
+        <v>112.805157624737</v>
       </c>
       <c r="J34" t="s">
         <v>12</v>
@@ -1483,19 +1483,19 @@
         <v>44835</v>
       </c>
       <c r="B35" t="n">
-        <v>188.218747579065</v>
+        <v>188.21874810278</v>
       </c>
       <c r="C35" t="n">
-        <v>121.334226697822</v>
+        <v>121.334226312347</v>
       </c>
       <c r="D35" t="n">
-        <v>100.269124134505</v>
+        <v>100.269123604145</v>
       </c>
       <c r="E35" t="n">
-        <v>346.976446497616</v>
+        <v>346.97645150075</v>
       </c>
       <c r="F35" t="n">
-        <v>547.556526058761</v>
+        <v>547.556540612811</v>
       </c>
       <c r="G35" t="s">
         <v>10</v>
@@ -1504,7 +1504,7 @@
         <v>92</v>
       </c>
       <c r="I35" t="n">
-        <v>96.2187475790647</v>
+        <v>96.2187481027796</v>
       </c>
       <c r="J35" t="s">
         <v>12</v>
@@ -1515,19 +1515,19 @@
         <v>44866</v>
       </c>
       <c r="B36" t="n">
-        <v>222.317487466846</v>
+        <v>222.317488227302</v>
       </c>
       <c r="C36" t="n">
-        <v>136.838997096493</v>
+        <v>136.838996637061</v>
       </c>
       <c r="D36" t="n">
-        <v>111.279293966627</v>
+        <v>111.279293336059</v>
       </c>
       <c r="E36" t="n">
-        <v>450.422846089844</v>
+        <v>450.422854150771</v>
       </c>
       <c r="F36" t="n">
-        <v>789.616547672045</v>
+        <v>789.616575367394</v>
       </c>
       <c r="G36" t="s">
         <v>10</v>
@@ -1536,7 +1536,7 @@
         <v>74</v>
       </c>
       <c r="I36" t="n">
-        <v>148.317487466846</v>
+        <v>148.317488227302</v>
       </c>
       <c r="J36" t="s">
         <v>12</v>
@@ -1547,19 +1547,19 @@
         <v>44896</v>
       </c>
       <c r="B37" t="n">
-        <v>182.974175756812</v>
+        <v>182.974176291061</v>
       </c>
       <c r="C37" t="n">
-        <v>117.923605952702</v>
+        <v>117.923605566097</v>
       </c>
       <c r="D37" t="n">
-        <v>97.4419211273503</v>
+        <v>97.4419205938559</v>
       </c>
       <c r="E37" t="n">
-        <v>337.474353501702</v>
+        <v>337.474358573469</v>
       </c>
       <c r="F37" t="n">
-        <v>532.835680703392</v>
+        <v>532.835695458016</v>
       </c>
       <c r="G37" t="s">
         <v>10</v>
@@ -1568,7 +1568,7 @@
         <v>79</v>
       </c>
       <c r="I37" t="n">
-        <v>103.974175756812</v>
+        <v>103.974176291061</v>
       </c>
       <c r="J37" t="s">
         <v>12</v>
@@ -1579,19 +1579,19 @@
         <v>44927</v>
       </c>
       <c r="B38" t="n">
-        <v>257.227510865705</v>
+        <v>257.227511913248</v>
       </c>
       <c r="C38" t="n">
-        <v>147.309163442975</v>
+        <v>147.309162893325</v>
       </c>
       <c r="D38" t="n">
-        <v>116.972427760697</v>
+        <v>116.972427031709</v>
       </c>
       <c r="E38" t="n">
-        <v>615.329529162255</v>
+        <v>615.32954360374</v>
       </c>
       <c r="F38" t="n">
-        <v>1348.26007441086</v>
+        <v>1348.26014581754</v>
       </c>
       <c r="G38" t="s">
         <v>10</v>
@@ -1600,7 +1600,7 @@
         <v>149</v>
       </c>
       <c r="I38" t="n">
-        <v>108.227510865705</v>
+        <v>108.227511913248</v>
       </c>
       <c r="J38" t="s">
         <v>12</v>
@@ -1611,19 +1611,19 @@
         <v>44958</v>
       </c>
       <c r="B39" t="n">
-        <v>228.037086722554</v>
+        <v>228.037087593093</v>
       </c>
       <c r="C39" t="n">
-        <v>132.879289701366</v>
+        <v>132.879289201713</v>
       </c>
       <c r="D39" t="n">
-        <v>106.1072287703</v>
+        <v>106.107228109842</v>
       </c>
       <c r="E39" t="n">
-        <v>522.888307308088</v>
+        <v>522.888318785602</v>
       </c>
       <c r="F39" t="n">
-        <v>1076.5520250132</v>
+        <v>1076.55207641159</v>
       </c>
       <c r="G39" t="s">
         <v>10</v>
@@ -1632,7 +1632,7 @@
         <v>117</v>
       </c>
       <c r="I39" t="n">
-        <v>111.037086722554</v>
+        <v>111.037087593093</v>
       </c>
       <c r="J39" t="s">
         <v>12</v>
@@ -1643,19 +1643,19 @@
         <v>44986</v>
       </c>
       <c r="B40" t="n">
-        <v>162.003887065932</v>
+        <v>162.003887582969</v>
       </c>
       <c r="C40" t="n">
-        <v>102.380184402926</v>
+        <v>102.380184060206</v>
       </c>
       <c r="D40" t="n">
-        <v>84.0169356984305</v>
+        <v>84.0169352257466</v>
       </c>
       <c r="E40" t="n">
-        <v>310.695867308247</v>
+        <v>310.695872419948</v>
       </c>
       <c r="F40" t="n">
-        <v>511.546519031581</v>
+        <v>511.546534916669</v>
       </c>
       <c r="G40" t="s">
         <v>10</v>
@@ -1664,7 +1664,7 @@
         <v>138</v>
       </c>
       <c r="I40" t="n">
-        <v>24.0038870659317</v>
+        <v>24.003887582969</v>
       </c>
       <c r="J40" t="s">
         <v>12</v>
@@ -1675,19 +1675,19 @@
         <v>45017</v>
       </c>
       <c r="B41" t="n">
-        <v>172.708677448256</v>
+        <v>172.708678015537</v>
       </c>
       <c r="C41" t="n">
-        <v>106.430301495266</v>
+        <v>106.430301100724</v>
       </c>
       <c r="D41" t="n">
-        <v>86.5855186696253</v>
+        <v>86.585518142207</v>
       </c>
       <c r="E41" t="n">
-        <v>349.029896952014</v>
+        <v>349.029903297826</v>
       </c>
       <c r="F41" t="n">
-        <v>610.038726949754</v>
+        <v>610.038748787161</v>
       </c>
       <c r="G41" t="s">
         <v>10</v>
@@ -1696,7 +1696,7 @@
         <v>189</v>
       </c>
       <c r="I41" t="n">
-        <v>-16.2913225517439</v>
+        <v>-16.2913219844633</v>
       </c>
       <c r="J41" t="s">
         <v>11</v>
@@ -1707,19 +1707,19 @@
         <v>45047</v>
       </c>
       <c r="B42" t="n">
-        <v>188.651131430103</v>
+        <v>188.651132096025</v>
       </c>
       <c r="C42" t="n">
-        <v>112.665968530955</v>
+        <v>112.665968075305</v>
       </c>
       <c r="D42" t="n">
-        <v>90.6964650540456</v>
+        <v>90.6964644591564</v>
       </c>
       <c r="E42" t="n">
-        <v>408.472218388564</v>
+        <v>408.472226857244</v>
       </c>
       <c r="F42" t="n">
-        <v>777.795453051998</v>
+        <v>777.795486637561</v>
       </c>
       <c r="G42" t="s">
         <v>10</v>
@@ -1728,7 +1728,7 @@
         <v>212</v>
       </c>
       <c r="I42" t="n">
-        <v>-23.3488685698971</v>
+        <v>-23.3488679039748</v>
       </c>
       <c r="J42" t="s">
         <v>11</v>
@@ -1739,19 +1739,19 @@
         <v>45078</v>
       </c>
       <c r="B43" t="n">
-        <v>210.801316228905</v>
+        <v>210.80131705954</v>
       </c>
       <c r="C43" t="n">
-        <v>121.130919088853</v>
+        <v>121.130918560136</v>
       </c>
       <c r="D43" t="n">
-        <v>96.289805207703</v>
+        <v>96.2898045304003</v>
       </c>
       <c r="E43" t="n">
-        <v>500.063410970563</v>
+        <v>500.06342318705</v>
       </c>
       <c r="F43" t="n">
-        <v>1081.92110618015</v>
+        <v>1081.92116586861</v>
       </c>
       <c r="G43" t="s">
         <v>10</v>
@@ -1760,7 +1760,7 @@
         <v>264</v>
       </c>
       <c r="I43" t="n">
-        <v>-53.1986837710949</v>
+        <v>-53.1986829404605</v>
       </c>
       <c r="J43" t="s">
         <v>11</v>
@@ -1771,19 +1771,19 @@
         <v>45108</v>
       </c>
       <c r="B44" t="n">
-        <v>231.575886322831</v>
+        <v>231.575887302093</v>
       </c>
       <c r="C44" t="n">
-        <v>128.524094157004</v>
+        <v>128.524093548638</v>
       </c>
       <c r="D44" t="n">
-        <v>101.048541312695</v>
+        <v>101.048540551692</v>
       </c>
       <c r="E44" t="n">
-        <v>600.576557296276</v>
+        <v>600.576574205277</v>
       </c>
       <c r="F44" t="n">
-        <v>1500.71436369497</v>
+        <v>1500.7144684402</v>
       </c>
       <c r="G44" t="s">
         <v>10</v>
@@ -1792,7 +1792,7 @@
         <v>289</v>
       </c>
       <c r="I44" t="n">
-        <v>-57.4241136771693</v>
+        <v>-57.4241126979065</v>
       </c>
       <c r="J44" t="s">
         <v>11</v>
@@ -1803,19 +1803,19 @@
         <v>45139</v>
       </c>
       <c r="B45" t="n">
-        <v>206.952901494214</v>
+        <v>206.952902291396</v>
       </c>
       <c r="C45" t="n">
-        <v>118.226309799761</v>
+        <v>118.22630923739</v>
       </c>
       <c r="D45" t="n">
-        <v>93.8048751655571</v>
+        <v>93.8048744610933</v>
       </c>
       <c r="E45" t="n">
-        <v>498.113263946935</v>
+        <v>498.113276582878</v>
       </c>
       <c r="F45" t="n">
-        <v>1101.71190244328</v>
+        <v>1101.71196679023</v>
       </c>
       <c r="G45" t="s">
         <v>10</v>
@@ -1824,7 +1824,7 @@
         <v>234</v>
       </c>
       <c r="I45" t="n">
-        <v>-27.0470985057856</v>
+        <v>-27.0470977086035</v>
       </c>
       <c r="J45" t="s">
         <v>11</v>
@@ -1835,19 +1835,19 @@
         <v>45170</v>
       </c>
       <c r="B46" t="n">
-        <v>203.649208745448</v>
+        <v>203.649209512643</v>
       </c>
       <c r="C46" t="n">
-        <v>116.316796413813</v>
+        <v>116.316795839439</v>
       </c>
       <c r="D46" t="n">
-        <v>92.2841667145625</v>
+        <v>92.2841660019825</v>
       </c>
       <c r="E46" t="n">
-        <v>490.395606853082</v>
+        <v>490.395619374524</v>
       </c>
       <c r="F46" t="n">
-        <v>1085.43766195732</v>
+        <v>1085.43772597913</v>
       </c>
       <c r="G46" t="s">
         <v>10</v>
@@ -1856,7 +1856,7 @@
         <v>193</v>
       </c>
       <c r="I46" t="n">
-        <v>10.6492087454478</v>
+        <v>10.6492095126432</v>
       </c>
       <c r="J46" t="s">
         <v>12</v>
@@ -1867,19 +1867,19 @@
         <v>45200</v>
       </c>
       <c r="B47" t="n">
-        <v>184.03479737288</v>
+        <v>184.034798026241</v>
       </c>
       <c r="C47" t="n">
-        <v>107.793471071596</v>
+        <v>107.793470546237</v>
       </c>
       <c r="D47" t="n">
-        <v>86.2204689524367</v>
+        <v>86.2204682949946</v>
       </c>
       <c r="E47" t="n">
-        <v>416.841891937587</v>
+        <v>416.841901727199</v>
       </c>
       <c r="F47" t="n">
-        <v>843.497668481155</v>
+        <v>843.497711763538</v>
       </c>
       <c r="G47" t="s">
         <v>10</v>
@@ -1888,7 +1888,7 @@
         <v>193</v>
       </c>
       <c r="I47" t="n">
-        <v>-8.96520262712008</v>
+        <v>-8.96520197375858</v>
       </c>
       <c r="J47" t="s">
         <v>11</v>
@@ -1899,19 +1899,19 @@
         <v>45231</v>
       </c>
       <c r="B48" t="n">
-        <v>218.186141159678</v>
+        <v>218.186142066295</v>
       </c>
       <c r="C48" t="n">
-        <v>120.86571609604</v>
+        <v>120.865715455912</v>
       </c>
       <c r="D48" t="n">
-        <v>94.9717283473785</v>
+        <v>94.9717275646333</v>
       </c>
       <c r="E48" t="n">
-        <v>568.700256002856</v>
+        <v>568.700272778633</v>
       </c>
       <c r="F48" t="n">
-        <v>1433.59391992545</v>
+        <v>1433.59402600701</v>
       </c>
       <c r="G48" t="s">
         <v>10</v>
@@ -1920,7 +1920,7 @@
         <v>183</v>
       </c>
       <c r="I48" t="n">
-        <v>35.1861411596781</v>
+        <v>35.186142066295</v>
       </c>
       <c r="J48" t="s">
         <v>12</v>
@@ -1931,19 +1931,19 @@
         <v>45261</v>
       </c>
       <c r="B49" t="n">
-        <v>179.663447928428</v>
+        <v>179.663448576221</v>
       </c>
       <c r="C49" t="n">
-        <v>105.068693238044</v>
+        <v>105.068692706354</v>
       </c>
       <c r="D49" t="n">
-        <v>83.9981381956075</v>
+        <v>83.9981375331062</v>
       </c>
       <c r="E49" t="n">
-        <v>408.45145756934</v>
+        <v>408.451467446616</v>
       </c>
       <c r="F49" t="n">
-        <v>830.817872351685</v>
+        <v>830.81791644232</v>
       </c>
       <c r="G49" t="s">
         <v>10</v>
@@ -1952,7 +1952,7 @@
         <v>245</v>
       </c>
       <c r="I49" t="n">
-        <v>-65.3365520715716</v>
+        <v>-65.336551423779</v>
       </c>
       <c r="J49" t="s">
         <v>11</v>

--- a/outcome/appendix/forecast/Malaria.xlsx
+++ b/outcome/appendix/forecast/Malaria.xlsx
@@ -427,19 +427,19 @@
         <v>43831</v>
       </c>
       <c r="B2" t="n">
-        <v>287.673188256057</v>
+        <v>277.48203942511</v>
       </c>
       <c r="C2" t="n">
-        <v>234.182415696043</v>
+        <v>188.214243032656</v>
       </c>
       <c r="D2" t="n">
-        <v>212.132240594507</v>
+        <v>169.819021188253</v>
       </c>
       <c r="E2" t="n">
-        <v>364.5370173396</v>
+        <v>440.627362179176</v>
       </c>
       <c r="F2" t="n">
-        <v>419.942892733947</v>
+        <v>532.818553038334</v>
       </c>
       <c r="G2" t="s">
         <v>10</v>
@@ -448,7 +448,7 @@
         <v>348</v>
       </c>
       <c r="I2" t="n">
-        <v>-60.3268117439433</v>
+        <v>-70.5179605748896</v>
       </c>
       <c r="J2" t="s">
         <v>11</v>
@@ -459,19 +459,19 @@
         <v>43862</v>
       </c>
       <c r="B3" t="n">
-        <v>256.459192575546</v>
+        <v>248.233715853581</v>
       </c>
       <c r="C3" t="n">
-        <v>202.267863754414</v>
+        <v>185.152272515094</v>
       </c>
       <c r="D3" t="n">
-        <v>180.747119121856</v>
+        <v>167.099360293025</v>
       </c>
       <c r="E3" t="n">
-        <v>339.250193179924</v>
+        <v>377.788952082555</v>
       </c>
       <c r="F3" t="n">
-        <v>402.560978714291</v>
+        <v>459.983044800932</v>
       </c>
       <c r="G3" t="s">
         <v>10</v>
@@ -480,7 +480,7 @@
         <v>126</v>
       </c>
       <c r="I3" t="n">
-        <v>130.459192575546</v>
+        <v>122.233715853581</v>
       </c>
       <c r="J3" t="s">
         <v>12</v>
@@ -491,7 +491,7 @@
         <v>43891</v>
       </c>
       <c r="B4" t="n">
-        <v>176.104558031563</v>
+        <v>193.166155297014</v>
       </c>
       <c r="C4" t="n">
         <v>143.01186863588</v>
@@ -500,10 +500,10 @@
         <v>129.40935884398</v>
       </c>
       <c r="E4" t="n">
-        <v>223.878160984304</v>
+        <v>261.753295538276</v>
       </c>
       <c r="F4" t="n">
-        <v>258.466476148718</v>
+        <v>310.737117288776</v>
       </c>
       <c r="G4" t="s">
         <v>10</v>
@@ -512,7 +512,7 @@
         <v>92</v>
       </c>
       <c r="I4" t="n">
-        <v>84.104558031563</v>
+        <v>101.166155297014</v>
       </c>
       <c r="J4" t="s">
         <v>12</v>
@@ -523,7 +523,7 @@
         <v>43922</v>
       </c>
       <c r="B5" t="n">
-        <v>190.049439431466</v>
+        <v>210.537278547931</v>
       </c>
       <c r="C5" t="n">
         <v>151.169620017098</v>
@@ -532,10 +532,10 @@
         <v>135.574480012874</v>
       </c>
       <c r="E5" t="n">
-        <v>248.469387434287</v>
+        <v>326.461160286785</v>
       </c>
       <c r="F5" t="n">
-        <v>292.423686581451</v>
+        <v>399.743411943136</v>
       </c>
       <c r="G5" t="s">
         <v>10</v>
@@ -544,7 +544,7 @@
         <v>54</v>
       </c>
       <c r="I5" t="n">
-        <v>136.049439431466</v>
+        <v>156.537278547931</v>
       </c>
       <c r="J5" t="s">
         <v>12</v>
@@ -555,7 +555,7 @@
         <v>43952</v>
       </c>
       <c r="B6" t="n">
-        <v>207.009718218333</v>
+        <v>238.034701700444</v>
       </c>
       <c r="C6" t="n">
         <v>161.529209914064</v>
@@ -564,10 +564,10 @@
         <v>143.693109684426</v>
       </c>
       <c r="E6" t="n">
-        <v>277.975927348012</v>
+        <v>437.473592140719</v>
       </c>
       <c r="F6" t="n">
-        <v>333.389774069105</v>
+        <v>576.925948364105</v>
       </c>
       <c r="G6" t="s">
         <v>10</v>
@@ -576,7 +576,7 @@
         <v>40</v>
       </c>
       <c r="I6" t="n">
-        <v>167.009718218333</v>
+        <v>198.034701700444</v>
       </c>
       <c r="J6" t="s">
         <v>12</v>
@@ -587,7 +587,7 @@
         <v>43983</v>
       </c>
       <c r="B7" t="n">
-        <v>227.297373754329</v>
+        <v>262.494582648554</v>
       </c>
       <c r="C7" t="n">
         <v>173.974474251093</v>
@@ -596,10 +596,10 @@
         <v>153.528686160329</v>
       </c>
       <c r="E7" t="n">
-        <v>313.772417557016</v>
+        <v>521.377425053743</v>
       </c>
       <c r="F7" t="n">
-        <v>383.972080422665</v>
+        <v>735.416375406542</v>
       </c>
       <c r="G7" t="s">
         <v>10</v>
@@ -608,7 +608,7 @@
         <v>74</v>
       </c>
       <c r="I7" t="n">
-        <v>153.297373754329</v>
+        <v>188.494582648554</v>
       </c>
       <c r="J7" t="s">
         <v>12</v>
@@ -619,19 +619,19 @@
         <v>44013</v>
       </c>
       <c r="B8" t="n">
-        <v>248.549965080614</v>
+        <v>272.18405127096</v>
       </c>
       <c r="C8" t="n">
-        <v>186.780385608902</v>
+        <v>186.592849523182</v>
       </c>
       <c r="D8" t="n">
         <v>163.596730639674</v>
       </c>
       <c r="E8" t="n">
-        <v>352.542855778938</v>
+        <v>520.235204330275</v>
       </c>
       <c r="F8" t="n">
-        <v>440.287219698811</v>
+        <v>755.166801886392</v>
       </c>
       <c r="G8" t="s">
         <v>10</v>
@@ -640,7 +640,7 @@
         <v>57</v>
       </c>
       <c r="I8" t="n">
-        <v>191.549965080614</v>
+        <v>215.18405127096</v>
       </c>
       <c r="J8" t="s">
         <v>12</v>
@@ -651,19 +651,19 @@
         <v>44044</v>
       </c>
       <c r="B9" t="n">
-        <v>223.213068267961</v>
+        <v>238.886726538202</v>
       </c>
       <c r="C9" t="n">
         <v>170.178817301019</v>
       </c>
       <c r="D9" t="n">
-        <v>149.936597723192</v>
+        <v>147.477990139767</v>
       </c>
       <c r="E9" t="n">
-        <v>309.90617967761</v>
+        <v>414.185495697394</v>
       </c>
       <c r="F9" t="n">
-        <v>380.856945224361</v>
+        <v>581.90910334266</v>
       </c>
       <c r="G9" t="s">
         <v>10</v>
@@ -672,7 +672,7 @@
         <v>57</v>
       </c>
       <c r="I9" t="n">
-        <v>166.213068267961</v>
+        <v>181.886726538202</v>
       </c>
       <c r="J9" t="s">
         <v>12</v>
@@ -683,19 +683,19 @@
         <v>44075</v>
       </c>
       <c r="B10" t="n">
-        <v>220.430308374982</v>
+        <v>226.428897607829</v>
       </c>
       <c r="C10" t="n">
-        <v>167.986760107092</v>
+        <v>158.056003992552</v>
       </c>
       <c r="D10" t="n">
-        <v>147.979782852796</v>
+        <v>133.879211359467</v>
       </c>
       <c r="E10" t="n">
-        <v>306.230768347048</v>
+        <v>380.379378023117</v>
       </c>
       <c r="F10" t="n">
-        <v>376.512234929667</v>
+        <v>531.15902505104</v>
       </c>
       <c r="G10" t="s">
         <v>10</v>
@@ -704,7 +704,7 @@
         <v>81</v>
       </c>
       <c r="I10" t="n">
-        <v>139.430308374982</v>
+        <v>145.428897607829</v>
       </c>
       <c r="J10" t="s">
         <v>12</v>
@@ -715,19 +715,19 @@
         <v>44105</v>
       </c>
       <c r="B11" t="n">
-        <v>197.266615611368</v>
+        <v>207.172120615694</v>
       </c>
       <c r="C11" t="n">
-        <v>152.634121993531</v>
+        <v>143.297914456867</v>
       </c>
       <c r="D11" t="n">
-        <v>135.302512459175</v>
+        <v>122.10234622056</v>
       </c>
       <c r="E11" t="n">
-        <v>268.088852342107</v>
+        <v>348.233507560896</v>
       </c>
       <c r="F11" t="n">
-        <v>324.327353380585</v>
+        <v>488.597824332598</v>
       </c>
       <c r="G11" t="s">
         <v>10</v>
@@ -736,7 +736,7 @@
         <v>78</v>
       </c>
       <c r="I11" t="n">
-        <v>119.266615611368</v>
+        <v>129.172120615694</v>
       </c>
       <c r="J11" t="s">
         <v>12</v>
@@ -747,19 +747,19 @@
         <v>44136</v>
       </c>
       <c r="B12" t="n">
-        <v>228.584130484731</v>
+        <v>223.943914818864</v>
       </c>
       <c r="C12" t="n">
-        <v>172.501980872153</v>
+        <v>145.236259397156</v>
       </c>
       <c r="D12" t="n">
-        <v>151.349582957611</v>
+        <v>122.179587527861</v>
       </c>
       <c r="E12" t="n">
-        <v>322.188627620857</v>
+        <v>377.248746688502</v>
       </c>
       <c r="F12" t="n">
-        <v>400.459436306505</v>
+        <v>542.689631884867</v>
       </c>
       <c r="G12" t="s">
         <v>10</v>
@@ -768,7 +768,7 @@
         <v>63</v>
       </c>
       <c r="I12" t="n">
-        <v>165.584130484731</v>
+        <v>160.943914818864</v>
       </c>
       <c r="J12" t="s">
         <v>12</v>
@@ -779,19 +779,19 @@
         <v>44166</v>
       </c>
       <c r="B13" t="n">
-        <v>188.749091747399</v>
+        <v>200.71681926931</v>
       </c>
       <c r="C13" t="n">
-        <v>146.532718080069</v>
+        <v>130.640496742923</v>
       </c>
       <c r="D13" t="n">
-        <v>130.07510112219</v>
+        <v>111.036739425179</v>
       </c>
       <c r="E13" t="n">
-        <v>255.29202142481</v>
+        <v>357.049368171289</v>
       </c>
       <c r="F13" t="n">
-        <v>307.77969258943</v>
+        <v>522.440344028742</v>
       </c>
       <c r="G13" t="s">
         <v>10</v>
@@ -800,7 +800,7 @@
         <v>73</v>
       </c>
       <c r="I13" t="n">
-        <v>115.749091747399</v>
+        <v>127.71681926931</v>
       </c>
       <c r="J13" t="s">
         <v>12</v>
@@ -811,19 +811,19 @@
         <v>44197</v>
       </c>
       <c r="B14" t="n">
-        <v>269.341573884857</v>
+        <v>263.030383834216</v>
       </c>
       <c r="C14" t="n">
-        <v>191.328890098361</v>
+        <v>168.75127543887</v>
       </c>
       <c r="D14" t="n">
-        <v>163.891285263025</v>
+        <v>137.589435982654</v>
       </c>
       <c r="E14" t="n">
-        <v>417.304132528506</v>
+        <v>615.866935984713</v>
       </c>
       <c r="F14" t="n">
-        <v>559.393650107257</v>
+        <v>1142.02922346096</v>
       </c>
       <c r="G14" t="s">
         <v>10</v>
@@ -832,7 +832,7 @@
         <v>68</v>
       </c>
       <c r="I14" t="n">
-        <v>201.341573884857</v>
+        <v>195.030383834216</v>
       </c>
       <c r="J14" t="s">
         <v>12</v>
@@ -843,19 +843,19 @@
         <v>44228</v>
       </c>
       <c r="B15" t="n">
-        <v>236.94483126306</v>
+        <v>235.821967247207</v>
       </c>
       <c r="C15" t="n">
-        <v>169.548141748369</v>
+        <v>149.465138407806</v>
       </c>
       <c r="D15" t="n">
-        <v>145.644709013408</v>
+        <v>122.813984929918</v>
       </c>
       <c r="E15" t="n">
-        <v>362.7617518325</v>
+        <v>496.119834034088</v>
       </c>
       <c r="F15" t="n">
-        <v>481.452211388487</v>
+        <v>851.841264841349</v>
       </c>
       <c r="G15" t="s">
         <v>10</v>
@@ -864,7 +864,7 @@
         <v>58</v>
       </c>
       <c r="I15" t="n">
-        <v>178.94483126306</v>
+        <v>177.821967247207</v>
       </c>
       <c r="J15" t="s">
         <v>12</v>
@@ -875,19 +875,19 @@
         <v>44256</v>
       </c>
       <c r="B16" t="n">
-        <v>167.588202399649</v>
+        <v>190.206753742795</v>
       </c>
       <c r="C16" t="n">
-        <v>126.262196165841</v>
+        <v>120.930459163208</v>
       </c>
       <c r="D16" t="n">
-        <v>110.705282901928</v>
+        <v>100.979476444157</v>
       </c>
       <c r="E16" t="n">
-        <v>236.797992154374</v>
+        <v>352.744417387724</v>
       </c>
       <c r="F16" t="n">
-        <v>294.874572562597</v>
+        <v>540.611294739314</v>
       </c>
       <c r="G16" t="s">
         <v>10</v>
@@ -896,7 +896,7 @@
         <v>63</v>
       </c>
       <c r="I16" t="n">
-        <v>104.588202399649</v>
+        <v>127.206753742795</v>
       </c>
       <c r="J16" t="s">
         <v>12</v>
@@ -907,19 +907,19 @@
         <v>44287</v>
       </c>
       <c r="B17" t="n">
-        <v>178.447531619513</v>
+        <v>206.288821405577</v>
       </c>
       <c r="C17" t="n">
-        <v>132.131604761499</v>
+        <v>129.298360432976</v>
       </c>
       <c r="D17" t="n">
-        <v>115.043698611754</v>
+        <v>106.694928382049</v>
       </c>
       <c r="E17" t="n">
-        <v>258.849305649419</v>
+        <v>475.727465124461</v>
       </c>
       <c r="F17" t="n">
-        <v>328.916367696882</v>
+        <v>827.780082552301</v>
       </c>
       <c r="G17" t="s">
         <v>10</v>
@@ -928,7 +928,7 @@
         <v>74</v>
       </c>
       <c r="I17" t="n">
-        <v>104.447531619513</v>
+        <v>132.288821405577</v>
       </c>
       <c r="J17" t="s">
         <v>12</v>
@@ -939,19 +939,19 @@
         <v>44317</v>
       </c>
       <c r="B18" t="n">
-        <v>195.798845525873</v>
+        <v>231.29184318637</v>
       </c>
       <c r="C18" t="n">
         <v>141.826013054688</v>
       </c>
       <c r="D18" t="n">
-        <v>122.412738601389</v>
+        <v>115.825700408121</v>
       </c>
       <c r="E18" t="n">
-        <v>293.946272296804</v>
+        <v>677.504494543886</v>
       </c>
       <c r="F18" t="n">
-        <v>383.882538402042</v>
+        <v>1448.04837248444</v>
       </c>
       <c r="G18" t="s">
         <v>10</v>
@@ -960,7 +960,7 @@
         <v>97</v>
       </c>
       <c r="I18" t="n">
-        <v>98.798845525873</v>
+        <v>134.29184318637</v>
       </c>
       <c r="J18" t="s">
         <v>12</v>
@@ -971,19 +971,19 @@
         <v>44348</v>
       </c>
       <c r="B19" t="n">
-        <v>221.050576958293</v>
+        <v>253.38535025324</v>
       </c>
       <c r="C19" t="n">
-        <v>155.71318036743</v>
+        <v>153.909943721984</v>
       </c>
       <c r="D19" t="n">
-        <v>132.95365376146</v>
+        <v>123.186291428277</v>
       </c>
       <c r="E19" t="n">
-        <v>347.272634473393</v>
+        <v>834.641835785153</v>
       </c>
       <c r="F19" t="n">
-        <v>471.043690432655</v>
+        <v>2136.58083794077</v>
       </c>
       <c r="G19" t="s">
         <v>10</v>
@@ -992,7 +992,7 @@
         <v>109</v>
       </c>
       <c r="I19" t="n">
-        <v>112.050576958293</v>
+        <v>144.38535025324</v>
       </c>
       <c r="J19" t="s">
         <v>12</v>
@@ -1003,19 +1003,19 @@
         <v>44378</v>
       </c>
       <c r="B20" t="n">
-        <v>244.269598522759</v>
+        <v>260.982700591465</v>
       </c>
       <c r="C20" t="n">
-        <v>167.884955802746</v>
+        <v>156.919104546279</v>
       </c>
       <c r="D20" t="n">
-        <v>142.015733331614</v>
+        <v>124.69793867429</v>
       </c>
       <c r="E20" t="n">
-        <v>400.174023662265</v>
+        <v>812.982867884217</v>
       </c>
       <c r="F20" t="n">
-        <v>563.16428393314</v>
+        <v>2107.61160974686</v>
       </c>
       <c r="G20" t="s">
         <v>10</v>
@@ -1024,7 +1024,7 @@
         <v>92</v>
       </c>
       <c r="I20" t="n">
-        <v>152.269598522759</v>
+        <v>168.982700591465</v>
       </c>
       <c r="J20" t="s">
         <v>12</v>
@@ -1035,19 +1035,19 @@
         <v>44409</v>
       </c>
       <c r="B21" t="n">
-        <v>216.813438125357</v>
+        <v>230.425406230529</v>
       </c>
       <c r="C21" t="n">
-        <v>152.203317248274</v>
+        <v>137.722690745677</v>
       </c>
       <c r="D21" t="n">
-        <v>129.785769982812</v>
+        <v>110.872093373032</v>
       </c>
       <c r="E21" t="n">
-        <v>342.58274497615</v>
+        <v>594.553074332428</v>
       </c>
       <c r="F21" t="n">
-        <v>466.988801000063</v>
+        <v>1266.31805166603</v>
       </c>
       <c r="G21" t="s">
         <v>10</v>
@@ -1056,7 +1056,7 @@
         <v>60</v>
       </c>
       <c r="I21" t="n">
-        <v>156.813438125357</v>
+        <v>170.425406230529</v>
       </c>
       <c r="J21" t="s">
         <v>12</v>
@@ -1067,19 +1067,19 @@
         <v>44440</v>
       </c>
       <c r="B22" t="n">
-        <v>212.964149860659</v>
+        <v>219.172312420526</v>
       </c>
       <c r="C22" t="n">
-        <v>149.580980498893</v>
+        <v>129.31702760824</v>
       </c>
       <c r="D22" t="n">
-        <v>127.575686190983</v>
+        <v>104.527126766958</v>
       </c>
       <c r="E22" t="n">
-        <v>336.199525185792</v>
+        <v>514.920111182333</v>
       </c>
       <c r="F22" t="n">
-        <v>457.933939536359</v>
+        <v>1030.50320642397</v>
       </c>
       <c r="G22" t="s">
         <v>10</v>
@@ -1088,7 +1088,7 @@
         <v>49</v>
       </c>
       <c r="I22" t="n">
-        <v>163.964149860659</v>
+        <v>170.172312420526</v>
       </c>
       <c r="J22" t="s">
         <v>12</v>
@@ -1099,19 +1099,19 @@
         <v>44470</v>
       </c>
       <c r="B23" t="n">
-        <v>192.187045424565</v>
+        <v>202.857038889391</v>
       </c>
       <c r="C23" t="n">
-        <v>137.364209864918</v>
+        <v>116.783105600643</v>
       </c>
       <c r="D23" t="n">
-        <v>117.945848214252</v>
+        <v>95.2418112737907</v>
       </c>
       <c r="E23" t="n">
-        <v>294.784585439429</v>
+        <v>467.972866352451</v>
       </c>
       <c r="F23" t="n">
-        <v>391.839055301854</v>
+        <v>906.846770207418</v>
       </c>
       <c r="G23" t="s">
         <v>10</v>
@@ -1120,7 +1120,7 @@
         <v>46</v>
       </c>
       <c r="I23" t="n">
-        <v>146.187045424565</v>
+        <v>156.857038889391</v>
       </c>
       <c r="J23" t="s">
         <v>12</v>
@@ -1131,19 +1131,19 @@
         <v>44501</v>
       </c>
       <c r="B24" t="n">
-        <v>231.240980098048</v>
+        <v>218.164494515651</v>
       </c>
       <c r="C24" t="n">
-        <v>158.77175764143</v>
+        <v>123.7084654199</v>
       </c>
       <c r="D24" t="n">
-        <v>134.256522312037</v>
+        <v>99.8047027629465</v>
       </c>
       <c r="E24" t="n">
-        <v>379.489216025821</v>
+        <v>483.240103703186</v>
       </c>
       <c r="F24" t="n">
-        <v>534.892967363661</v>
+        <v>970.715080693586</v>
       </c>
       <c r="G24" t="s">
         <v>10</v>
@@ -1152,7 +1152,7 @@
         <v>62</v>
       </c>
       <c r="I24" t="n">
-        <v>169.240980098048</v>
+        <v>156.164494515651</v>
       </c>
       <c r="J24" t="s">
         <v>12</v>
@@ -1163,19 +1163,19 @@
         <v>44531</v>
       </c>
       <c r="B25" t="n">
-        <v>188.615139763135</v>
+        <v>197.570460464009</v>
       </c>
       <c r="C25" t="n">
-        <v>134.629361650428</v>
+        <v>108.328888348427</v>
       </c>
       <c r="D25" t="n">
-        <v>115.537133584753</v>
+        <v>88.5407129714405</v>
       </c>
       <c r="E25" t="n">
-        <v>289.94239969734</v>
+        <v>472.969534432861</v>
       </c>
       <c r="F25" t="n">
-        <v>386.110049585401</v>
+        <v>956.190480179885</v>
       </c>
       <c r="G25" t="s">
         <v>10</v>
@@ -1184,7 +1184,7 @@
         <v>72</v>
       </c>
       <c r="I25" t="n">
-        <v>116.615139763135</v>
+        <v>125.570460464009</v>
       </c>
       <c r="J25" t="s">
         <v>12</v>
@@ -1195,19 +1195,19 @@
         <v>44562</v>
       </c>
       <c r="B26" t="n">
-        <v>265.85185528009</v>
+        <v>254.783697020489</v>
       </c>
       <c r="C26" t="n">
-        <v>170.17175724534</v>
+        <v>141.46341523127</v>
       </c>
       <c r="D26" t="n">
-        <v>140.27670417257</v>
+        <v>110.309237048929</v>
       </c>
       <c r="E26" t="n">
-        <v>496.954786335964</v>
+        <v>782.339941232362</v>
       </c>
       <c r="F26" t="n">
-        <v>795.821354264005</v>
+        <v>2382.02469849657</v>
       </c>
       <c r="G26" t="s">
         <v>10</v>
@@ -1216,7 +1216,7 @@
         <v>26</v>
       </c>
       <c r="I26" t="n">
-        <v>239.85185528009</v>
+        <v>228.783697020489</v>
       </c>
       <c r="J26" t="s">
         <v>12</v>
@@ -1227,19 +1227,19 @@
         <v>44593</v>
       </c>
       <c r="B27" t="n">
-        <v>235.764069772014</v>
+        <v>229.515710220802</v>
       </c>
       <c r="C27" t="n">
-        <v>152.092707752974</v>
+        <v>127.271112255047</v>
       </c>
       <c r="D27" t="n">
-        <v>125.719405525293</v>
+        <v>100.407311504579</v>
       </c>
       <c r="E27" t="n">
-        <v>434.019441378688</v>
+        <v>612.082796301359</v>
       </c>
       <c r="F27" t="n">
-        <v>683.920942618336</v>
+        <v>1533.65552858939</v>
       </c>
       <c r="G27" t="s">
         <v>10</v>
@@ -1248,7 +1248,7 @@
         <v>30</v>
       </c>
       <c r="I27" t="n">
-        <v>205.764069772014</v>
+        <v>199.515710220802</v>
       </c>
       <c r="J27" t="s">
         <v>12</v>
@@ -1259,19 +1259,19 @@
         <v>44621</v>
       </c>
       <c r="B28" t="n">
-        <v>166.050907260128</v>
+        <v>187.29412360357</v>
       </c>
       <c r="C28" t="n">
-        <v>114.487371759821</v>
+        <v>102.402055551194</v>
       </c>
       <c r="D28" t="n">
-        <v>96.9611777747323</v>
+        <v>82.8961483083216</v>
       </c>
       <c r="E28" t="n">
-        <v>270.544169080885</v>
+        <v>455.523476399407</v>
       </c>
       <c r="F28" t="n">
-        <v>378.864957195665</v>
+        <v>950.005478262379</v>
       </c>
       <c r="G28" t="s">
         <v>10</v>
@@ -1280,7 +1280,7 @@
         <v>31</v>
       </c>
       <c r="I28" t="n">
-        <v>135.050907260128</v>
+        <v>156.29412360357</v>
       </c>
       <c r="J28" t="s">
         <v>12</v>
@@ -1291,19 +1291,19 @@
         <v>44652</v>
       </c>
       <c r="B29" t="n">
-        <v>177.513580999007</v>
+        <v>203.553418591665</v>
       </c>
       <c r="C29" t="n">
-        <v>119.570523054917</v>
+        <v>108.955516169436</v>
       </c>
       <c r="D29" t="n">
-        <v>100.39185446429</v>
+        <v>87.2406329690286</v>
       </c>
       <c r="E29" t="n">
-        <v>301.368754674822</v>
+        <v>646.622936644315</v>
       </c>
       <c r="F29" t="n">
-        <v>438.27701989671</v>
+        <v>1782.29399058737</v>
       </c>
       <c r="G29" t="s">
         <v>10</v>
@@ -1312,7 +1312,7 @@
         <v>34</v>
       </c>
       <c r="I29" t="n">
-        <v>143.513580999007</v>
+        <v>169.553418591665</v>
       </c>
       <c r="J29" t="s">
         <v>12</v>
@@ -1323,19 +1323,19 @@
         <v>44682</v>
       </c>
       <c r="B30" t="n">
-        <v>193.879376905431</v>
+        <v>227.068256623252</v>
       </c>
       <c r="C30" t="n">
-        <v>127.070001832474</v>
+        <v>119.201223405021</v>
       </c>
       <c r="D30" t="n">
-        <v>105.63167574446</v>
+        <v>93.9981696661206</v>
       </c>
       <c r="E30" t="n">
-        <v>346.212003432586</v>
+        <v>995.600585542999</v>
       </c>
       <c r="F30" t="n">
-        <v>528.829080605676</v>
+        <v>4890.98277601773</v>
       </c>
       <c r="G30" t="s">
         <v>10</v>
@@ -1344,7 +1344,7 @@
         <v>37</v>
       </c>
       <c r="I30" t="n">
-        <v>156.879376905431</v>
+        <v>190.068256623252</v>
       </c>
       <c r="J30" t="s">
         <v>12</v>
@@ -1355,19 +1355,19 @@
         <v>44713</v>
       </c>
       <c r="B31" t="n">
-        <v>216.013446463132</v>
+        <v>246.488657107018</v>
       </c>
       <c r="C31" t="n">
-        <v>137.049720531785</v>
+        <v>127.777574385447</v>
       </c>
       <c r="D31" t="n">
-        <v>112.622420905018</v>
+        <v>99.4480095339178</v>
       </c>
       <c r="E31" t="n">
-        <v>411.000516737342</v>
+        <v>1292.20894899492</v>
       </c>
       <c r="F31" t="n">
-        <v>670.834268269271</v>
+        <v>12553.2381073967</v>
       </c>
       <c r="G31" t="s">
         <v>10</v>
@@ -1376,7 +1376,7 @@
         <v>62</v>
       </c>
       <c r="I31" t="n">
-        <v>154.013446463132</v>
+        <v>184.488657107018</v>
       </c>
       <c r="J31" t="s">
         <v>12</v>
@@ -1387,19 +1387,19 @@
         <v>44743</v>
       </c>
       <c r="B32" t="n">
-        <v>237.212036854288</v>
+        <v>252.164317991016</v>
       </c>
       <c r="C32" t="n">
-        <v>146.087960935491</v>
+        <v>130.237359766019</v>
       </c>
       <c r="D32" t="n">
-        <v>118.82318235341</v>
+        <v>100.757219863187</v>
       </c>
       <c r="E32" t="n">
-        <v>480.029732215162</v>
+        <v>1235.70814722957</v>
       </c>
       <c r="F32" t="n">
-        <v>840.335857642834</v>
+        <v>11291.8753431844</v>
       </c>
       <c r="G32" t="s">
         <v>10</v>
@@ -1408,7 +1408,7 @@
         <v>79</v>
       </c>
       <c r="I32" t="n">
-        <v>158.212036854288</v>
+        <v>173.164317991016</v>
       </c>
       <c r="J32" t="s">
         <v>12</v>
@@ -1419,19 +1419,19 @@
         <v>44774</v>
       </c>
       <c r="B33" t="n">
-        <v>212.059862011363</v>
+        <v>223.691418985889</v>
       </c>
       <c r="C33" t="n">
-        <v>133.799327810163</v>
+        <v>116.118219718871</v>
       </c>
       <c r="D33" t="n">
-        <v>109.739467802035</v>
+        <v>91.0869182070009</v>
       </c>
       <c r="E33" t="n">
-        <v>408.018787409182</v>
+        <v>824.522791145449</v>
       </c>
       <c r="F33" t="n">
-        <v>674.198008226522</v>
+        <v>3384.89111478558</v>
       </c>
       <c r="G33" t="s">
         <v>10</v>
@@ -1440,10 +1440,10 @@
         <v>217</v>
       </c>
       <c r="I33" t="n">
-        <v>-4.94013798863719</v>
+        <v>6.69141898588873</v>
       </c>
       <c r="J33" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="34">
@@ -1451,19 +1451,19 @@
         <v>44805</v>
       </c>
       <c r="B34" t="n">
-        <v>208.805157624737</v>
+        <v>213.381812860659</v>
       </c>
       <c r="C34" t="n">
-        <v>131.689482299149</v>
+        <v>109.895473802937</v>
       </c>
       <c r="D34" t="n">
-        <v>107.992958917514</v>
+        <v>86.63555477709</v>
       </c>
       <c r="E34" t="n">
-        <v>402.106039089167</v>
+        <v>687.717188516412</v>
       </c>
       <c r="F34" t="n">
-        <v>665.067618089113</v>
+        <v>2300.72976313322</v>
       </c>
       <c r="G34" t="s">
         <v>10</v>
@@ -1472,7 +1472,7 @@
         <v>96</v>
       </c>
       <c r="I34" t="n">
-        <v>112.805157624737</v>
+        <v>117.381812860659</v>
       </c>
       <c r="J34" t="s">
         <v>12</v>
@@ -1483,19 +1483,19 @@
         <v>44835</v>
       </c>
       <c r="B35" t="n">
-        <v>188.21874810278</v>
+        <v>198.47630200356</v>
       </c>
       <c r="C35" t="n">
-        <v>121.334226312347</v>
+        <v>100.353933030024</v>
       </c>
       <c r="D35" t="n">
-        <v>100.269123604145</v>
+        <v>79.8948590829849</v>
       </c>
       <c r="E35" t="n">
-        <v>346.97645150075</v>
+        <v>610.179109736196</v>
       </c>
       <c r="F35" t="n">
-        <v>547.556540612811</v>
+        <v>1838.32405814163</v>
       </c>
       <c r="G35" t="s">
         <v>10</v>
@@ -1504,7 +1504,7 @@
         <v>92</v>
       </c>
       <c r="I35" t="n">
-        <v>96.2187481027796</v>
+        <v>106.47630200356</v>
       </c>
       <c r="J35" t="s">
         <v>12</v>
@@ -1515,19 +1515,19 @@
         <v>44866</v>
       </c>
       <c r="B36" t="n">
-        <v>222.317488227302</v>
+        <v>211.355966739156</v>
       </c>
       <c r="C36" t="n">
-        <v>136.838996637061</v>
+        <v>105.876923837182</v>
       </c>
       <c r="D36" t="n">
-        <v>111.279293336059</v>
+        <v>83.4518370224107</v>
       </c>
       <c r="E36" t="n">
-        <v>450.422854150771</v>
+        <v>630.588221409829</v>
       </c>
       <c r="F36" t="n">
-        <v>789.616575367394</v>
+        <v>2014.31156957042</v>
       </c>
       <c r="G36" t="s">
         <v>10</v>
@@ -1536,7 +1536,7 @@
         <v>74</v>
       </c>
       <c r="I36" t="n">
-        <v>148.317488227302</v>
+        <v>137.355966739156</v>
       </c>
       <c r="J36" t="s">
         <v>12</v>
@@ -1547,19 +1547,19 @@
         <v>44896</v>
       </c>
       <c r="B37" t="n">
-        <v>182.974176291061</v>
+        <v>192.973257276841</v>
       </c>
       <c r="C37" t="n">
-        <v>117.923605566097</v>
+        <v>93.9520022817952</v>
       </c>
       <c r="D37" t="n">
-        <v>97.4419205938559</v>
+        <v>75.081900890098</v>
       </c>
       <c r="E37" t="n">
-        <v>337.474358573469</v>
+        <v>611.802862240057</v>
       </c>
       <c r="F37" t="n">
-        <v>532.835695458016</v>
+        <v>1936.58282545987</v>
       </c>
       <c r="G37" t="s">
         <v>10</v>
@@ -1568,7 +1568,7 @@
         <v>79</v>
       </c>
       <c r="I37" t="n">
-        <v>103.974176291061</v>
+        <v>113.973257276841</v>
       </c>
       <c r="J37" t="s">
         <v>12</v>
@@ -1579,19 +1579,19 @@
         <v>44927</v>
       </c>
       <c r="B38" t="n">
-        <v>257.227511913248</v>
+        <v>246.473840890157</v>
       </c>
       <c r="C38" t="n">
-        <v>147.309162893325</v>
+        <v>120.172061969526</v>
       </c>
       <c r="D38" t="n">
-        <v>116.972427031709</v>
+        <v>91.889340815126</v>
       </c>
       <c r="E38" t="n">
-        <v>615.32954360374</v>
+        <v>1121.38645256706</v>
       </c>
       <c r="F38" t="n">
-        <v>1348.26014581754</v>
+        <v>11686.971134966</v>
       </c>
       <c r="G38" t="s">
         <v>10</v>
@@ -1600,7 +1600,7 @@
         <v>149</v>
       </c>
       <c r="I38" t="n">
-        <v>108.227511913248</v>
+        <v>97.473840890157</v>
       </c>
       <c r="J38" t="s">
         <v>12</v>
@@ -1611,19 +1611,19 @@
         <v>44958</v>
       </c>
       <c r="B39" t="n">
-        <v>228.037087593093</v>
+        <v>222.588365672233</v>
       </c>
       <c r="C39" t="n">
-        <v>132.879289201713</v>
+        <v>109.336417498127</v>
       </c>
       <c r="D39" t="n">
-        <v>106.107228109842</v>
+        <v>84.6079698938014</v>
       </c>
       <c r="E39" t="n">
-        <v>522.888318785602</v>
+        <v>823.97013721288</v>
       </c>
       <c r="F39" t="n">
-        <v>1076.55207641159</v>
+        <v>4199.35040480657</v>
       </c>
       <c r="G39" t="s">
         <v>10</v>
@@ -1632,7 +1632,7 @@
         <v>117</v>
       </c>
       <c r="I39" t="n">
-        <v>111.037087593093</v>
+        <v>105.588365672233</v>
       </c>
       <c r="J39" t="s">
         <v>12</v>
@@ -1643,19 +1643,19 @@
         <v>44986</v>
       </c>
       <c r="B40" t="n">
-        <v>162.003887582969</v>
+        <v>183.491081113999</v>
       </c>
       <c r="C40" t="n">
-        <v>102.380184060206</v>
+        <v>89.7284552740362</v>
       </c>
       <c r="D40" t="n">
-        <v>84.0169352257466</v>
+        <v>71.2624599663834</v>
       </c>
       <c r="E40" t="n">
-        <v>310.695872419948</v>
+        <v>577.987526458004</v>
       </c>
       <c r="F40" t="n">
-        <v>511.546534916669</v>
+        <v>1840.20328573161</v>
       </c>
       <c r="G40" t="s">
         <v>10</v>
@@ -1664,7 +1664,7 @@
         <v>138</v>
       </c>
       <c r="I40" t="n">
-        <v>24.003887582969</v>
+        <v>45.4910811139986</v>
       </c>
       <c r="J40" t="s">
         <v>12</v>
@@ -1675,19 +1675,19 @@
         <v>45017</v>
       </c>
       <c r="B41" t="n">
-        <v>172.708678015537</v>
+        <v>199.440731380699</v>
       </c>
       <c r="C41" t="n">
-        <v>106.430301100724</v>
+        <v>95.0744105932967</v>
       </c>
       <c r="D41" t="n">
-        <v>86.585518142207</v>
+        <v>74.7329108822157</v>
       </c>
       <c r="E41" t="n">
-        <v>349.029903297826</v>
+        <v>871.757180267427</v>
       </c>
       <c r="F41" t="n">
-        <v>610.038748787161</v>
+        <v>5383.76126743413</v>
       </c>
       <c r="G41" t="s">
         <v>10</v>
@@ -1696,10 +1696,10 @@
         <v>189</v>
       </c>
       <c r="I41" t="n">
-        <v>-16.2913219844633</v>
+        <v>10.4407313806987</v>
       </c>
       <c r="J41" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="42">
@@ -1707,19 +1707,19 @@
         <v>45047</v>
       </c>
       <c r="B42" t="n">
-        <v>188.651132096025</v>
+        <v>222.083190661803</v>
       </c>
       <c r="C42" t="n">
-        <v>112.665968075305</v>
+        <v>103.31833065883</v>
       </c>
       <c r="D42" t="n">
-        <v>90.6964644591564</v>
+        <v>80.0465885549955</v>
       </c>
       <c r="E42" t="n">
-        <v>408.472226857244</v>
+        <v>1484.93051646357</v>
       </c>
       <c r="F42" t="n">
-        <v>777.795486637561</v>
+        <v>499786.866429224</v>
       </c>
       <c r="G42" t="s">
         <v>10</v>
@@ -1728,10 +1728,10 @@
         <v>212</v>
       </c>
       <c r="I42" t="n">
-        <v>-23.3488679039748</v>
+        <v>10.0831906618032</v>
       </c>
       <c r="J42" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="43">
@@ -1739,20 +1739,18 @@
         <v>45078</v>
       </c>
       <c r="B43" t="n">
-        <v>210.80131705954</v>
+        <v>240.415554495468</v>
       </c>
       <c r="C43" t="n">
-        <v>121.130918560136</v>
+        <v>110.175936899035</v>
       </c>
       <c r="D43" t="n">
-        <v>96.2898045304003</v>
+        <v>84.3210694336672</v>
       </c>
       <c r="E43" t="n">
-        <v>500.06342318705</v>
-      </c>
-      <c r="F43" t="n">
-        <v>1081.92116586861</v>
-      </c>
+        <v>2080.64632423712</v>
+      </c>
+      <c r="F43"/>
       <c r="G43" t="s">
         <v>10</v>
       </c>
@@ -1760,7 +1758,7 @@
         <v>264</v>
       </c>
       <c r="I43" t="n">
-        <v>-53.1986829404605</v>
+        <v>-23.5844455045319</v>
       </c>
       <c r="J43" t="s">
         <v>11</v>
@@ -1771,20 +1769,18 @@
         <v>45108</v>
       </c>
       <c r="B44" t="n">
-        <v>231.575887302093</v>
+        <v>245.225235259386</v>
       </c>
       <c r="C44" t="n">
-        <v>128.524093548638</v>
+        <v>112.208012942677</v>
       </c>
       <c r="D44" t="n">
-        <v>101.048540551692</v>
+        <v>85.4219742030826</v>
       </c>
       <c r="E44" t="n">
-        <v>600.576574205277</v>
-      </c>
-      <c r="F44" t="n">
-        <v>1500.7144684402</v>
-      </c>
+        <v>1944.75597590197</v>
+      </c>
+      <c r="F44"/>
       <c r="G44" t="s">
         <v>10</v>
       </c>
@@ -1792,7 +1788,7 @@
         <v>289</v>
       </c>
       <c r="I44" t="n">
-        <v>-57.4241126979065</v>
+        <v>-43.774764740614</v>
       </c>
       <c r="J44" t="s">
         <v>11</v>
@@ -1803,19 +1799,19 @@
         <v>45139</v>
       </c>
       <c r="B45" t="n">
-        <v>206.952902291396</v>
+        <v>217.936774728584</v>
       </c>
       <c r="C45" t="n">
-        <v>118.22630923739</v>
+        <v>101.139557790893</v>
       </c>
       <c r="D45" t="n">
-        <v>93.8048744610933</v>
+        <v>78.0684668153711</v>
       </c>
       <c r="E45" t="n">
-        <v>498.113276582878</v>
+        <v>1150.76515235902</v>
       </c>
       <c r="F45" t="n">
-        <v>1101.71196679023</v>
+        <v>24869.8382817143</v>
       </c>
       <c r="G45" t="s">
         <v>10</v>
@@ -1824,7 +1820,7 @@
         <v>234</v>
       </c>
       <c r="I45" t="n">
-        <v>-27.0470977086035</v>
+        <v>-16.0632252714163</v>
       </c>
       <c r="J45" t="s">
         <v>11</v>
@@ -1835,19 +1831,19 @@
         <v>45170</v>
       </c>
       <c r="B46" t="n">
-        <v>203.649209512643</v>
+        <v>208.065300944523</v>
       </c>
       <c r="C46" t="n">
-        <v>116.316795839439</v>
+        <v>96.2336517542998</v>
       </c>
       <c r="D46" t="n">
-        <v>92.2841660019825</v>
+        <v>74.6741759259528</v>
       </c>
       <c r="E46" t="n">
-        <v>490.395619374524</v>
+        <v>918.346957213837</v>
       </c>
       <c r="F46" t="n">
-        <v>1085.43772597913</v>
+        <v>8207.73926490541</v>
       </c>
       <c r="G46" t="s">
         <v>10</v>
@@ -1856,7 +1852,7 @@
         <v>193</v>
       </c>
       <c r="I46" t="n">
-        <v>10.6492095126432</v>
+        <v>15.0653009445235</v>
       </c>
       <c r="J46" t="s">
         <v>12</v>
@@ -1867,19 +1863,19 @@
         <v>45200</v>
       </c>
       <c r="B47" t="n">
-        <v>184.034798026241</v>
+        <v>194.253292242961</v>
       </c>
       <c r="C47" t="n">
-        <v>107.793470546237</v>
+        <v>88.5751739882669</v>
       </c>
       <c r="D47" t="n">
-        <v>86.2204682949946</v>
+        <v>69.4240119746745</v>
       </c>
       <c r="E47" t="n">
-        <v>416.841901727199</v>
+        <v>793.281678344519</v>
       </c>
       <c r="F47" t="n">
-        <v>843.497711763538</v>
+        <v>5058.55301870779</v>
       </c>
       <c r="G47" t="s">
         <v>10</v>
@@ -1888,10 +1884,10 @@
         <v>193</v>
       </c>
       <c r="I47" t="n">
-        <v>-8.96520197375858</v>
+        <v>1.25329224296144</v>
       </c>
       <c r="J47" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="48">
@@ -1899,19 +1895,19 @@
         <v>45231</v>
       </c>
       <c r="B48" t="n">
-        <v>218.186142066295</v>
+        <v>206.55571593817</v>
       </c>
       <c r="C48" t="n">
-        <v>120.865715455912</v>
+        <v>93.1297191547481</v>
       </c>
       <c r="D48" t="n">
-        <v>94.9717275646333</v>
+        <v>72.310034678597</v>
       </c>
       <c r="E48" t="n">
-        <v>568.700272778633</v>
+        <v>821.840435509818</v>
       </c>
       <c r="F48" t="n">
-        <v>1433.59402600701</v>
+        <v>5933.91480918096</v>
       </c>
       <c r="G48" t="s">
         <v>10</v>
@@ -1920,7 +1916,7 @@
         <v>183</v>
       </c>
       <c r="I48" t="n">
-        <v>35.186142066295</v>
+        <v>23.5557159381702</v>
       </c>
       <c r="J48" t="s">
         <v>12</v>
@@ -1931,19 +1927,19 @@
         <v>45261</v>
       </c>
       <c r="B49" t="n">
-        <v>179.663448576221</v>
+        <v>189.278663537234</v>
       </c>
       <c r="C49" t="n">
-        <v>105.068692706354</v>
+        <v>83.4469401030609</v>
       </c>
       <c r="D49" t="n">
-        <v>83.9981375331062</v>
+        <v>65.6986292824591</v>
       </c>
       <c r="E49" t="n">
-        <v>408.451467446616</v>
+        <v>790.314615413093</v>
       </c>
       <c r="F49" t="n">
-        <v>830.81791644232</v>
+        <v>5396.16141171301</v>
       </c>
       <c r="G49" t="s">
         <v>10</v>
@@ -1952,7 +1948,7 @@
         <v>245</v>
       </c>
       <c r="I49" t="n">
-        <v>-65.336551423779</v>
+        <v>-55.7213364627656</v>
       </c>
       <c r="J49" t="s">
         <v>11</v>

--- a/outcome/appendix/forecast/Malaria.xlsx
+++ b/outcome/appendix/forecast/Malaria.xlsx
@@ -427,13 +427,13 @@
         <v>43831</v>
       </c>
       <c r="B2" t="n">
-        <v>277.48203942511</v>
+        <v>277.865830339977</v>
       </c>
       <c r="C2" t="n">
-        <v>188.214243032656</v>
+        <v>189.345189679115</v>
       </c>
       <c r="D2" t="n">
-        <v>169.819021188253</v>
+        <v>170.770103959806</v>
       </c>
       <c r="E2" t="n">
         <v>440.627362179176</v>
@@ -448,7 +448,7 @@
         <v>348</v>
       </c>
       <c r="I2" t="n">
-        <v>-70.5179605748896</v>
+        <v>-70.1341696600232</v>
       </c>
       <c r="J2" t="s">
         <v>11</v>
@@ -459,13 +459,13 @@
         <v>43862</v>
       </c>
       <c r="B3" t="n">
-        <v>248.233715853581</v>
+        <v>248.288514692825</v>
       </c>
       <c r="C3" t="n">
-        <v>185.152272515094</v>
+        <v>185.678128716803</v>
       </c>
       <c r="D3" t="n">
-        <v>167.099360293025</v>
+        <v>168.303618742774</v>
       </c>
       <c r="E3" t="n">
         <v>377.788952082555</v>
@@ -480,7 +480,7 @@
         <v>126</v>
       </c>
       <c r="I3" t="n">
-        <v>122.233715853581</v>
+        <v>122.288514692825</v>
       </c>
       <c r="J3" t="s">
         <v>12</v>
@@ -491,7 +491,7 @@
         <v>43891</v>
       </c>
       <c r="B4" t="n">
-        <v>193.166155297014</v>
+        <v>192.912837326749</v>
       </c>
       <c r="C4" t="n">
         <v>143.01186863588</v>
@@ -512,7 +512,7 @@
         <v>92</v>
       </c>
       <c r="I4" t="n">
-        <v>101.166155297014</v>
+        <v>100.912837326749</v>
       </c>
       <c r="J4" t="s">
         <v>12</v>
@@ -523,7 +523,7 @@
         <v>43922</v>
       </c>
       <c r="B5" t="n">
-        <v>210.537278547931</v>
+        <v>210.549287911194</v>
       </c>
       <c r="C5" t="n">
         <v>151.169620017098</v>
@@ -544,7 +544,7 @@
         <v>54</v>
       </c>
       <c r="I5" t="n">
-        <v>156.537278547931</v>
+        <v>156.549287911194</v>
       </c>
       <c r="J5" t="s">
         <v>12</v>
@@ -555,7 +555,7 @@
         <v>43952</v>
       </c>
       <c r="B6" t="n">
-        <v>238.034701700444</v>
+        <v>238.182134870172</v>
       </c>
       <c r="C6" t="n">
         <v>161.529209914064</v>
@@ -576,7 +576,7 @@
         <v>40</v>
       </c>
       <c r="I6" t="n">
-        <v>198.034701700444</v>
+        <v>198.182134870172</v>
       </c>
       <c r="J6" t="s">
         <v>12</v>
@@ -587,7 +587,7 @@
         <v>43983</v>
       </c>
       <c r="B7" t="n">
-        <v>262.494582648554</v>
+        <v>262.712803854876</v>
       </c>
       <c r="C7" t="n">
         <v>173.974474251093</v>
@@ -608,7 +608,7 @@
         <v>74</v>
       </c>
       <c r="I7" t="n">
-        <v>188.494582648554</v>
+        <v>188.712803854876</v>
       </c>
       <c r="J7" t="s">
         <v>12</v>
@@ -619,10 +619,10 @@
         <v>44013</v>
       </c>
       <c r="B8" t="n">
-        <v>272.18405127096</v>
+        <v>272.531068565446</v>
       </c>
       <c r="C8" t="n">
-        <v>186.592849523182</v>
+        <v>186.780385608902</v>
       </c>
       <c r="D8" t="n">
         <v>163.596730639674</v>
@@ -640,7 +640,7 @@
         <v>57</v>
       </c>
       <c r="I8" t="n">
-        <v>215.18405127096</v>
+        <v>215.531068565446</v>
       </c>
       <c r="J8" t="s">
         <v>12</v>
@@ -651,7 +651,7 @@
         <v>44044</v>
       </c>
       <c r="B9" t="n">
-        <v>238.886726538202</v>
+        <v>238.86900379417</v>
       </c>
       <c r="C9" t="n">
         <v>170.178817301019</v>
@@ -672,7 +672,7 @@
         <v>57</v>
       </c>
       <c r="I9" t="n">
-        <v>181.886726538202</v>
+        <v>181.86900379417</v>
       </c>
       <c r="J9" t="s">
         <v>12</v>
@@ -683,7 +683,7 @@
         <v>44075</v>
       </c>
       <c r="B10" t="n">
-        <v>226.428897607829</v>
+        <v>226.274865091437</v>
       </c>
       <c r="C10" t="n">
         <v>158.056003992552</v>
@@ -704,7 +704,7 @@
         <v>81</v>
       </c>
       <c r="I10" t="n">
-        <v>145.428897607829</v>
+        <v>145.274865091437</v>
       </c>
       <c r="J10" t="s">
         <v>12</v>
@@ -715,7 +715,7 @@
         <v>44105</v>
       </c>
       <c r="B11" t="n">
-        <v>207.172120615694</v>
+        <v>206.927295349362</v>
       </c>
       <c r="C11" t="n">
         <v>143.297914456867</v>
@@ -736,7 +736,7 @@
         <v>78</v>
       </c>
       <c r="I11" t="n">
-        <v>129.172120615694</v>
+        <v>128.927295349362</v>
       </c>
       <c r="J11" t="s">
         <v>12</v>
@@ -747,7 +747,7 @@
         <v>44136</v>
       </c>
       <c r="B12" t="n">
-        <v>223.943914818864</v>
+        <v>224.060978649435</v>
       </c>
       <c r="C12" t="n">
         <v>145.236259397156</v>
@@ -768,7 +768,7 @@
         <v>63</v>
       </c>
       <c r="I12" t="n">
-        <v>160.943914818864</v>
+        <v>161.060978649435</v>
       </c>
       <c r="J12" t="s">
         <v>12</v>
@@ -779,7 +779,7 @@
         <v>44166</v>
       </c>
       <c r="B13" t="n">
-        <v>200.71681926931</v>
+        <v>200.51267837448</v>
       </c>
       <c r="C13" t="n">
         <v>130.640496742923</v>
@@ -800,7 +800,7 @@
         <v>73</v>
       </c>
       <c r="I13" t="n">
-        <v>127.71681926931</v>
+        <v>127.51267837448</v>
       </c>
       <c r="J13" t="s">
         <v>12</v>
@@ -811,7 +811,7 @@
         <v>44197</v>
       </c>
       <c r="B14" t="n">
-        <v>263.030383834216</v>
+        <v>263.036687365969</v>
       </c>
       <c r="C14" t="n">
         <v>168.75127543887</v>
@@ -832,7 +832,7 @@
         <v>68</v>
       </c>
       <c r="I14" t="n">
-        <v>195.030383834216</v>
+        <v>195.036687365969</v>
       </c>
       <c r="J14" t="s">
         <v>12</v>
@@ -843,7 +843,7 @@
         <v>44228</v>
       </c>
       <c r="B15" t="n">
-        <v>235.821967247207</v>
+        <v>235.773261200813</v>
       </c>
       <c r="C15" t="n">
         <v>149.465138407806</v>
@@ -864,7 +864,7 @@
         <v>58</v>
       </c>
       <c r="I15" t="n">
-        <v>177.821967247207</v>
+        <v>177.773261200813</v>
       </c>
       <c r="J15" t="s">
         <v>12</v>
@@ -875,7 +875,7 @@
         <v>44256</v>
       </c>
       <c r="B16" t="n">
-        <v>190.206753742795</v>
+        <v>189.918115604955</v>
       </c>
       <c r="C16" t="n">
         <v>120.930459163208</v>
@@ -896,7 +896,7 @@
         <v>63</v>
       </c>
       <c r="I16" t="n">
-        <v>127.206753742795</v>
+        <v>126.918115604955</v>
       </c>
       <c r="J16" t="s">
         <v>12</v>
@@ -907,7 +907,7 @@
         <v>44287</v>
       </c>
       <c r="B17" t="n">
-        <v>206.288821405577</v>
+        <v>206.086574869316</v>
       </c>
       <c r="C17" t="n">
         <v>129.298360432976</v>
@@ -928,7 +928,7 @@
         <v>74</v>
       </c>
       <c r="I17" t="n">
-        <v>132.288821405577</v>
+        <v>132.086574869316</v>
       </c>
       <c r="J17" t="s">
         <v>12</v>
@@ -939,7 +939,7 @@
         <v>44317</v>
       </c>
       <c r="B18" t="n">
-        <v>231.29184318637</v>
+        <v>231.238905551733</v>
       </c>
       <c r="C18" t="n">
         <v>141.826013054688</v>
@@ -960,7 +960,7 @@
         <v>97</v>
       </c>
       <c r="I18" t="n">
-        <v>134.29184318637</v>
+        <v>134.238905551733</v>
       </c>
       <c r="J18" t="s">
         <v>12</v>
@@ -971,7 +971,7 @@
         <v>44348</v>
       </c>
       <c r="B19" t="n">
-        <v>253.38535025324</v>
+        <v>253.447496021489</v>
       </c>
       <c r="C19" t="n">
         <v>153.909943721984</v>
@@ -992,7 +992,7 @@
         <v>109</v>
       </c>
       <c r="I19" t="n">
-        <v>144.38535025324</v>
+        <v>144.447496021489</v>
       </c>
       <c r="J19" t="s">
         <v>12</v>
@@ -1003,7 +1003,7 @@
         <v>44378</v>
       </c>
       <c r="B20" t="n">
-        <v>260.982700591465</v>
+        <v>261.144670645668</v>
       </c>
       <c r="C20" t="n">
         <v>156.919104546279</v>
@@ -1024,7 +1024,7 @@
         <v>92</v>
       </c>
       <c r="I20" t="n">
-        <v>168.982700591465</v>
+        <v>169.144670645668</v>
       </c>
       <c r="J20" t="s">
         <v>12</v>
@@ -1035,7 +1035,7 @@
         <v>44409</v>
       </c>
       <c r="B21" t="n">
-        <v>230.425406230529</v>
+        <v>230.425473848545</v>
       </c>
       <c r="C21" t="n">
         <v>137.722690745677</v>
@@ -1056,7 +1056,7 @@
         <v>60</v>
       </c>
       <c r="I21" t="n">
-        <v>170.425406230529</v>
+        <v>170.425473848545</v>
       </c>
       <c r="J21" t="s">
         <v>12</v>
@@ -1067,7 +1067,7 @@
         <v>44440</v>
       </c>
       <c r="B22" t="n">
-        <v>219.172312420526</v>
+        <v>219.026690022364</v>
       </c>
       <c r="C22" t="n">
         <v>129.31702760824</v>
@@ -1088,7 +1088,7 @@
         <v>49</v>
       </c>
       <c r="I22" t="n">
-        <v>170.172312420526</v>
+        <v>170.026690022364</v>
       </c>
       <c r="J22" t="s">
         <v>12</v>
@@ -1099,7 +1099,7 @@
         <v>44470</v>
       </c>
       <c r="B23" t="n">
-        <v>202.857038889391</v>
+        <v>202.589607349981</v>
       </c>
       <c r="C23" t="n">
         <v>116.783105600643</v>
@@ -1120,7 +1120,7 @@
         <v>46</v>
       </c>
       <c r="I23" t="n">
-        <v>156.857038889391</v>
+        <v>156.589607349981</v>
       </c>
       <c r="J23" t="s">
         <v>12</v>
@@ -1131,7 +1131,7 @@
         <v>44501</v>
       </c>
       <c r="B24" t="n">
-        <v>218.164494515651</v>
+        <v>218.064096253975</v>
       </c>
       <c r="C24" t="n">
         <v>123.7084654199</v>
@@ -1152,7 +1152,7 @@
         <v>62</v>
       </c>
       <c r="I24" t="n">
-        <v>156.164494515651</v>
+        <v>156.064096253975</v>
       </c>
       <c r="J24" t="s">
         <v>12</v>
@@ -1163,7 +1163,7 @@
         <v>44531</v>
       </c>
       <c r="B25" t="n">
-        <v>197.570460464009</v>
+        <v>197.346032824699</v>
       </c>
       <c r="C25" t="n">
         <v>108.328888348427</v>
@@ -1184,7 +1184,7 @@
         <v>72</v>
       </c>
       <c r="I25" t="n">
-        <v>125.570460464009</v>
+        <v>125.346032824699</v>
       </c>
       <c r="J25" t="s">
         <v>12</v>
@@ -1195,7 +1195,7 @@
         <v>44562</v>
       </c>
       <c r="B26" t="n">
-        <v>254.783697020489</v>
+        <v>254.615395678631</v>
       </c>
       <c r="C26" t="n">
         <v>141.46341523127</v>
@@ -1216,7 +1216,7 @@
         <v>26</v>
       </c>
       <c r="I26" t="n">
-        <v>228.783697020489</v>
+        <v>228.615395678631</v>
       </c>
       <c r="J26" t="s">
         <v>12</v>
@@ -1227,7 +1227,7 @@
         <v>44593</v>
       </c>
       <c r="B27" t="n">
-        <v>229.515710220802</v>
+        <v>229.354315247034</v>
       </c>
       <c r="C27" t="n">
         <v>127.271112255047</v>
@@ -1248,7 +1248,7 @@
         <v>30</v>
       </c>
       <c r="I27" t="n">
-        <v>199.515710220802</v>
+        <v>199.354315247034</v>
       </c>
       <c r="J27" t="s">
         <v>12</v>
@@ -1259,7 +1259,7 @@
         <v>44621</v>
       </c>
       <c r="B28" t="n">
-        <v>187.29412360357</v>
+        <v>187.016768608018</v>
       </c>
       <c r="C28" t="n">
         <v>102.402055551194</v>
@@ -1280,7 +1280,7 @@
         <v>31</v>
       </c>
       <c r="I28" t="n">
-        <v>156.29412360357</v>
+        <v>156.016768608018</v>
       </c>
       <c r="J28" t="s">
         <v>12</v>
@@ -1291,7 +1291,7 @@
         <v>44652</v>
       </c>
       <c r="B29" t="n">
-        <v>203.553418591665</v>
+        <v>203.267819877926</v>
       </c>
       <c r="C29" t="n">
         <v>108.955516169436</v>
@@ -1312,7 +1312,7 @@
         <v>34</v>
       </c>
       <c r="I29" t="n">
-        <v>169.553418591665</v>
+        <v>169.267819877926</v>
       </c>
       <c r="J29" t="s">
         <v>12</v>
@@ -1323,7 +1323,7 @@
         <v>44682</v>
       </c>
       <c r="B30" t="n">
-        <v>227.068256623252</v>
+        <v>226.86002393882</v>
       </c>
       <c r="C30" t="n">
         <v>119.201223405021</v>
@@ -1344,7 +1344,7 @@
         <v>37</v>
       </c>
       <c r="I30" t="n">
-        <v>190.068256623252</v>
+        <v>189.86002393882</v>
       </c>
       <c r="J30" t="s">
         <v>12</v>
@@ -1355,7 +1355,7 @@
         <v>44713</v>
       </c>
       <c r="B31" t="n">
-        <v>246.488657107018</v>
+        <v>246.376425371712</v>
       </c>
       <c r="C31" t="n">
         <v>127.777574385447</v>
@@ -1376,7 +1376,7 @@
         <v>62</v>
       </c>
       <c r="I31" t="n">
-        <v>184.488657107018</v>
+        <v>184.376425371712</v>
       </c>
       <c r="J31" t="s">
         <v>12</v>
@@ -1387,7 +1387,7 @@
         <v>44743</v>
       </c>
       <c r="B32" t="n">
-        <v>252.164317991016</v>
+        <v>252.136417478754</v>
       </c>
       <c r="C32" t="n">
         <v>130.237359766019</v>
@@ -1408,7 +1408,7 @@
         <v>79</v>
       </c>
       <c r="I32" t="n">
-        <v>173.164317991016</v>
+        <v>173.136417478754</v>
       </c>
       <c r="J32" t="s">
         <v>12</v>
@@ -1419,7 +1419,7 @@
         <v>44774</v>
       </c>
       <c r="B33" t="n">
-        <v>223.691418985889</v>
+        <v>223.624418160636</v>
       </c>
       <c r="C33" t="n">
         <v>116.118219718871</v>
@@ -1440,7 +1440,7 @@
         <v>217</v>
       </c>
       <c r="I33" t="n">
-        <v>6.69141898588873</v>
+        <v>6.62441816063614</v>
       </c>
       <c r="J33" t="s">
         <v>12</v>
@@ -1451,7 +1451,7 @@
         <v>44805</v>
       </c>
       <c r="B34" t="n">
-        <v>213.381812860659</v>
+        <v>213.23165876462</v>
       </c>
       <c r="C34" t="n">
         <v>109.895473802937</v>
@@ -1472,7 +1472,7 @@
         <v>96</v>
       </c>
       <c r="I34" t="n">
-        <v>117.381812860659</v>
+        <v>117.23165876462</v>
       </c>
       <c r="J34" t="s">
         <v>12</v>
@@ -1483,7 +1483,7 @@
         <v>44835</v>
       </c>
       <c r="B35" t="n">
-        <v>198.47630200356</v>
+        <v>198.232955221152</v>
       </c>
       <c r="C35" t="n">
         <v>100.353933030024</v>
@@ -1504,7 +1504,7 @@
         <v>92</v>
       </c>
       <c r="I35" t="n">
-        <v>106.47630200356</v>
+        <v>106.232955221152</v>
       </c>
       <c r="J35" t="s">
         <v>12</v>
@@ -1515,7 +1515,7 @@
         <v>44866</v>
       </c>
       <c r="B36" t="n">
-        <v>211.355966739156</v>
+        <v>211.154838766562</v>
       </c>
       <c r="C36" t="n">
         <v>105.876923837182</v>
@@ -1536,7 +1536,7 @@
         <v>74</v>
       </c>
       <c r="I36" t="n">
-        <v>137.355966739156</v>
+        <v>137.154838766562</v>
       </c>
       <c r="J36" t="s">
         <v>12</v>
@@ -1547,7 +1547,7 @@
         <v>44896</v>
       </c>
       <c r="B37" t="n">
-        <v>192.973257276841</v>
+        <v>192.730125880723</v>
       </c>
       <c r="C37" t="n">
         <v>93.9520022817952</v>
@@ -1568,7 +1568,7 @@
         <v>79</v>
       </c>
       <c r="I37" t="n">
-        <v>113.973257276841</v>
+        <v>113.730125880723</v>
       </c>
       <c r="J37" t="s">
         <v>12</v>
@@ -1579,7 +1579,7 @@
         <v>44927</v>
       </c>
       <c r="B38" t="n">
-        <v>246.473840890157</v>
+        <v>246.236768376964</v>
       </c>
       <c r="C38" t="n">
         <v>120.172061969526</v>
@@ -1600,7 +1600,7 @@
         <v>149</v>
       </c>
       <c r="I38" t="n">
-        <v>97.473840890157</v>
+        <v>97.2367683769638</v>
       </c>
       <c r="J38" t="s">
         <v>12</v>
@@ -1611,7 +1611,7 @@
         <v>44958</v>
       </c>
       <c r="B39" t="n">
-        <v>222.588365672233</v>
+        <v>222.358511960042</v>
       </c>
       <c r="C39" t="n">
         <v>109.336417498127</v>
@@ -1632,7 +1632,7 @@
         <v>117</v>
       </c>
       <c r="I39" t="n">
-        <v>105.588365672233</v>
+        <v>105.358511960042</v>
       </c>
       <c r="J39" t="s">
         <v>12</v>
@@ -1643,7 +1643,7 @@
         <v>44986</v>
       </c>
       <c r="B40" t="n">
-        <v>183.491081113999</v>
+        <v>183.213764031367</v>
       </c>
       <c r="C40" t="n">
         <v>89.7284552740362</v>
@@ -1664,7 +1664,7 @@
         <v>138</v>
       </c>
       <c r="I40" t="n">
-        <v>45.4910811139986</v>
+        <v>45.2137640313674</v>
       </c>
       <c r="J40" t="s">
         <v>12</v>
@@ -1675,7 +1675,7 @@
         <v>45017</v>
       </c>
       <c r="B41" t="n">
-        <v>199.440731380699</v>
+        <v>199.138504209688</v>
       </c>
       <c r="C41" t="n">
         <v>95.0744105932967</v>
@@ -1696,7 +1696,7 @@
         <v>189</v>
       </c>
       <c r="I41" t="n">
-        <v>10.4407313806987</v>
+        <v>10.1385042096883</v>
       </c>
       <c r="J41" t="s">
         <v>12</v>
@@ -1707,7 +1707,7 @@
         <v>45047</v>
       </c>
       <c r="B42" t="n">
-        <v>222.083190661803</v>
+        <v>221.805675910553</v>
       </c>
       <c r="C42" t="n">
         <v>103.31833065883</v>
@@ -1728,7 +1728,7 @@
         <v>212</v>
       </c>
       <c r="I42" t="n">
-        <v>10.0831906618032</v>
+        <v>9.80567591055308</v>
       </c>
       <c r="J42" t="s">
         <v>12</v>
@@ -1739,7 +1739,7 @@
         <v>45078</v>
       </c>
       <c r="B43" t="n">
-        <v>240.415554495468</v>
+        <v>240.193500474653</v>
       </c>
       <c r="C43" t="n">
         <v>110.175936899035</v>
@@ -1758,7 +1758,7 @@
         <v>264</v>
       </c>
       <c r="I43" t="n">
-        <v>-23.5844455045319</v>
+        <v>-23.806499525347</v>
       </c>
       <c r="J43" t="s">
         <v>11</v>
@@ -1769,7 +1769,7 @@
         <v>45108</v>
       </c>
       <c r="B44" t="n">
-        <v>245.225235259386</v>
+        <v>245.063652007003</v>
       </c>
       <c r="C44" t="n">
         <v>112.208012942677</v>
@@ -1788,7 +1788,7 @@
         <v>289</v>
       </c>
       <c r="I44" t="n">
-        <v>-43.774764740614</v>
+        <v>-43.936347992997</v>
       </c>
       <c r="J44" t="s">
         <v>11</v>
@@ -1799,7 +1799,7 @@
         <v>45139</v>
       </c>
       <c r="B45" t="n">
-        <v>217.936774728584</v>
+        <v>217.784136458075</v>
       </c>
       <c r="C45" t="n">
         <v>101.139557790893</v>
@@ -1820,7 +1820,7 @@
         <v>234</v>
       </c>
       <c r="I45" t="n">
-        <v>-16.0632252714163</v>
+        <v>-16.2158635419252</v>
       </c>
       <c r="J45" t="s">
         <v>11</v>
@@ -1831,7 +1831,7 @@
         <v>45170</v>
       </c>
       <c r="B46" t="n">
-        <v>208.065300944523</v>
+        <v>207.881562048221</v>
       </c>
       <c r="C46" t="n">
         <v>96.2336517542998</v>
@@ -1852,7 +1852,7 @@
         <v>193</v>
       </c>
       <c r="I46" t="n">
-        <v>15.0653009445235</v>
+        <v>14.8815620482211</v>
       </c>
       <c r="J46" t="s">
         <v>12</v>
@@ -1863,7 +1863,7 @@
         <v>45200</v>
       </c>
       <c r="B47" t="n">
-        <v>194.253292242961</v>
+        <v>194.016907102939</v>
       </c>
       <c r="C47" t="n">
         <v>88.5751739882669</v>
@@ -1884,7 +1884,7 @@
         <v>193</v>
       </c>
       <c r="I47" t="n">
-        <v>1.25329224296144</v>
+        <v>1.01690710293903</v>
       </c>
       <c r="J47" t="s">
         <v>12</v>
@@ -1895,7 +1895,7 @@
         <v>45231</v>
       </c>
       <c r="B48" t="n">
-        <v>206.55571593817</v>
+        <v>206.316352268705</v>
       </c>
       <c r="C48" t="n">
         <v>93.1297191547481</v>
@@ -1916,7 +1916,7 @@
         <v>183</v>
       </c>
       <c r="I48" t="n">
-        <v>23.5557159381702</v>
+        <v>23.3163522687047</v>
       </c>
       <c r="J48" t="s">
         <v>12</v>
@@ -1927,7 +1927,7 @@
         <v>45261</v>
       </c>
       <c r="B49" t="n">
-        <v>189.278663537234</v>
+        <v>189.01992753818</v>
       </c>
       <c r="C49" t="n">
         <v>83.4469401030609</v>
@@ -1948,7 +1948,7 @@
         <v>245</v>
       </c>
       <c r="I49" t="n">
-        <v>-55.7213364627656</v>
+        <v>-55.9800724618204</v>
       </c>
       <c r="J49" t="s">
         <v>11</v>

--- a/outcome/appendix/forecast/Malaria.xlsx
+++ b/outcome/appendix/forecast/Malaria.xlsx
@@ -427,13 +427,13 @@
         <v>43831</v>
       </c>
       <c r="B2" t="n">
-        <v>277.865830339977</v>
+        <v>277.665479297809</v>
       </c>
       <c r="C2" t="n">
-        <v>189.345189679115</v>
+        <v>188.806311936178</v>
       </c>
       <c r="D2" t="n">
-        <v>170.770103959806</v>
+        <v>170.344052473418</v>
       </c>
       <c r="E2" t="n">
         <v>440.627362179176</v>
@@ -448,7 +448,7 @@
         <v>348</v>
       </c>
       <c r="I2" t="n">
-        <v>-70.1341696600232</v>
+        <v>-70.3345207021912</v>
       </c>
       <c r="J2" t="s">
         <v>11</v>
@@ -459,13 +459,13 @@
         <v>43862</v>
       </c>
       <c r="B3" t="n">
-        <v>248.288514692825</v>
+        <v>248.288890625911</v>
       </c>
       <c r="C3" t="n">
-        <v>185.678128716803</v>
+        <v>185.514477780561</v>
       </c>
       <c r="D3" t="n">
-        <v>168.303618742774</v>
+        <v>167.99723675755</v>
       </c>
       <c r="E3" t="n">
         <v>377.788952082555</v>
@@ -480,7 +480,7 @@
         <v>126</v>
       </c>
       <c r="I3" t="n">
-        <v>122.288514692825</v>
+        <v>122.288890625911</v>
       </c>
       <c r="J3" t="s">
         <v>12</v>
@@ -491,7 +491,7 @@
         <v>43891</v>
       </c>
       <c r="B4" t="n">
-        <v>192.912837326749</v>
+        <v>192.996465743396</v>
       </c>
       <c r="C4" t="n">
         <v>143.01186863588</v>
@@ -512,7 +512,7 @@
         <v>92</v>
       </c>
       <c r="I4" t="n">
-        <v>100.912837326749</v>
+        <v>100.996465743396</v>
       </c>
       <c r="J4" t="s">
         <v>12</v>
@@ -523,7 +523,7 @@
         <v>43922</v>
       </c>
       <c r="B5" t="n">
-        <v>210.549287911194</v>
+        <v>210.465993195331</v>
       </c>
       <c r="C5" t="n">
         <v>151.169620017098</v>
@@ -544,7 +544,7 @@
         <v>54</v>
       </c>
       <c r="I5" t="n">
-        <v>156.549287911194</v>
+        <v>156.465993195331</v>
       </c>
       <c r="J5" t="s">
         <v>12</v>
@@ -555,7 +555,7 @@
         <v>43952</v>
       </c>
       <c r="B6" t="n">
-        <v>238.182134870172</v>
+        <v>238.028154326735</v>
       </c>
       <c r="C6" t="n">
         <v>161.529209914064</v>
@@ -576,7 +576,7 @@
         <v>40</v>
       </c>
       <c r="I6" t="n">
-        <v>198.182134870172</v>
+        <v>198.028154326735</v>
       </c>
       <c r="J6" t="s">
         <v>12</v>
@@ -587,7 +587,7 @@
         <v>43983</v>
       </c>
       <c r="B7" t="n">
-        <v>262.712803854876</v>
+        <v>262.552826401736</v>
       </c>
       <c r="C7" t="n">
         <v>173.974474251093</v>
@@ -608,7 +608,7 @@
         <v>74</v>
       </c>
       <c r="I7" t="n">
-        <v>188.712803854876</v>
+        <v>188.552826401736</v>
       </c>
       <c r="J7" t="s">
         <v>12</v>
@@ -619,7 +619,7 @@
         <v>44013</v>
       </c>
       <c r="B8" t="n">
-        <v>272.531068565446</v>
+        <v>272.354320567028</v>
       </c>
       <c r="C8" t="n">
         <v>186.780385608902</v>
@@ -640,7 +640,7 @@
         <v>57</v>
       </c>
       <c r="I8" t="n">
-        <v>215.531068565446</v>
+        <v>215.354320567028</v>
       </c>
       <c r="J8" t="s">
         <v>12</v>
@@ -651,7 +651,7 @@
         <v>44044</v>
       </c>
       <c r="B9" t="n">
-        <v>238.86900379417</v>
+        <v>238.906869506803</v>
       </c>
       <c r="C9" t="n">
         <v>170.178817301019</v>
@@ -672,7 +672,7 @@
         <v>57</v>
       </c>
       <c r="I9" t="n">
-        <v>181.86900379417</v>
+        <v>181.906869506803</v>
       </c>
       <c r="J9" t="s">
         <v>12</v>
@@ -683,7 +683,7 @@
         <v>44075</v>
       </c>
       <c r="B10" t="n">
-        <v>226.274865091437</v>
+        <v>226.3727454996</v>
       </c>
       <c r="C10" t="n">
         <v>158.056003992552</v>
@@ -704,7 +704,7 @@
         <v>81</v>
       </c>
       <c r="I10" t="n">
-        <v>145.274865091437</v>
+        <v>145.3727454996</v>
       </c>
       <c r="J10" t="s">
         <v>12</v>
@@ -715,7 +715,7 @@
         <v>44105</v>
       </c>
       <c r="B11" t="n">
-        <v>206.927295349362</v>
+        <v>207.029294210189</v>
       </c>
       <c r="C11" t="n">
         <v>143.297914456867</v>
@@ -736,7 +736,7 @@
         <v>78</v>
       </c>
       <c r="I11" t="n">
-        <v>128.927295349362</v>
+        <v>129.029294210189</v>
       </c>
       <c r="J11" t="s">
         <v>12</v>
@@ -747,7 +747,7 @@
         <v>44136</v>
       </c>
       <c r="B12" t="n">
-        <v>224.060978649435</v>
+        <v>224.006233758253</v>
       </c>
       <c r="C12" t="n">
         <v>145.236259397156</v>
@@ -768,7 +768,7 @@
         <v>63</v>
       </c>
       <c r="I12" t="n">
-        <v>161.060978649435</v>
+        <v>161.006233758253</v>
       </c>
       <c r="J12" t="s">
         <v>12</v>
@@ -779,7 +779,7 @@
         <v>44166</v>
       </c>
       <c r="B13" t="n">
-        <v>200.51267837448</v>
+        <v>200.604423664715</v>
       </c>
       <c r="C13" t="n">
         <v>130.640496742923</v>
@@ -800,7 +800,7 @@
         <v>73</v>
       </c>
       <c r="I13" t="n">
-        <v>127.51267837448</v>
+        <v>127.604423664715</v>
       </c>
       <c r="J13" t="s">
         <v>12</v>
@@ -811,7 +811,7 @@
         <v>44197</v>
       </c>
       <c r="B14" t="n">
-        <v>263.036687365969</v>
+        <v>263.027932310936</v>
       </c>
       <c r="C14" t="n">
         <v>168.75127543887</v>
@@ -832,7 +832,7 @@
         <v>68</v>
       </c>
       <c r="I14" t="n">
-        <v>195.036687365969</v>
+        <v>195.027932310936</v>
       </c>
       <c r="J14" t="s">
         <v>12</v>
@@ -843,7 +843,7 @@
         <v>44228</v>
       </c>
       <c r="B15" t="n">
-        <v>235.773261200813</v>
+        <v>235.813594676562</v>
       </c>
       <c r="C15" t="n">
         <v>149.465138407806</v>
@@ -864,7 +864,7 @@
         <v>58</v>
       </c>
       <c r="I15" t="n">
-        <v>177.773261200813</v>
+        <v>177.813594676562</v>
       </c>
       <c r="J15" t="s">
         <v>12</v>
@@ -875,7 +875,7 @@
         <v>44256</v>
       </c>
       <c r="B16" t="n">
-        <v>189.918115604955</v>
+        <v>190.028123387636</v>
       </c>
       <c r="C16" t="n">
         <v>120.930459163208</v>
@@ -896,7 +896,7 @@
         <v>63</v>
       </c>
       <c r="I16" t="n">
-        <v>126.918115604955</v>
+        <v>127.028123387636</v>
       </c>
       <c r="J16" t="s">
         <v>12</v>
@@ -907,7 +907,7 @@
         <v>44287</v>
       </c>
       <c r="B17" t="n">
-        <v>206.086574869316</v>
+        <v>206.103142438478</v>
       </c>
       <c r="C17" t="n">
         <v>129.298360432976</v>
@@ -928,7 +928,7 @@
         <v>74</v>
       </c>
       <c r="I17" t="n">
-        <v>132.086574869316</v>
+        <v>132.103142438478</v>
       </c>
       <c r="J17" t="s">
         <v>12</v>
@@ -939,7 +939,7 @@
         <v>44317</v>
       </c>
       <c r="B18" t="n">
-        <v>231.238905551733</v>
+        <v>231.162166792109</v>
       </c>
       <c r="C18" t="n">
         <v>141.826013054688</v>
@@ -960,7 +960,7 @@
         <v>97</v>
       </c>
       <c r="I18" t="n">
-        <v>134.238905551733</v>
+        <v>134.162166792109</v>
       </c>
       <c r="J18" t="s">
         <v>12</v>
@@ -971,7 +971,7 @@
         <v>44348</v>
       </c>
       <c r="B19" t="n">
-        <v>253.447496021489</v>
+        <v>253.331642609429</v>
       </c>
       <c r="C19" t="n">
         <v>153.909943721984</v>
@@ -992,7 +992,7 @@
         <v>109</v>
       </c>
       <c r="I19" t="n">
-        <v>144.447496021489</v>
+        <v>144.331642609429</v>
       </c>
       <c r="J19" t="s">
         <v>12</v>
@@ -1003,7 +1003,7 @@
         <v>44378</v>
       </c>
       <c r="B20" t="n">
-        <v>261.144670645668</v>
+        <v>261.026623422431</v>
       </c>
       <c r="C20" t="n">
         <v>156.919104546279</v>
@@ -1024,7 +1024,7 @@
         <v>92</v>
       </c>
       <c r="I20" t="n">
-        <v>169.144670645668</v>
+        <v>169.026623422431</v>
       </c>
       <c r="J20" t="s">
         <v>12</v>
@@ -1035,7 +1035,7 @@
         <v>44409</v>
       </c>
       <c r="B21" t="n">
-        <v>230.425473848545</v>
+        <v>230.429080373768</v>
       </c>
       <c r="C21" t="n">
         <v>137.722690745677</v>
@@ -1056,7 +1056,7 @@
         <v>60</v>
       </c>
       <c r="I21" t="n">
-        <v>170.425473848545</v>
+        <v>170.429080373768</v>
       </c>
       <c r="J21" t="s">
         <v>12</v>
@@ -1067,7 +1067,7 @@
         <v>44440</v>
       </c>
       <c r="B22" t="n">
-        <v>219.026690022364</v>
+        <v>219.113536962381</v>
       </c>
       <c r="C22" t="n">
         <v>129.31702760824</v>
@@ -1088,7 +1088,7 @@
         <v>49</v>
       </c>
       <c r="I22" t="n">
-        <v>170.026690022364</v>
+        <v>170.113536962381</v>
       </c>
       <c r="J22" t="s">
         <v>12</v>
@@ -1099,7 +1099,7 @@
         <v>44470</v>
       </c>
       <c r="B23" t="n">
-        <v>202.589607349981</v>
+        <v>202.712094157938</v>
       </c>
       <c r="C23" t="n">
         <v>116.783105600643</v>
@@ -1120,7 +1120,7 @@
         <v>46</v>
       </c>
       <c r="I23" t="n">
-        <v>156.589607349981</v>
+        <v>156.712094157938</v>
       </c>
       <c r="J23" t="s">
         <v>12</v>
@@ -1131,7 +1131,7 @@
         <v>44501</v>
       </c>
       <c r="B24" t="n">
-        <v>218.064096253975</v>
+        <v>218.115464100946</v>
       </c>
       <c r="C24" t="n">
         <v>123.7084654199</v>
@@ -1152,7 +1152,7 @@
         <v>62</v>
       </c>
       <c r="I24" t="n">
-        <v>156.064096253975</v>
+        <v>156.115464100946</v>
       </c>
       <c r="J24" t="s">
         <v>12</v>
@@ -1163,7 +1163,7 @@
         <v>44531</v>
       </c>
       <c r="B25" t="n">
-        <v>197.346032824699</v>
+        <v>197.452625333663</v>
       </c>
       <c r="C25" t="n">
         <v>108.328888348427</v>
@@ -1184,7 +1184,7 @@
         <v>72</v>
       </c>
       <c r="I25" t="n">
-        <v>125.346032824699</v>
+        <v>125.452625333663</v>
       </c>
       <c r="J25" t="s">
         <v>12</v>
@@ -1195,7 +1195,7 @@
         <v>44562</v>
       </c>
       <c r="B26" t="n">
-        <v>254.615395678631</v>
+        <v>254.692327031846</v>
       </c>
       <c r="C26" t="n">
         <v>141.46341523127</v>
@@ -1216,7 +1216,7 @@
         <v>26</v>
       </c>
       <c r="I26" t="n">
-        <v>228.615395678631</v>
+        <v>228.692327031846</v>
       </c>
       <c r="J26" t="s">
         <v>12</v>
@@ -1227,7 +1227,7 @@
         <v>44593</v>
       </c>
       <c r="B27" t="n">
-        <v>229.354315247034</v>
+        <v>229.43705795319</v>
       </c>
       <c r="C27" t="n">
         <v>127.271112255047</v>
@@ -1248,7 +1248,7 @@
         <v>30</v>
       </c>
       <c r="I27" t="n">
-        <v>199.354315247034</v>
+        <v>199.43705795319</v>
       </c>
       <c r="J27" t="s">
         <v>12</v>
@@ -1259,7 +1259,7 @@
         <v>44621</v>
       </c>
       <c r="B28" t="n">
-        <v>187.016768608018</v>
+        <v>187.133967645228</v>
       </c>
       <c r="C28" t="n">
         <v>102.402055551194</v>
@@ -1280,7 +1280,7 @@
         <v>31</v>
       </c>
       <c r="I28" t="n">
-        <v>156.016768608018</v>
+        <v>156.133967645228</v>
       </c>
       <c r="J28" t="s">
         <v>12</v>
@@ -1291,7 +1291,7 @@
         <v>44652</v>
       </c>
       <c r="B29" t="n">
-        <v>203.267819877926</v>
+        <v>203.349724010194</v>
       </c>
       <c r="C29" t="n">
         <v>108.955516169436</v>
@@ -1312,7 +1312,7 @@
         <v>34</v>
       </c>
       <c r="I29" t="n">
-        <v>169.267819877926</v>
+        <v>169.349724010194</v>
       </c>
       <c r="J29" t="s">
         <v>12</v>
@@ -1323,7 +1323,7 @@
         <v>44682</v>
       </c>
       <c r="B30" t="n">
-        <v>226.86002393882</v>
+        <v>226.876825960591</v>
       </c>
       <c r="C30" t="n">
         <v>119.201223405021</v>
@@ -1344,7 +1344,7 @@
         <v>37</v>
       </c>
       <c r="I30" t="n">
-        <v>189.86002393882</v>
+        <v>189.876825960591</v>
       </c>
       <c r="J30" t="s">
         <v>12</v>
@@ -1355,7 +1355,7 @@
         <v>44713</v>
       </c>
       <c r="B31" t="n">
-        <v>246.376425371712</v>
+        <v>246.345912501205</v>
       </c>
       <c r="C31" t="n">
         <v>127.777574385447</v>
@@ -1376,7 +1376,7 @@
         <v>62</v>
       </c>
       <c r="I31" t="n">
-        <v>184.376425371712</v>
+        <v>184.345912501205</v>
       </c>
       <c r="J31" t="s">
         <v>12</v>
@@ -1387,7 +1387,7 @@
         <v>44743</v>
       </c>
       <c r="B32" t="n">
-        <v>252.136417478754</v>
+        <v>252.09095850747</v>
       </c>
       <c r="C32" t="n">
         <v>130.237359766019</v>
@@ -1408,7 +1408,7 @@
         <v>79</v>
       </c>
       <c r="I32" t="n">
-        <v>173.136417478754</v>
+        <v>173.09095850747</v>
       </c>
       <c r="J32" t="s">
         <v>12</v>
@@ -1419,7 +1419,7 @@
         <v>44774</v>
       </c>
       <c r="B33" t="n">
-        <v>223.624418160636</v>
+        <v>223.631169703654</v>
       </c>
       <c r="C33" t="n">
         <v>116.118219718871</v>
@@ -1440,7 +1440,7 @@
         <v>217</v>
       </c>
       <c r="I33" t="n">
-        <v>6.62441816063614</v>
+        <v>6.63116970365436</v>
       </c>
       <c r="J33" t="s">
         <v>12</v>
@@ -1451,7 +1451,7 @@
         <v>44805</v>
       </c>
       <c r="B34" t="n">
-        <v>213.23165876462</v>
+        <v>213.299097700413</v>
       </c>
       <c r="C34" t="n">
         <v>109.895473802937</v>
@@ -1472,7 +1472,7 @@
         <v>96</v>
       </c>
       <c r="I34" t="n">
-        <v>117.23165876462</v>
+        <v>117.299097700413</v>
       </c>
       <c r="J34" t="s">
         <v>12</v>
@@ -1483,7 +1483,7 @@
         <v>44835</v>
       </c>
       <c r="B35" t="n">
-        <v>198.232955221152</v>
+        <v>198.342132721394</v>
       </c>
       <c r="C35" t="n">
         <v>100.353933030024</v>
@@ -1504,7 +1504,7 @@
         <v>92</v>
       </c>
       <c r="I35" t="n">
-        <v>106.232955221152</v>
+        <v>106.342132721394</v>
       </c>
       <c r="J35" t="s">
         <v>12</v>
@@ -1515,7 +1515,7 @@
         <v>44866</v>
       </c>
       <c r="B36" t="n">
-        <v>211.154838766562</v>
+        <v>211.247570692797</v>
       </c>
       <c r="C36" t="n">
         <v>105.876923837182</v>
@@ -1536,7 +1536,7 @@
         <v>74</v>
       </c>
       <c r="I36" t="n">
-        <v>137.154838766562</v>
+        <v>137.247570692797</v>
       </c>
       <c r="J36" t="s">
         <v>12</v>
@@ -1547,7 +1547,7 @@
         <v>44896</v>
       </c>
       <c r="B37" t="n">
-        <v>192.730125880723</v>
+        <v>192.842713208345</v>
       </c>
       <c r="C37" t="n">
         <v>93.9520022817952</v>
@@ -1568,7 +1568,7 @@
         <v>79</v>
       </c>
       <c r="I37" t="n">
-        <v>113.730125880723</v>
+        <v>113.842713208345</v>
       </c>
       <c r="J37" t="s">
         <v>12</v>
@@ -1579,7 +1579,7 @@
         <v>44927</v>
       </c>
       <c r="B38" t="n">
-        <v>246.236768376964</v>
+        <v>246.344460076058</v>
       </c>
       <c r="C38" t="n">
         <v>120.172061969526</v>
@@ -1600,7 +1600,7 @@
         <v>149</v>
       </c>
       <c r="I38" t="n">
-        <v>97.2367683769638</v>
+        <v>97.3444600760585</v>
       </c>
       <c r="J38" t="s">
         <v>12</v>
@@ -1611,7 +1611,7 @@
         <v>44958</v>
       </c>
       <c r="B39" t="n">
-        <v>222.358511960042</v>
+        <v>222.465525832339</v>
       </c>
       <c r="C39" t="n">
         <v>109.336417498127</v>
@@ -1632,7 +1632,7 @@
         <v>117</v>
       </c>
       <c r="I39" t="n">
-        <v>105.358511960042</v>
+        <v>105.465525832339</v>
       </c>
       <c r="J39" t="s">
         <v>12</v>
@@ -1643,7 +1643,7 @@
         <v>44986</v>
       </c>
       <c r="B40" t="n">
-        <v>183.213764031367</v>
+        <v>183.334803586605</v>
       </c>
       <c r="C40" t="n">
         <v>89.7284552740362</v>
@@ -1664,7 +1664,7 @@
         <v>138</v>
       </c>
       <c r="I40" t="n">
-        <v>45.2137640313674</v>
+        <v>45.3348035866051</v>
       </c>
       <c r="J40" t="s">
         <v>12</v>
@@ -1675,7 +1675,7 @@
         <v>45017</v>
       </c>
       <c r="B41" t="n">
-        <v>199.138504209688</v>
+        <v>199.248821556037</v>
       </c>
       <c r="C41" t="n">
         <v>95.0744105932967</v>
@@ -1696,7 +1696,7 @@
         <v>189</v>
       </c>
       <c r="I41" t="n">
-        <v>10.1385042096883</v>
+        <v>10.2488215560367</v>
       </c>
       <c r="J41" t="s">
         <v>12</v>
@@ -1707,7 +1707,7 @@
         <v>45047</v>
       </c>
       <c r="B42" t="n">
-        <v>221.805675910553</v>
+        <v>221.881118962847</v>
       </c>
       <c r="C42" t="n">
         <v>103.31833065883</v>
@@ -1728,7 +1728,7 @@
         <v>212</v>
       </c>
       <c r="I42" t="n">
-        <v>9.80567591055308</v>
+        <v>9.88111896284747</v>
       </c>
       <c r="J42" t="s">
         <v>12</v>
@@ -1739,7 +1739,7 @@
         <v>45078</v>
       </c>
       <c r="B43" t="n">
-        <v>240.193500474653</v>
+        <v>240.232480933666</v>
       </c>
       <c r="C43" t="n">
         <v>110.175936899035</v>
@@ -1758,7 +1758,7 @@
         <v>264</v>
       </c>
       <c r="I43" t="n">
-        <v>-23.806499525347</v>
+        <v>-23.7675190663343</v>
       </c>
       <c r="J43" t="s">
         <v>11</v>
@@ -1769,7 +1769,7 @@
         <v>45108</v>
       </c>
       <c r="B44" t="n">
-        <v>245.063652007003</v>
+        <v>245.082044099709</v>
       </c>
       <c r="C44" t="n">
         <v>112.208012942677</v>
@@ -1788,7 +1788,7 @@
         <v>289</v>
       </c>
       <c r="I44" t="n">
-        <v>-43.936347992997</v>
+        <v>-43.9179559002907</v>
       </c>
       <c r="J44" t="s">
         <v>11</v>
@@ -1799,7 +1799,7 @@
         <v>45139</v>
       </c>
       <c r="B45" t="n">
-        <v>217.784136458075</v>
+        <v>217.817374851696</v>
       </c>
       <c r="C45" t="n">
         <v>101.139557790893</v>
@@ -1820,7 +1820,7 @@
         <v>234</v>
       </c>
       <c r="I45" t="n">
-        <v>-16.2158635419252</v>
+        <v>-16.1826251483036</v>
       </c>
       <c r="J45" t="s">
         <v>11</v>
@@ -1831,7 +1831,7 @@
         <v>45170</v>
       </c>
       <c r="B46" t="n">
-        <v>207.881562048221</v>
+        <v>207.947280003785</v>
       </c>
       <c r="C46" t="n">
         <v>96.2336517542998</v>
@@ -1852,7 +1852,7 @@
         <v>193</v>
       </c>
       <c r="I46" t="n">
-        <v>14.8815620482211</v>
+        <v>14.9472800037852</v>
       </c>
       <c r="J46" t="s">
         <v>12</v>
@@ -1863,7 +1863,7 @@
         <v>45200</v>
       </c>
       <c r="B47" t="n">
-        <v>194.016907102939</v>
+        <v>194.113984190323</v>
       </c>
       <c r="C47" t="n">
         <v>88.5751739882669</v>
@@ -1884,7 +1884,7 @@
         <v>193</v>
       </c>
       <c r="I47" t="n">
-        <v>1.01690710293903</v>
+        <v>1.11398419032309</v>
       </c>
       <c r="J47" t="s">
         <v>12</v>
@@ -1895,7 +1895,7 @@
         <v>45231</v>
       </c>
       <c r="B48" t="n">
-        <v>206.316352268705</v>
+        <v>206.419036461222</v>
       </c>
       <c r="C48" t="n">
         <v>93.1297191547481</v>
@@ -1916,7 +1916,7 @@
         <v>183</v>
       </c>
       <c r="I48" t="n">
-        <v>23.3163522687047</v>
+        <v>23.4190364612221</v>
       </c>
       <c r="J48" t="s">
         <v>12</v>
@@ -1927,7 +1927,7 @@
         <v>45261</v>
       </c>
       <c r="B49" t="n">
-        <v>189.01992753818</v>
+        <v>189.133675067448</v>
       </c>
       <c r="C49" t="n">
         <v>83.4469401030609</v>
@@ -1948,7 +1948,7 @@
         <v>245</v>
       </c>
       <c r="I49" t="n">
-        <v>-55.9800724618204</v>
+        <v>-55.8663249325515</v>
       </c>
       <c r="J49" t="s">
         <v>11</v>

--- a/outcome/appendix/forecast/Malaria.xlsx
+++ b/outcome/appendix/forecast/Malaria.xlsx
@@ -427,13 +427,13 @@
         <v>43831</v>
       </c>
       <c r="B2" t="n">
-        <v>277.665479297809</v>
+        <v>277.754285936539</v>
       </c>
       <c r="C2" t="n">
-        <v>188.806311936178</v>
+        <v>189.032243958065</v>
       </c>
       <c r="D2" t="n">
-        <v>170.344052473418</v>
+        <v>170.515208523878</v>
       </c>
       <c r="E2" t="n">
         <v>440.627362179176</v>
@@ -448,7 +448,7 @@
         <v>348</v>
       </c>
       <c r="I2" t="n">
-        <v>-70.3345207021912</v>
+        <v>-70.2457140634614</v>
       </c>
       <c r="J2" t="s">
         <v>11</v>
@@ -459,13 +459,13 @@
         <v>43862</v>
       </c>
       <c r="B3" t="n">
-        <v>248.288890625911</v>
+        <v>248.259618022897</v>
       </c>
       <c r="C3" t="n">
-        <v>185.514477780561</v>
+        <v>185.525875117934</v>
       </c>
       <c r="D3" t="n">
-        <v>167.99723675755</v>
+        <v>168.334561604841</v>
       </c>
       <c r="E3" t="n">
         <v>377.788952082555</v>
@@ -480,7 +480,7 @@
         <v>126</v>
       </c>
       <c r="I3" t="n">
-        <v>122.288890625911</v>
+        <v>122.259618022897</v>
       </c>
       <c r="J3" t="s">
         <v>12</v>
@@ -491,7 +491,7 @@
         <v>43891</v>
       </c>
       <c r="B4" t="n">
-        <v>192.996465743396</v>
+        <v>192.990385189317</v>
       </c>
       <c r="C4" t="n">
         <v>143.01186863588</v>
@@ -512,7 +512,7 @@
         <v>92</v>
       </c>
       <c r="I4" t="n">
-        <v>100.996465743396</v>
+        <v>100.990385189317</v>
       </c>
       <c r="J4" t="s">
         <v>12</v>
@@ -523,7 +523,7 @@
         <v>43922</v>
       </c>
       <c r="B5" t="n">
-        <v>210.465993195331</v>
+        <v>210.485436330761</v>
       </c>
       <c r="C5" t="n">
         <v>151.169620017098</v>
@@ -544,7 +544,7 @@
         <v>54</v>
       </c>
       <c r="I5" t="n">
-        <v>156.465993195331</v>
+        <v>156.485436330761</v>
       </c>
       <c r="J5" t="s">
         <v>12</v>
@@ -555,7 +555,7 @@
         <v>43952</v>
       </c>
       <c r="B6" t="n">
-        <v>238.028154326735</v>
+        <v>238.090020608073</v>
       </c>
       <c r="C6" t="n">
         <v>161.529209914064</v>
@@ -576,7 +576,7 @@
         <v>40</v>
       </c>
       <c r="I6" t="n">
-        <v>198.028154326735</v>
+        <v>198.090020608073</v>
       </c>
       <c r="J6" t="s">
         <v>12</v>
@@ -587,7 +587,7 @@
         <v>43983</v>
       </c>
       <c r="B7" t="n">
-        <v>262.552826401736</v>
+        <v>262.61286610835</v>
       </c>
       <c r="C7" t="n">
         <v>173.974474251093</v>
@@ -608,7 +608,7 @@
         <v>74</v>
       </c>
       <c r="I7" t="n">
-        <v>188.552826401736</v>
+        <v>188.61286610835</v>
       </c>
       <c r="J7" t="s">
         <v>12</v>
@@ -619,7 +619,7 @@
         <v>44013</v>
       </c>
       <c r="B8" t="n">
-        <v>272.354320567028</v>
+        <v>272.412189425834</v>
       </c>
       <c r="C8" t="n">
         <v>186.780385608902</v>
@@ -640,7 +640,7 @@
         <v>57</v>
       </c>
       <c r="I8" t="n">
-        <v>215.354320567028</v>
+        <v>215.412189425834</v>
       </c>
       <c r="J8" t="s">
         <v>12</v>
@@ -651,7 +651,7 @@
         <v>44044</v>
       </c>
       <c r="B9" t="n">
-        <v>238.906869506803</v>
+        <v>238.858596290968</v>
       </c>
       <c r="C9" t="n">
         <v>170.178817301019</v>
@@ -672,7 +672,7 @@
         <v>57</v>
       </c>
       <c r="I9" t="n">
-        <v>181.906869506803</v>
+        <v>181.858596290968</v>
       </c>
       <c r="J9" t="s">
         <v>12</v>
@@ -683,7 +683,7 @@
         <v>44075</v>
       </c>
       <c r="B10" t="n">
-        <v>226.3727454996</v>
+        <v>226.309594940351</v>
       </c>
       <c r="C10" t="n">
         <v>158.056003992552</v>
@@ -704,7 +704,7 @@
         <v>81</v>
       </c>
       <c r="I10" t="n">
-        <v>145.3727454996</v>
+        <v>145.309594940351</v>
       </c>
       <c r="J10" t="s">
         <v>12</v>
@@ -715,7 +715,7 @@
         <v>44105</v>
       </c>
       <c r="B11" t="n">
-        <v>207.029294210189</v>
+        <v>207.006139158168</v>
       </c>
       <c r="C11" t="n">
         <v>143.297914456867</v>
@@ -736,7 +736,7 @@
         <v>78</v>
       </c>
       <c r="I11" t="n">
-        <v>129.029294210189</v>
+        <v>129.006139158168</v>
       </c>
       <c r="J11" t="s">
         <v>12</v>
@@ -747,7 +747,7 @@
         <v>44136</v>
       </c>
       <c r="B12" t="n">
-        <v>224.006233758253</v>
+        <v>224.026319830191</v>
       </c>
       <c r="C12" t="n">
         <v>145.236259397156</v>
@@ -768,7 +768,7 @@
         <v>63</v>
       </c>
       <c r="I12" t="n">
-        <v>161.006233758253</v>
+        <v>161.026319830191</v>
       </c>
       <c r="J12" t="s">
         <v>12</v>
@@ -779,7 +779,7 @@
         <v>44166</v>
       </c>
       <c r="B13" t="n">
-        <v>200.604423664715</v>
+        <v>200.587772867066</v>
       </c>
       <c r="C13" t="n">
         <v>130.640496742923</v>
@@ -800,7 +800,7 @@
         <v>73</v>
       </c>
       <c r="I13" t="n">
-        <v>127.604423664715</v>
+        <v>127.587772867066</v>
       </c>
       <c r="J13" t="s">
         <v>12</v>
@@ -811,7 +811,7 @@
         <v>44197</v>
       </c>
       <c r="B14" t="n">
-        <v>263.027932310936</v>
+        <v>263.026051867338</v>
       </c>
       <c r="C14" t="n">
         <v>168.75127543887</v>
@@ -832,7 +832,7 @@
         <v>68</v>
       </c>
       <c r="I14" t="n">
-        <v>195.027932310936</v>
+        <v>195.026051867338</v>
       </c>
       <c r="J14" t="s">
         <v>12</v>
@@ -843,7 +843,7 @@
         <v>44228</v>
       </c>
       <c r="B15" t="n">
-        <v>235.813594676562</v>
+        <v>235.768858819454</v>
       </c>
       <c r="C15" t="n">
         <v>149.465138407806</v>
@@ -864,7 +864,7 @@
         <v>58</v>
       </c>
       <c r="I15" t="n">
-        <v>177.813594676562</v>
+        <v>177.768858819454</v>
       </c>
       <c r="J15" t="s">
         <v>12</v>
@@ -875,7 +875,7 @@
         <v>44256</v>
       </c>
       <c r="B16" t="n">
-        <v>190.028123387636</v>
+        <v>190.00875255173</v>
       </c>
       <c r="C16" t="n">
         <v>120.930459163208</v>
@@ -896,7 +896,7 @@
         <v>63</v>
       </c>
       <c r="I16" t="n">
-        <v>127.028123387636</v>
+        <v>127.00875255173</v>
       </c>
       <c r="J16" t="s">
         <v>12</v>
@@ -907,7 +907,7 @@
         <v>44287</v>
       </c>
       <c r="B17" t="n">
-        <v>206.103142438478</v>
+        <v>206.128018916811</v>
       </c>
       <c r="C17" t="n">
         <v>129.298360432976</v>
@@ -928,7 +928,7 @@
         <v>74</v>
       </c>
       <c r="I17" t="n">
-        <v>132.103142438478</v>
+        <v>132.128018916811</v>
       </c>
       <c r="J17" t="s">
         <v>12</v>
@@ -939,7 +939,7 @@
         <v>44317</v>
       </c>
       <c r="B18" t="n">
-        <v>231.162166792109</v>
+        <v>231.227096933607</v>
       </c>
       <c r="C18" t="n">
         <v>141.826013054688</v>
@@ -960,7 +960,7 @@
         <v>97</v>
       </c>
       <c r="I18" t="n">
-        <v>134.162166792109</v>
+        <v>134.227096933607</v>
       </c>
       <c r="J18" t="s">
         <v>12</v>
@@ -971,7 +971,7 @@
         <v>44348</v>
       </c>
       <c r="B19" t="n">
-        <v>253.331642609429</v>
+        <v>253.400331849491</v>
       </c>
       <c r="C19" t="n">
         <v>153.909943721984</v>
@@ -992,7 +992,7 @@
         <v>109</v>
       </c>
       <c r="I19" t="n">
-        <v>144.331642609429</v>
+        <v>144.400331849491</v>
       </c>
       <c r="J19" t="s">
         <v>12</v>
@@ -1003,7 +1003,7 @@
         <v>44378</v>
       </c>
       <c r="B20" t="n">
-        <v>261.026623422431</v>
+        <v>261.063507914059</v>
       </c>
       <c r="C20" t="n">
         <v>156.919104546279</v>
@@ -1024,7 +1024,7 @@
         <v>92</v>
       </c>
       <c r="I20" t="n">
-        <v>169.026623422431</v>
+        <v>169.063507914059</v>
       </c>
       <c r="J20" t="s">
         <v>12</v>
@@ -1035,7 +1035,7 @@
         <v>44409</v>
       </c>
       <c r="B21" t="n">
-        <v>230.429080373768</v>
+        <v>230.397389389721</v>
       </c>
       <c r="C21" t="n">
         <v>137.722690745677</v>
@@ -1056,7 +1056,7 @@
         <v>60</v>
       </c>
       <c r="I21" t="n">
-        <v>170.429080373768</v>
+        <v>170.397389389721</v>
       </c>
       <c r="J21" t="s">
         <v>12</v>
@@ -1067,7 +1067,7 @@
         <v>44440</v>
       </c>
       <c r="B22" t="n">
-        <v>219.113536962381</v>
+        <v>219.048904678928</v>
       </c>
       <c r="C22" t="n">
         <v>129.31702760824</v>
@@ -1088,7 +1088,7 @@
         <v>49</v>
       </c>
       <c r="I22" t="n">
-        <v>170.113536962381</v>
+        <v>170.048904678928</v>
       </c>
       <c r="J22" t="s">
         <v>12</v>
@@ -1099,7 +1099,7 @@
         <v>44470</v>
       </c>
       <c r="B23" t="n">
-        <v>202.712094157938</v>
+        <v>202.664009449246</v>
       </c>
       <c r="C23" t="n">
         <v>116.783105600643</v>
@@ -1120,7 +1120,7 @@
         <v>46</v>
       </c>
       <c r="I23" t="n">
-        <v>156.712094157938</v>
+        <v>156.664009449246</v>
       </c>
       <c r="J23" t="s">
         <v>12</v>
@@ -1131,7 +1131,7 @@
         <v>44501</v>
       </c>
       <c r="B24" t="n">
-        <v>218.115464100946</v>
+        <v>218.075500202083</v>
       </c>
       <c r="C24" t="n">
         <v>123.7084654199</v>
@@ -1152,7 +1152,7 @@
         <v>62</v>
       </c>
       <c r="I24" t="n">
-        <v>156.115464100946</v>
+        <v>156.075500202083</v>
       </c>
       <c r="J24" t="s">
         <v>12</v>
@@ -1163,7 +1163,7 @@
         <v>44531</v>
       </c>
       <c r="B25" t="n">
-        <v>197.452625333663</v>
+        <v>197.408154516907</v>
       </c>
       <c r="C25" t="n">
         <v>108.328888348427</v>
@@ -1184,7 +1184,7 @@
         <v>72</v>
       </c>
       <c r="I25" t="n">
-        <v>125.452625333663</v>
+        <v>125.408154516907</v>
       </c>
       <c r="J25" t="s">
         <v>12</v>
@@ -1195,7 +1195,7 @@
         <v>44562</v>
       </c>
       <c r="B26" t="n">
-        <v>254.692327031846</v>
+        <v>254.652841766415</v>
       </c>
       <c r="C26" t="n">
         <v>141.46341523127</v>
@@ -1216,7 +1216,7 @@
         <v>26</v>
       </c>
       <c r="I26" t="n">
-        <v>228.692327031846</v>
+        <v>228.652841766415</v>
       </c>
       <c r="J26" t="s">
         <v>12</v>
@@ -1227,7 +1227,7 @@
         <v>44593</v>
       </c>
       <c r="B27" t="n">
-        <v>229.43705795319</v>
+        <v>229.382924971597</v>
       </c>
       <c r="C27" t="n">
         <v>127.271112255047</v>
@@ -1248,7 +1248,7 @@
         <v>30</v>
       </c>
       <c r="I27" t="n">
-        <v>199.43705795319</v>
+        <v>199.382924971597</v>
       </c>
       <c r="J27" t="s">
         <v>12</v>
@@ -1259,7 +1259,7 @@
         <v>44621</v>
       </c>
       <c r="B28" t="n">
-        <v>187.133967645228</v>
+        <v>187.093681111247</v>
       </c>
       <c r="C28" t="n">
         <v>102.402055551194</v>
@@ -1280,7 +1280,7 @@
         <v>31</v>
       </c>
       <c r="I28" t="n">
-        <v>156.133967645228</v>
+        <v>156.093681111247</v>
       </c>
       <c r="J28" t="s">
         <v>12</v>
@@ -1291,7 +1291,7 @@
         <v>44652</v>
       </c>
       <c r="B29" t="n">
-        <v>203.349724010194</v>
+        <v>203.345565118726</v>
       </c>
       <c r="C29" t="n">
         <v>108.955516169436</v>
@@ -1312,7 +1312,7 @@
         <v>34</v>
       </c>
       <c r="I29" t="n">
-        <v>169.349724010194</v>
+        <v>169.345565118726</v>
       </c>
       <c r="J29" t="s">
         <v>12</v>
@@ -1323,7 +1323,7 @@
         <v>44682</v>
       </c>
       <c r="B30" t="n">
-        <v>226.876825960591</v>
+        <v>226.909030599381</v>
       </c>
       <c r="C30" t="n">
         <v>119.201223405021</v>
@@ -1344,7 +1344,7 @@
         <v>37</v>
       </c>
       <c r="I30" t="n">
-        <v>189.876825960591</v>
+        <v>189.909030599381</v>
       </c>
       <c r="J30" t="s">
         <v>12</v>
@@ -1355,7 +1355,7 @@
         <v>44713</v>
       </c>
       <c r="B31" t="n">
-        <v>246.345912501205</v>
+        <v>246.391523461183</v>
       </c>
       <c r="C31" t="n">
         <v>127.777574385447</v>
@@ -1376,7 +1376,7 @@
         <v>62</v>
       </c>
       <c r="I31" t="n">
-        <v>184.345912501205</v>
+        <v>184.391523461183</v>
       </c>
       <c r="J31" t="s">
         <v>12</v>
@@ -1387,7 +1387,7 @@
         <v>44743</v>
       </c>
       <c r="B32" t="n">
-        <v>252.09095850747</v>
+        <v>252.11880287314</v>
       </c>
       <c r="C32" t="n">
         <v>130.237359766019</v>
@@ -1408,7 +1408,7 @@
         <v>79</v>
       </c>
       <c r="I32" t="n">
-        <v>173.09095850747</v>
+        <v>173.11880287314</v>
       </c>
       <c r="J32" t="s">
         <v>12</v>
@@ -1419,7 +1419,7 @@
         <v>44774</v>
       </c>
       <c r="B33" t="n">
-        <v>223.631169703654</v>
+        <v>223.617555974129</v>
       </c>
       <c r="C33" t="n">
         <v>116.118219718871</v>
@@ -1440,7 +1440,7 @@
         <v>217</v>
       </c>
       <c r="I33" t="n">
-        <v>6.63116970365436</v>
+        <v>6.61755597412946</v>
       </c>
       <c r="J33" t="s">
         <v>12</v>
@@ -1451,7 +1451,7 @@
         <v>44805</v>
       </c>
       <c r="B34" t="n">
-        <v>213.299097700413</v>
+        <v>213.252662356864</v>
       </c>
       <c r="C34" t="n">
         <v>109.895473802937</v>
@@ -1472,7 +1472,7 @@
         <v>96</v>
       </c>
       <c r="I34" t="n">
-        <v>117.299097700413</v>
+        <v>117.252662356864</v>
       </c>
       <c r="J34" t="s">
         <v>12</v>
@@ -1483,7 +1483,7 @@
         <v>44835</v>
       </c>
       <c r="B35" t="n">
-        <v>198.342132721394</v>
+        <v>198.291118387014</v>
       </c>
       <c r="C35" t="n">
         <v>100.353933030024</v>
@@ -1504,7 +1504,7 @@
         <v>92</v>
       </c>
       <c r="I35" t="n">
-        <v>106.342132721394</v>
+        <v>106.291118387014</v>
       </c>
       <c r="J35" t="s">
         <v>12</v>
@@ -1515,7 +1515,7 @@
         <v>44866</v>
       </c>
       <c r="B36" t="n">
-        <v>211.247570692797</v>
+        <v>211.194581792143</v>
       </c>
       <c r="C36" t="n">
         <v>105.876923837182</v>
@@ -1536,7 +1536,7 @@
         <v>74</v>
       </c>
       <c r="I36" t="n">
-        <v>137.247570692797</v>
+        <v>137.194581792143</v>
       </c>
       <c r="J36" t="s">
         <v>12</v>
@@ -1547,7 +1547,7 @@
         <v>44896</v>
       </c>
       <c r="B37" t="n">
-        <v>192.842713208345</v>
+        <v>192.787690464356</v>
       </c>
       <c r="C37" t="n">
         <v>93.9520022817952</v>
@@ -1568,7 +1568,7 @@
         <v>79</v>
       </c>
       <c r="I37" t="n">
-        <v>113.842713208345</v>
+        <v>113.787690464356</v>
       </c>
       <c r="J37" t="s">
         <v>12</v>
@@ -1579,7 +1579,7 @@
         <v>44927</v>
       </c>
       <c r="B38" t="n">
-        <v>246.344460076058</v>
+        <v>246.291091123152</v>
       </c>
       <c r="C38" t="n">
         <v>120.172061969526</v>
@@ -1600,7 +1600,7 @@
         <v>149</v>
       </c>
       <c r="I38" t="n">
-        <v>97.3444600760585</v>
+        <v>97.2910911231518</v>
       </c>
       <c r="J38" t="s">
         <v>12</v>
@@ -1611,7 +1611,7 @@
         <v>44958</v>
       </c>
       <c r="B39" t="n">
-        <v>222.465525832339</v>
+        <v>222.407473299027</v>
       </c>
       <c r="C39" t="n">
         <v>109.336417498127</v>
@@ -1632,7 +1632,7 @@
         <v>117</v>
       </c>
       <c r="I39" t="n">
-        <v>105.465525832339</v>
+        <v>105.407473299027</v>
       </c>
       <c r="J39" t="s">
         <v>12</v>
@@ -1643,7 +1643,7 @@
         <v>44986</v>
       </c>
       <c r="B40" t="n">
-        <v>183.334803586605</v>
+        <v>183.283012686082</v>
       </c>
       <c r="C40" t="n">
         <v>89.7284552740362</v>
@@ -1664,7 +1664,7 @@
         <v>138</v>
       </c>
       <c r="I40" t="n">
-        <v>45.3348035866051</v>
+        <v>45.2830126860815</v>
       </c>
       <c r="J40" t="s">
         <v>12</v>
@@ -1675,7 +1675,7 @@
         <v>45017</v>
       </c>
       <c r="B41" t="n">
-        <v>199.248821556037</v>
+        <v>199.218708000106</v>
       </c>
       <c r="C41" t="n">
         <v>95.0744105932967</v>
@@ -1696,7 +1696,7 @@
         <v>189</v>
       </c>
       <c r="I41" t="n">
-        <v>10.2488215560367</v>
+        <v>10.2187080001061</v>
       </c>
       <c r="J41" t="s">
         <v>12</v>
@@ -1707,7 +1707,7 @@
         <v>45047</v>
       </c>
       <c r="B42" t="n">
-        <v>221.881118962847</v>
+        <v>221.877850849468</v>
       </c>
       <c r="C42" t="n">
         <v>103.31833065883</v>
@@ -1728,7 +1728,7 @@
         <v>212</v>
       </c>
       <c r="I42" t="n">
-        <v>9.88111896284747</v>
+        <v>9.87785084946842</v>
       </c>
       <c r="J42" t="s">
         <v>12</v>
@@ -1739,7 +1739,7 @@
         <v>45078</v>
       </c>
       <c r="B43" t="n">
-        <v>240.232480933666</v>
+        <v>240.24585488336</v>
       </c>
       <c r="C43" t="n">
         <v>110.175936899035</v>
@@ -1758,7 +1758,7 @@
         <v>264</v>
       </c>
       <c r="I43" t="n">
-        <v>-23.7675190663343</v>
+        <v>-23.7541451166395</v>
       </c>
       <c r="J43" t="s">
         <v>11</v>
@@ -1769,7 +1769,7 @@
         <v>45108</v>
       </c>
       <c r="B44" t="n">
-        <v>245.082044099709</v>
+        <v>245.092296915587</v>
       </c>
       <c r="C44" t="n">
         <v>112.208012942677</v>
@@ -1788,7 +1788,7 @@
         <v>289</v>
       </c>
       <c r="I44" t="n">
-        <v>-43.9179559002907</v>
+        <v>-43.9077030844129</v>
       </c>
       <c r="J44" t="s">
         <v>11</v>
@@ -1799,7 +1799,7 @@
         <v>45139</v>
       </c>
       <c r="B45" t="n">
-        <v>217.817374851696</v>
+        <v>217.807138170104</v>
       </c>
       <c r="C45" t="n">
         <v>101.139557790893</v>
@@ -1820,7 +1820,7 @@
         <v>234</v>
       </c>
       <c r="I45" t="n">
-        <v>-16.1826251483036</v>
+        <v>-16.1928618298964</v>
       </c>
       <c r="J45" t="s">
         <v>11</v>
@@ -1831,7 +1831,7 @@
         <v>45170</v>
       </c>
       <c r="B46" t="n">
-        <v>207.947280003785</v>
+        <v>207.913898018791</v>
       </c>
       <c r="C46" t="n">
         <v>96.2336517542998</v>
@@ -1852,7 +1852,7 @@
         <v>193</v>
       </c>
       <c r="I46" t="n">
-        <v>14.9472800037852</v>
+        <v>14.9138980187911</v>
       </c>
       <c r="J46" t="s">
         <v>12</v>
@@ -1863,7 +1863,7 @@
         <v>45200</v>
       </c>
       <c r="B47" t="n">
-        <v>194.113984190323</v>
+        <v>194.069094413296</v>
       </c>
       <c r="C47" t="n">
         <v>88.5751739882669</v>
@@ -1884,7 +1884,7 @@
         <v>193</v>
       </c>
       <c r="I47" t="n">
-        <v>1.11398419032309</v>
+        <v>1.06909441329577</v>
       </c>
       <c r="J47" t="s">
         <v>12</v>
@@ -1895,7 +1895,7 @@
         <v>45231</v>
       </c>
       <c r="B48" t="n">
-        <v>206.419036461222</v>
+        <v>206.367690370927</v>
       </c>
       <c r="C48" t="n">
         <v>93.1297191547481</v>
@@ -1916,7 +1916,7 @@
         <v>183</v>
       </c>
       <c r="I48" t="n">
-        <v>23.4190364612221</v>
+        <v>23.3676903709269</v>
       </c>
       <c r="J48" t="s">
         <v>12</v>
@@ -1927,7 +1927,7 @@
         <v>45261</v>
       </c>
       <c r="B49" t="n">
-        <v>189.133675067448</v>
+        <v>189.078628648095</v>
       </c>
       <c r="C49" t="n">
         <v>83.4469401030609</v>
@@ -1948,7 +1948,7 @@
         <v>245</v>
       </c>
       <c r="I49" t="n">
-        <v>-55.8663249325515</v>
+        <v>-55.9213713519052</v>
       </c>
       <c r="J49" t="s">
         <v>11</v>

--- a/outcome/appendix/forecast/Malaria.xlsx
+++ b/outcome/appendix/forecast/Malaria.xlsx
@@ -427,19 +427,19 @@
         <v>43831</v>
       </c>
       <c r="B2" t="n">
-        <v>277.754285936539</v>
+        <v>252.568638680165</v>
       </c>
       <c r="C2" t="n">
-        <v>189.032243958065</v>
+        <v>180.630280469455</v>
       </c>
       <c r="D2" t="n">
-        <v>170.515208523878</v>
+        <v>163.461155024921</v>
       </c>
       <c r="E2" t="n">
-        <v>440.627362179176</v>
+        <v>364.438466935827</v>
       </c>
       <c r="F2" t="n">
-        <v>532.818553038334</v>
+        <v>419.76635906632</v>
       </c>
       <c r="G2" t="s">
         <v>10</v>
@@ -448,7 +448,7 @@
         <v>348</v>
       </c>
       <c r="I2" t="n">
-        <v>-70.2457140634614</v>
+        <v>-95.4313613198354</v>
       </c>
       <c r="J2" t="s">
         <v>11</v>
@@ -459,19 +459,19 @@
         <v>43862</v>
       </c>
       <c r="B3" t="n">
-        <v>248.259618022897</v>
+        <v>226.31295289808</v>
       </c>
       <c r="C3" t="n">
-        <v>185.525875117934</v>
+        <v>145.368677912426</v>
       </c>
       <c r="D3" t="n">
-        <v>168.334561604841</v>
+        <v>128.861996982986</v>
       </c>
       <c r="E3" t="n">
-        <v>377.788952082555</v>
+        <v>339.226031798757</v>
       </c>
       <c r="F3" t="n">
-        <v>459.983044800932</v>
+        <v>402.48388194451</v>
       </c>
       <c r="G3" t="s">
         <v>10</v>
@@ -480,7 +480,7 @@
         <v>126</v>
       </c>
       <c r="I3" t="n">
-        <v>122.259618022897</v>
+        <v>100.31295289808</v>
       </c>
       <c r="J3" t="s">
         <v>12</v>
@@ -491,19 +491,19 @@
         <v>43891</v>
       </c>
       <c r="B4" t="n">
-        <v>192.990385189317</v>
+        <v>189.04288765304</v>
       </c>
       <c r="C4" t="n">
-        <v>143.01186863588</v>
+        <v>135.441294682479</v>
       </c>
       <c r="D4" t="n">
-        <v>129.40935884398</v>
+        <v>117.775569943133</v>
       </c>
       <c r="E4" t="n">
-        <v>261.753295538276</v>
+        <v>266.816330752101</v>
       </c>
       <c r="F4" t="n">
-        <v>310.737117288776</v>
+        <v>339.740580665944</v>
       </c>
       <c r="G4" t="s">
         <v>10</v>
@@ -512,7 +512,7 @@
         <v>92</v>
       </c>
       <c r="I4" t="n">
-        <v>100.990385189317</v>
+        <v>97.0428876530403</v>
       </c>
       <c r="J4" t="s">
         <v>12</v>
@@ -523,19 +523,19 @@
         <v>43922</v>
       </c>
       <c r="B5" t="n">
-        <v>210.485436330761</v>
+        <v>213.356081837267</v>
       </c>
       <c r="C5" t="n">
-        <v>151.169620017098</v>
+        <v>151.084093734641</v>
       </c>
       <c r="D5" t="n">
-        <v>135.574480012874</v>
+        <v>131.611059919919</v>
       </c>
       <c r="E5" t="n">
-        <v>326.461160286785</v>
+        <v>393.07140173584</v>
       </c>
       <c r="F5" t="n">
-        <v>399.743411943136</v>
+        <v>569.508615583545</v>
       </c>
       <c r="G5" t="s">
         <v>10</v>
@@ -544,7 +544,7 @@
         <v>54</v>
       </c>
       <c r="I5" t="n">
-        <v>156.485436330761</v>
+        <v>159.356081837267</v>
       </c>
       <c r="J5" t="s">
         <v>12</v>
@@ -555,19 +555,19 @@
         <v>43952</v>
       </c>
       <c r="B6" t="n">
-        <v>238.090020608073</v>
+        <v>254.585198021026</v>
       </c>
       <c r="C6" t="n">
-        <v>161.529209914064</v>
+        <v>161.443253978248</v>
       </c>
       <c r="D6" t="n">
-        <v>143.693109684426</v>
+        <v>143.565957036256</v>
       </c>
       <c r="E6" t="n">
-        <v>437.473592140719</v>
+        <v>703.614749934152</v>
       </c>
       <c r="F6" t="n">
-        <v>576.925948364105</v>
+        <v>1353.32998498102</v>
       </c>
       <c r="G6" t="s">
         <v>10</v>
@@ -576,7 +576,7 @@
         <v>40</v>
       </c>
       <c r="I6" t="n">
-        <v>198.090020608073</v>
+        <v>214.585198021026</v>
       </c>
       <c r="J6" t="s">
         <v>12</v>
@@ -587,19 +587,19 @@
         <v>43983</v>
       </c>
       <c r="B7" t="n">
-        <v>262.61286610835</v>
+        <v>285.636084369867</v>
       </c>
       <c r="C7" t="n">
-        <v>173.974474251093</v>
+        <v>173.890418997155</v>
       </c>
       <c r="D7" t="n">
-        <v>153.528686160329</v>
+        <v>153.405891407278</v>
       </c>
       <c r="E7" t="n">
-        <v>521.377425053743</v>
+        <v>1061.59867692788</v>
       </c>
       <c r="F7" t="n">
-        <v>735.416375406542</v>
+        <v>3014.33433523021</v>
       </c>
       <c r="G7" t="s">
         <v>10</v>
@@ -608,7 +608,7 @@
         <v>74</v>
       </c>
       <c r="I7" t="n">
-        <v>188.61286610835</v>
+        <v>211.636084369867</v>
       </c>
       <c r="J7" t="s">
         <v>12</v>
@@ -619,19 +619,19 @@
         <v>44013</v>
       </c>
       <c r="B8" t="n">
-        <v>272.412189425834</v>
+        <v>292.979392352799</v>
       </c>
       <c r="C8" t="n">
-        <v>186.780385608902</v>
+        <v>186.703749781177</v>
       </c>
       <c r="D8" t="n">
-        <v>163.596730639674</v>
+        <v>153.625138418037</v>
       </c>
       <c r="E8" t="n">
-        <v>520.235204330275</v>
+        <v>1216.34468248857</v>
       </c>
       <c r="F8" t="n">
-        <v>755.166801886392</v>
+        <v>4620.37805226328</v>
       </c>
       <c r="G8" t="s">
         <v>10</v>
@@ -640,7 +640,7 @@
         <v>57</v>
       </c>
       <c r="I8" t="n">
-        <v>215.412189425834</v>
+        <v>235.979392352799</v>
       </c>
       <c r="J8" t="s">
         <v>12</v>
@@ -651,19 +651,19 @@
         <v>44044</v>
       </c>
       <c r="B9" t="n">
-        <v>238.858596290968</v>
+        <v>259.927671694288</v>
       </c>
       <c r="C9" t="n">
-        <v>170.178817301019</v>
+        <v>170.087209370837</v>
       </c>
       <c r="D9" t="n">
-        <v>147.477990139767</v>
+        <v>136.248855499664</v>
       </c>
       <c r="E9" t="n">
-        <v>414.185495697394</v>
+        <v>1041.08381905107</v>
       </c>
       <c r="F9" t="n">
-        <v>581.90910334266</v>
+        <v>3707.88472399568</v>
       </c>
       <c r="G9" t="s">
         <v>10</v>
@@ -672,7 +672,7 @@
         <v>57</v>
       </c>
       <c r="I9" t="n">
-        <v>181.858596290968</v>
+        <v>202.927671694288</v>
       </c>
       <c r="J9" t="s">
         <v>12</v>
@@ -683,19 +683,19 @@
         <v>44075</v>
       </c>
       <c r="B10" t="n">
-        <v>226.309594940351</v>
+        <v>242.047292918362</v>
       </c>
       <c r="C10" t="n">
-        <v>158.056003992552</v>
+        <v>157.353420475378</v>
       </c>
       <c r="D10" t="n">
-        <v>133.879211359467</v>
+        <v>121.749485393111</v>
       </c>
       <c r="E10" t="n">
-        <v>380.379378023117</v>
+        <v>888.430874372146</v>
       </c>
       <c r="F10" t="n">
-        <v>531.15902505104</v>
+        <v>2928.70557253548</v>
       </c>
       <c r="G10" t="s">
         <v>10</v>
@@ -704,7 +704,7 @@
         <v>81</v>
       </c>
       <c r="I10" t="n">
-        <v>145.309594940351</v>
+        <v>161.047292918362</v>
       </c>
       <c r="J10" t="s">
         <v>12</v>
@@ -715,19 +715,19 @@
         <v>44105</v>
       </c>
       <c r="B11" t="n">
-        <v>207.006139158168</v>
+        <v>223.409860113225</v>
       </c>
       <c r="C11" t="n">
-        <v>143.297914456867</v>
+        <v>143.787234010924</v>
       </c>
       <c r="D11" t="n">
-        <v>122.10234622056</v>
+        <v>111.32514734277</v>
       </c>
       <c r="E11" t="n">
-        <v>348.233507560896</v>
+        <v>803.414043553632</v>
       </c>
       <c r="F11" t="n">
-        <v>488.597824332598</v>
+        <v>2600.15228945214</v>
       </c>
       <c r="G11" t="s">
         <v>10</v>
@@ -736,7 +736,7 @@
         <v>78</v>
       </c>
       <c r="I11" t="n">
-        <v>129.006139158168</v>
+        <v>145.409860113225</v>
       </c>
       <c r="J11" t="s">
         <v>12</v>
@@ -747,19 +747,19 @@
         <v>44136</v>
       </c>
       <c r="B12" t="n">
-        <v>224.026319830191</v>
+        <v>231.372934110356</v>
       </c>
       <c r="C12" t="n">
-        <v>145.236259397156</v>
+        <v>133.901283223079</v>
       </c>
       <c r="D12" t="n">
-        <v>122.179587527861</v>
+        <v>103.566863691176</v>
       </c>
       <c r="E12" t="n">
-        <v>377.248746688502</v>
+        <v>757.039195090517</v>
       </c>
       <c r="F12" t="n">
-        <v>542.689631884867</v>
+        <v>2497.79160732466</v>
       </c>
       <c r="G12" t="s">
         <v>10</v>
@@ -768,7 +768,7 @@
         <v>63</v>
       </c>
       <c r="I12" t="n">
-        <v>161.026319830191</v>
+        <v>168.372934110356</v>
       </c>
       <c r="J12" t="s">
         <v>12</v>
@@ -779,19 +779,19 @@
         <v>44166</v>
       </c>
       <c r="B13" t="n">
-        <v>200.587772867066</v>
+        <v>213.109878859073</v>
       </c>
       <c r="C13" t="n">
-        <v>130.640496742923</v>
+        <v>125.581706591009</v>
       </c>
       <c r="D13" t="n">
-        <v>111.036739425179</v>
+        <v>97.0247669960211</v>
       </c>
       <c r="E13" t="n">
-        <v>357.049368171289</v>
+        <v>719.463534612442</v>
       </c>
       <c r="F13" t="n">
-        <v>522.440344028742</v>
+        <v>2427.21112737754</v>
       </c>
       <c r="G13" t="s">
         <v>10</v>
@@ -800,7 +800,7 @@
         <v>73</v>
       </c>
       <c r="I13" t="n">
-        <v>127.587772867066</v>
+        <v>140.109878859073</v>
       </c>
       <c r="J13" t="s">
         <v>12</v>
@@ -811,19 +811,19 @@
         <v>44197</v>
       </c>
       <c r="B14" t="n">
-        <v>263.026051867338</v>
+        <v>256.009764776544</v>
       </c>
       <c r="C14" t="n">
-        <v>168.75127543887</v>
+        <v>130.490847393005</v>
       </c>
       <c r="D14" t="n">
-        <v>137.589435982654</v>
+        <v>99.1518486050536</v>
       </c>
       <c r="E14" t="n">
-        <v>615.866935984713</v>
+        <v>953.83117800651</v>
       </c>
       <c r="F14" t="n">
-        <v>1142.02922346096</v>
+        <v>5559.76585613618</v>
       </c>
       <c r="G14" t="s">
         <v>10</v>
@@ -832,7 +832,7 @@
         <v>68</v>
       </c>
       <c r="I14" t="n">
-        <v>195.026051867338</v>
+        <v>188.009764776544</v>
       </c>
       <c r="J14" t="s">
         <v>12</v>
@@ -843,19 +843,19 @@
         <v>44228</v>
       </c>
       <c r="B15" t="n">
-        <v>235.768858819454</v>
+        <v>227.752198544533</v>
       </c>
       <c r="C15" t="n">
-        <v>149.465138407806</v>
+        <v>113.122485764122</v>
       </c>
       <c r="D15" t="n">
-        <v>122.813984929918</v>
+        <v>87.044099946096</v>
       </c>
       <c r="E15" t="n">
-        <v>496.119834034088</v>
+        <v>683.137105445684</v>
       </c>
       <c r="F15" t="n">
-        <v>851.841264841349</v>
+        <v>2535.07546123446</v>
       </c>
       <c r="G15" t="s">
         <v>10</v>
@@ -864,7 +864,7 @@
         <v>58</v>
       </c>
       <c r="I15" t="n">
-        <v>177.768858819454</v>
+        <v>169.752198544533</v>
       </c>
       <c r="J15" t="s">
         <v>12</v>
@@ -875,19 +875,19 @@
         <v>44256</v>
       </c>
       <c r="B16" t="n">
-        <v>190.00875255173</v>
+        <v>197.03425645485</v>
       </c>
       <c r="C16" t="n">
-        <v>120.930459163208</v>
+        <v>109.063219775919</v>
       </c>
       <c r="D16" t="n">
-        <v>100.979476444157</v>
+        <v>83.6576154659493</v>
       </c>
       <c r="E16" t="n">
-        <v>352.744417387724</v>
+        <v>687.627106195488</v>
       </c>
       <c r="F16" t="n">
-        <v>540.611294739314</v>
+        <v>2780.11375231936</v>
       </c>
       <c r="G16" t="s">
         <v>10</v>
@@ -896,7 +896,7 @@
         <v>63</v>
       </c>
       <c r="I16" t="n">
-        <v>127.00875255173</v>
+        <v>134.03425645485</v>
       </c>
       <c r="J16" t="s">
         <v>12</v>
@@ -907,19 +907,19 @@
         <v>44287</v>
       </c>
       <c r="B17" t="n">
-        <v>206.128018916811</v>
+        <v>224.185010074699</v>
       </c>
       <c r="C17" t="n">
-        <v>129.298360432976</v>
+        <v>126.289050195608</v>
       </c>
       <c r="D17" t="n">
-        <v>106.694928382049</v>
+        <v>93.8010991660874</v>
       </c>
       <c r="E17" t="n">
-        <v>475.727465124461</v>
+        <v>1392.46637721452</v>
       </c>
       <c r="F17" t="n">
-        <v>827.780082552301</v>
+        <v>200887.376853143</v>
       </c>
       <c r="G17" t="s">
         <v>10</v>
@@ -928,7 +928,7 @@
         <v>74</v>
       </c>
       <c r="I17" t="n">
-        <v>132.128018916811</v>
+        <v>150.185010074699</v>
       </c>
       <c r="J17" t="s">
         <v>12</v>
@@ -939,20 +939,18 @@
         <v>44317</v>
       </c>
       <c r="B18" t="n">
-        <v>231.227096933607</v>
+        <v>272.496631132189</v>
       </c>
       <c r="C18" t="n">
-        <v>141.826013054688</v>
+        <v>141.697358248265</v>
       </c>
       <c r="D18" t="n">
-        <v>115.825700408121</v>
+        <v>108.870238784308</v>
       </c>
       <c r="E18" t="n">
-        <v>677.504494543886</v>
-      </c>
-      <c r="F18" t="n">
-        <v>1448.04837248444</v>
-      </c>
+        <v>7165.82259333044</v>
+      </c>
+      <c r="F18"/>
       <c r="G18" t="s">
         <v>10</v>
       </c>
@@ -960,7 +958,7 @@
         <v>97</v>
       </c>
       <c r="I18" t="n">
-        <v>134.227096933607</v>
+        <v>175.496631132189</v>
       </c>
       <c r="J18" t="s">
         <v>12</v>
@@ -971,20 +969,18 @@
         <v>44348</v>
       </c>
       <c r="B19" t="n">
-        <v>253.400331849491</v>
+        <v>309.309937049464</v>
       </c>
       <c r="C19" t="n">
-        <v>153.909943721984</v>
+        <v>155.59652761237</v>
       </c>
       <c r="D19" t="n">
-        <v>123.186291428277</v>
+        <v>115.070404472372</v>
       </c>
       <c r="E19" t="n">
-        <v>834.641835785153</v>
-      </c>
-      <c r="F19" t="n">
-        <v>2136.58083794077</v>
-      </c>
+        <v>296269.187516295</v>
+      </c>
+      <c r="F19"/>
       <c r="G19" t="s">
         <v>10</v>
       </c>
@@ -992,7 +988,7 @@
         <v>109</v>
       </c>
       <c r="I19" t="n">
-        <v>144.400331849491</v>
+        <v>200.309937049464</v>
       </c>
       <c r="J19" t="s">
         <v>12</v>
@@ -1003,20 +999,16 @@
         <v>44378</v>
       </c>
       <c r="B20" t="n">
-        <v>261.063507914059</v>
+        <v>315.432048222359</v>
       </c>
       <c r="C20" t="n">
-        <v>156.919104546279</v>
+        <v>163.137876169536</v>
       </c>
       <c r="D20" t="n">
-        <v>124.69793867429</v>
-      </c>
-      <c r="E20" t="n">
-        <v>812.982867884217</v>
-      </c>
-      <c r="F20" t="n">
-        <v>2107.61160974686</v>
-      </c>
+        <v>112.383070957253</v>
+      </c>
+      <c r="E20"/>
+      <c r="F20"/>
       <c r="G20" t="s">
         <v>10</v>
       </c>
@@ -1024,7 +1016,7 @@
         <v>92</v>
       </c>
       <c r="I20" t="n">
-        <v>169.063507914059</v>
+        <v>223.432048222359</v>
       </c>
       <c r="J20" t="s">
         <v>12</v>
@@ -1035,20 +1027,18 @@
         <v>44409</v>
       </c>
       <c r="B21" t="n">
-        <v>230.397389389721</v>
+        <v>278.081255849103</v>
       </c>
       <c r="C21" t="n">
-        <v>137.722690745677</v>
+        <v>145.99647852591</v>
       </c>
       <c r="D21" t="n">
-        <v>110.872093373032</v>
+        <v>103.097354257156</v>
       </c>
       <c r="E21" t="n">
-        <v>594.553074332428</v>
-      </c>
-      <c r="F21" t="n">
-        <v>1266.31805166603</v>
-      </c>
+        <v>44502.4645717144</v>
+      </c>
+      <c r="F21"/>
       <c r="G21" t="s">
         <v>10</v>
       </c>
@@ -1056,7 +1046,7 @@
         <v>60</v>
       </c>
       <c r="I21" t="n">
-        <v>170.397389389721</v>
+        <v>218.081255849103</v>
       </c>
       <c r="J21" t="s">
         <v>12</v>
@@ -1067,20 +1057,18 @@
         <v>44440</v>
       </c>
       <c r="B22" t="n">
-        <v>219.048904678928</v>
+        <v>256.562042777797</v>
       </c>
       <c r="C22" t="n">
-        <v>129.31702760824</v>
+        <v>134.483115799078</v>
       </c>
       <c r="D22" t="n">
-        <v>104.527126766958</v>
+        <v>94.7770167411143</v>
       </c>
       <c r="E22" t="n">
-        <v>514.920111182333</v>
-      </c>
-      <c r="F22" t="n">
-        <v>1030.50320642397</v>
-      </c>
+        <v>11272.8033720993</v>
+      </c>
+      <c r="F22"/>
       <c r="G22" t="s">
         <v>10</v>
       </c>
@@ -1088,7 +1076,7 @@
         <v>49</v>
       </c>
       <c r="I22" t="n">
-        <v>170.048904678928</v>
+        <v>207.562042777797</v>
       </c>
       <c r="J22" t="s">
         <v>12</v>
@@ -1099,20 +1087,18 @@
         <v>44470</v>
       </c>
       <c r="B23" t="n">
-        <v>202.664009449246</v>
+        <v>237.335018729396</v>
       </c>
       <c r="C23" t="n">
-        <v>116.783105600643</v>
+        <v>124.941992154777</v>
       </c>
       <c r="D23" t="n">
-        <v>95.2418112737907</v>
+        <v>88.5815638061339</v>
       </c>
       <c r="E23" t="n">
-        <v>467.972866352451</v>
-      </c>
-      <c r="F23" t="n">
-        <v>906.846770207418</v>
-      </c>
+        <v>6504.17233007832</v>
+      </c>
+      <c r="F23"/>
       <c r="G23" t="s">
         <v>10</v>
       </c>
@@ -1120,7 +1106,7 @@
         <v>46</v>
       </c>
       <c r="I23" t="n">
-        <v>156.664009449246</v>
+        <v>191.335018729396</v>
       </c>
       <c r="J23" t="s">
         <v>12</v>
@@ -1131,20 +1117,18 @@
         <v>44501</v>
       </c>
       <c r="B24" t="n">
-        <v>218.075500202083</v>
+        <v>242.520051664005</v>
       </c>
       <c r="C24" t="n">
-        <v>123.7084654199</v>
+        <v>117.799373617558</v>
       </c>
       <c r="D24" t="n">
-        <v>99.8047027629465</v>
+        <v>83.8557279890529</v>
       </c>
       <c r="E24" t="n">
-        <v>483.240103703186</v>
-      </c>
-      <c r="F24" t="n">
-        <v>970.715080693586</v>
-      </c>
+        <v>4886.52129741299</v>
+      </c>
+      <c r="F24"/>
       <c r="G24" t="s">
         <v>10</v>
       </c>
@@ -1152,7 +1136,7 @@
         <v>62</v>
       </c>
       <c r="I24" t="n">
-        <v>156.075500202083</v>
+        <v>180.520051664005</v>
       </c>
       <c r="J24" t="s">
         <v>12</v>
@@ -1163,20 +1147,18 @@
         <v>44531</v>
       </c>
       <c r="B25" t="n">
-        <v>197.408154516907</v>
+        <v>224.778457086248</v>
       </c>
       <c r="C25" t="n">
-        <v>108.328888348427</v>
+        <v>111.647071957014</v>
       </c>
       <c r="D25" t="n">
-        <v>88.5407129714405</v>
+        <v>79.7372580155267</v>
       </c>
       <c r="E25" t="n">
-        <v>472.969534432861</v>
-      </c>
-      <c r="F25" t="n">
-        <v>956.190480179885</v>
-      </c>
+        <v>3933.18552695802</v>
+      </c>
+      <c r="F25"/>
       <c r="G25" t="s">
         <v>10</v>
       </c>
@@ -1184,7 +1166,7 @@
         <v>72</v>
       </c>
       <c r="I25" t="n">
-        <v>125.408154516907</v>
+        <v>152.778457086248</v>
       </c>
       <c r="J25" t="s">
         <v>12</v>
@@ -1195,20 +1177,18 @@
         <v>44562</v>
       </c>
       <c r="B26" t="n">
-        <v>254.652841766415</v>
+        <v>267.976542847315</v>
       </c>
       <c r="C26" t="n">
-        <v>141.46341523127</v>
+        <v>116.346163309351</v>
       </c>
       <c r="D26" t="n">
-        <v>110.309237048929</v>
+        <v>81.8458092351525</v>
       </c>
       <c r="E26" t="n">
-        <v>782.339941232362</v>
-      </c>
-      <c r="F26" t="n">
-        <v>2382.02469849657</v>
-      </c>
+        <v>10142.9733283328</v>
+      </c>
+      <c r="F26"/>
       <c r="G26" t="s">
         <v>10</v>
       </c>
@@ -1216,7 +1196,7 @@
         <v>26</v>
       </c>
       <c r="I26" t="n">
-        <v>228.652841766415</v>
+        <v>241.976542847315</v>
       </c>
       <c r="J26" t="s">
         <v>12</v>
@@ -1227,20 +1207,18 @@
         <v>44593</v>
       </c>
       <c r="B27" t="n">
-        <v>229.382924971597</v>
+        <v>236.533228349101</v>
       </c>
       <c r="C27" t="n">
-        <v>127.271112255047</v>
+        <v>102.271618005409</v>
       </c>
       <c r="D27" t="n">
-        <v>100.407311504579</v>
+        <v>73.2716400803941</v>
       </c>
       <c r="E27" t="n">
-        <v>612.082796301359</v>
-      </c>
-      <c r="F27" t="n">
-        <v>1533.65552858939</v>
-      </c>
+        <v>3109.47198961022</v>
+      </c>
+      <c r="F27"/>
       <c r="G27" t="s">
         <v>10</v>
       </c>
@@ -1248,7 +1226,7 @@
         <v>30</v>
       </c>
       <c r="I27" t="n">
-        <v>199.382924971597</v>
+        <v>206.533228349101</v>
       </c>
       <c r="J27" t="s">
         <v>12</v>
@@ -1259,20 +1237,18 @@
         <v>44621</v>
       </c>
       <c r="B28" t="n">
-        <v>187.093681111247</v>
+        <v>206.790120862447</v>
       </c>
       <c r="C28" t="n">
-        <v>102.402055551194</v>
+        <v>99.2121995671679</v>
       </c>
       <c r="D28" t="n">
-        <v>82.8961483083216</v>
+        <v>71.0504469649389</v>
       </c>
       <c r="E28" t="n">
-        <v>455.523476399407</v>
-      </c>
-      <c r="F28" t="n">
-        <v>950.005478262379</v>
-      </c>
+        <v>3053.72966356464</v>
+      </c>
+      <c r="F28"/>
       <c r="G28" t="s">
         <v>10</v>
       </c>
@@ -1280,7 +1256,7 @@
         <v>31</v>
       </c>
       <c r="I28" t="n">
-        <v>156.093681111247</v>
+        <v>175.790120862447</v>
       </c>
       <c r="J28" t="s">
         <v>12</v>
@@ -1291,20 +1267,18 @@
         <v>44652</v>
       </c>
       <c r="B29" t="n">
-        <v>203.345565118726</v>
+        <v>239.979869886844</v>
       </c>
       <c r="C29" t="n">
-        <v>108.955516169436</v>
+        <v>114.331474212467</v>
       </c>
       <c r="D29" t="n">
-        <v>87.2406329690286</v>
+        <v>79.1476728921853</v>
       </c>
       <c r="E29" t="n">
-        <v>646.622936644315</v>
-      </c>
-      <c r="F29" t="n">
-        <v>1782.29399058737</v>
-      </c>
+        <v>159601.911151878</v>
+      </c>
+      <c r="F29"/>
       <c r="G29" t="s">
         <v>10</v>
       </c>
@@ -1312,7 +1286,7 @@
         <v>34</v>
       </c>
       <c r="I29" t="n">
-        <v>169.345565118726</v>
+        <v>205.979869886844</v>
       </c>
       <c r="J29" t="s">
         <v>12</v>
@@ -1323,20 +1297,16 @@
         <v>44682</v>
       </c>
       <c r="B30" t="n">
-        <v>226.909030599381</v>
+        <v>301.169492662923</v>
       </c>
       <c r="C30" t="n">
-        <v>119.201223405021</v>
+        <v>126.907942118747</v>
       </c>
       <c r="D30" t="n">
-        <v>93.9981696661206</v>
-      </c>
-      <c r="E30" t="n">
-        <v>995.600585542999</v>
-      </c>
-      <c r="F30" t="n">
-        <v>4890.98277601773</v>
-      </c>
+        <v>90.8869840862178</v>
+      </c>
+      <c r="E30"/>
+      <c r="F30"/>
       <c r="G30" t="s">
         <v>10</v>
       </c>
@@ -1344,7 +1314,7 @@
         <v>37</v>
       </c>
       <c r="I30" t="n">
-        <v>189.909030599381</v>
+        <v>264.169492662923</v>
       </c>
       <c r="J30" t="s">
         <v>12</v>
@@ -1355,20 +1325,16 @@
         <v>44713</v>
       </c>
       <c r="B31" t="n">
-        <v>246.391523461183</v>
+        <v>348.123645531426</v>
       </c>
       <c r="C31" t="n">
-        <v>127.777574385447</v>
+        <v>136.900488844171</v>
       </c>
       <c r="D31" t="n">
-        <v>99.4480095339178</v>
-      </c>
-      <c r="E31" t="n">
-        <v>1292.20894899492</v>
-      </c>
-      <c r="F31" t="n">
-        <v>12553.2381073967</v>
-      </c>
+        <v>95.9394193328927</v>
+      </c>
+      <c r="E31"/>
+      <c r="F31"/>
       <c r="G31" t="s">
         <v>10</v>
       </c>
@@ -1376,7 +1342,7 @@
         <v>62</v>
       </c>
       <c r="I31" t="n">
-        <v>184.391523461183</v>
+        <v>286.123645531426</v>
       </c>
       <c r="J31" t="s">
         <v>12</v>
@@ -1387,20 +1353,16 @@
         <v>44743</v>
       </c>
       <c r="B32" t="n">
-        <v>252.11880287314</v>
+        <v>353.316680291142</v>
       </c>
       <c r="C32" t="n">
-        <v>130.237359766019</v>
+        <v>145.954132759052</v>
       </c>
       <c r="D32" t="n">
-        <v>100.757219863187</v>
-      </c>
-      <c r="E32" t="n">
-        <v>1235.70814722957</v>
-      </c>
-      <c r="F32" t="n">
-        <v>11291.8753431844</v>
-      </c>
+        <v>94.3431667203176</v>
+      </c>
+      <c r="E32"/>
+      <c r="F32"/>
       <c r="G32" t="s">
         <v>10</v>
       </c>
@@ -1408,7 +1370,7 @@
         <v>79</v>
       </c>
       <c r="I32" t="n">
-        <v>173.11880287314</v>
+        <v>274.316680291142</v>
       </c>
       <c r="J32" t="s">
         <v>12</v>
@@ -1419,20 +1381,16 @@
         <v>44774</v>
       </c>
       <c r="B33" t="n">
-        <v>223.617555974129</v>
+        <v>307.113294943688</v>
       </c>
       <c r="C33" t="n">
-        <v>116.118219718871</v>
+        <v>129.899212301808</v>
       </c>
       <c r="D33" t="n">
-        <v>91.0869182070009</v>
-      </c>
-      <c r="E33" t="n">
-        <v>824.522791145449</v>
-      </c>
-      <c r="F33" t="n">
-        <v>3384.89111478558</v>
-      </c>
+        <v>87.6423620259259</v>
+      </c>
+      <c r="E33"/>
+      <c r="F33"/>
       <c r="G33" t="s">
         <v>10</v>
       </c>
@@ -1440,7 +1398,7 @@
         <v>217</v>
       </c>
       <c r="I33" t="n">
-        <v>6.61755597412946</v>
+        <v>90.1132949436881</v>
       </c>
       <c r="J33" t="s">
         <v>12</v>
@@ -1451,20 +1409,16 @@
         <v>44805</v>
       </c>
       <c r="B34" t="n">
-        <v>213.252662356864</v>
+        <v>279.085879966388</v>
       </c>
       <c r="C34" t="n">
-        <v>109.895473802937</v>
+        <v>120.57992167841</v>
       </c>
       <c r="D34" t="n">
-        <v>86.63555477709</v>
-      </c>
-      <c r="E34" t="n">
-        <v>687.717188516412</v>
-      </c>
-      <c r="F34" t="n">
-        <v>2300.72976313322</v>
-      </c>
+        <v>81.4895628339297</v>
+      </c>
+      <c r="E34"/>
+      <c r="F34"/>
       <c r="G34" t="s">
         <v>10</v>
       </c>
@@ -1472,7 +1426,7 @@
         <v>96</v>
       </c>
       <c r="I34" t="n">
-        <v>117.252662356864</v>
+        <v>183.085879966388</v>
       </c>
       <c r="J34" t="s">
         <v>12</v>
@@ -1483,20 +1437,16 @@
         <v>44835</v>
       </c>
       <c r="B35" t="n">
-        <v>198.291118387014</v>
+        <v>256.462156956038</v>
       </c>
       <c r="C35" t="n">
-        <v>100.353933030024</v>
+        <v>114.02372419848</v>
       </c>
       <c r="D35" t="n">
-        <v>79.8948590829849</v>
-      </c>
-      <c r="E35" t="n">
-        <v>610.179109736196</v>
-      </c>
-      <c r="F35" t="n">
-        <v>1838.32405814163</v>
-      </c>
+        <v>76.8566135628442</v>
+      </c>
+      <c r="E35"/>
+      <c r="F35"/>
       <c r="G35" t="s">
         <v>10</v>
       </c>
@@ -1504,7 +1454,7 @@
         <v>92</v>
       </c>
       <c r="I35" t="n">
-        <v>106.291118387014</v>
+        <v>164.462156956038</v>
       </c>
       <c r="J35" t="s">
         <v>12</v>
@@ -1515,20 +1465,16 @@
         <v>44866</v>
       </c>
       <c r="B36" t="n">
-        <v>211.194581792143</v>
+        <v>257.000142272237</v>
       </c>
       <c r="C36" t="n">
-        <v>105.876923837182</v>
+        <v>109.303391519181</v>
       </c>
       <c r="D36" t="n">
-        <v>83.4518370224107</v>
-      </c>
-      <c r="E36" t="n">
-        <v>630.588221409829</v>
-      </c>
-      <c r="F36" t="n">
-        <v>2014.31156957042</v>
-      </c>
+        <v>73.2973819448893</v>
+      </c>
+      <c r="E36"/>
+      <c r="F36"/>
       <c r="G36" t="s">
         <v>10</v>
       </c>
@@ -1536,7 +1482,7 @@
         <v>74</v>
       </c>
       <c r="I36" t="n">
-        <v>137.194581792143</v>
+        <v>183.000142272237</v>
       </c>
       <c r="J36" t="s">
         <v>12</v>
@@ -1547,20 +1493,16 @@
         <v>44896</v>
       </c>
       <c r="B37" t="n">
-        <v>192.787690464356</v>
+        <v>238.681644285688</v>
       </c>
       <c r="C37" t="n">
-        <v>93.9520022817952</v>
+        <v>104.073268378337</v>
       </c>
       <c r="D37" t="n">
-        <v>75.081900890098</v>
-      </c>
-      <c r="E37" t="n">
-        <v>611.802862240057</v>
-      </c>
-      <c r="F37" t="n">
-        <v>1936.58282545987</v>
-      </c>
+        <v>70.1585001959084</v>
+      </c>
+      <c r="E37"/>
+      <c r="F37"/>
       <c r="G37" t="s">
         <v>10</v>
       </c>
@@ -1568,7 +1510,7 @@
         <v>79</v>
       </c>
       <c r="I37" t="n">
-        <v>113.787690464356</v>
+        <v>159.681644285688</v>
       </c>
       <c r="J37" t="s">
         <v>12</v>
@@ -1579,20 +1521,16 @@
         <v>44927</v>
       </c>
       <c r="B38" t="n">
-        <v>246.291091123152</v>
+        <v>284.203804372223</v>
       </c>
       <c r="C38" t="n">
-        <v>120.172061969526</v>
+        <v>108.507507703217</v>
       </c>
       <c r="D38" t="n">
-        <v>91.889340815126</v>
-      </c>
-      <c r="E38" t="n">
-        <v>1121.38645256706</v>
-      </c>
-      <c r="F38" t="n">
-        <v>11686.971134966</v>
-      </c>
+        <v>72.0652502805962</v>
+      </c>
+      <c r="E38"/>
+      <c r="F38"/>
       <c r="G38" t="s">
         <v>10</v>
       </c>
@@ -1600,7 +1538,7 @@
         <v>149</v>
       </c>
       <c r="I38" t="n">
-        <v>97.2910911231518</v>
+        <v>135.203804372223</v>
       </c>
       <c r="J38" t="s">
         <v>12</v>
@@ -1611,20 +1549,16 @@
         <v>44958</v>
       </c>
       <c r="B39" t="n">
-        <v>222.407473299027</v>
+        <v>247.225822470744</v>
       </c>
       <c r="C39" t="n">
-        <v>109.336417498127</v>
+        <v>96.0651487383142</v>
       </c>
       <c r="D39" t="n">
-        <v>84.6079698938014</v>
-      </c>
-      <c r="E39" t="n">
-        <v>823.97013721288</v>
-      </c>
-      <c r="F39" t="n">
-        <v>4199.35040480657</v>
-      </c>
+        <v>65.1861240488509</v>
+      </c>
+      <c r="E39"/>
+      <c r="F39"/>
       <c r="G39" t="s">
         <v>10</v>
       </c>
@@ -1632,7 +1566,7 @@
         <v>117</v>
       </c>
       <c r="I39" t="n">
-        <v>105.407473299027</v>
+        <v>130.225822470744</v>
       </c>
       <c r="J39" t="s">
         <v>12</v>
@@ -1643,20 +1577,16 @@
         <v>44986</v>
       </c>
       <c r="B40" t="n">
-        <v>183.283012686082</v>
+        <v>218.283056333522</v>
       </c>
       <c r="C40" t="n">
-        <v>89.7284552740362</v>
+        <v>93.460406412473</v>
       </c>
       <c r="D40" t="n">
-        <v>71.2624599663834</v>
-      </c>
-      <c r="E40" t="n">
-        <v>577.987526458004</v>
-      </c>
-      <c r="F40" t="n">
-        <v>1840.20328573161</v>
-      </c>
+        <v>63.4763431901941</v>
+      </c>
+      <c r="E40"/>
+      <c r="F40"/>
       <c r="G40" t="s">
         <v>10</v>
       </c>
@@ -1664,7 +1594,7 @@
         <v>138</v>
       </c>
       <c r="I40" t="n">
-        <v>45.2830126860815</v>
+        <v>80.2830563335218</v>
       </c>
       <c r="J40" t="s">
         <v>12</v>
@@ -1675,20 +1605,16 @@
         <v>45017</v>
       </c>
       <c r="B41" t="n">
-        <v>199.218708000106</v>
+        <v>259.918599120952</v>
       </c>
       <c r="C41" t="n">
-        <v>95.0744105932967</v>
+        <v>106.22303974662</v>
       </c>
       <c r="D41" t="n">
-        <v>74.7329108822157</v>
-      </c>
-      <c r="E41" t="n">
-        <v>871.757180267427</v>
-      </c>
-      <c r="F41" t="n">
-        <v>5383.76126743413</v>
-      </c>
+        <v>70.3316669527368</v>
+      </c>
+      <c r="E41"/>
+      <c r="F41"/>
       <c r="G41" t="s">
         <v>10</v>
       </c>
@@ -1696,7 +1622,7 @@
         <v>189</v>
       </c>
       <c r="I41" t="n">
-        <v>10.2187080001061</v>
+        <v>70.9185991209525</v>
       </c>
       <c r="J41" t="s">
         <v>12</v>
@@ -1707,20 +1633,16 @@
         <v>45047</v>
       </c>
       <c r="B42" t="n">
-        <v>221.877850849468</v>
+        <v>344.409525744165</v>
       </c>
       <c r="C42" t="n">
-        <v>103.31833065883</v>
+        <v>112.468478821595</v>
       </c>
       <c r="D42" t="n">
-        <v>80.0465885549955</v>
-      </c>
-      <c r="E42" t="n">
-        <v>1484.93051646357</v>
-      </c>
-      <c r="F42" t="n">
-        <v>499786.866429224</v>
-      </c>
+        <v>80.1213956073883</v>
+      </c>
+      <c r="E42"/>
+      <c r="F42"/>
       <c r="G42" t="s">
         <v>10</v>
       </c>
@@ -1728,7 +1650,7 @@
         <v>212</v>
       </c>
       <c r="I42" t="n">
-        <v>9.87785084946842</v>
+        <v>132.409525744165</v>
       </c>
       <c r="J42" t="s">
         <v>12</v>
@@ -1739,17 +1661,15 @@
         <v>45078</v>
       </c>
       <c r="B43" t="n">
-        <v>240.24585488336</v>
+        <v>414.343270018655</v>
       </c>
       <c r="C43" t="n">
-        <v>110.175936899035</v>
+        <v>120.949532094999</v>
       </c>
       <c r="D43" t="n">
-        <v>84.3210694336672</v>
-      </c>
-      <c r="E43" t="n">
-        <v>2080.64632423712</v>
-      </c>
+        <v>84.4059353309257</v>
+      </c>
+      <c r="E43"/>
       <c r="F43"/>
       <c r="G43" t="s">
         <v>10</v>
@@ -1758,10 +1678,10 @@
         <v>264</v>
       </c>
       <c r="I43" t="n">
-        <v>-23.7541451166395</v>
+        <v>150.343270018655</v>
       </c>
       <c r="J43" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="44">
@@ -1769,17 +1689,15 @@
         <v>45108</v>
       </c>
       <c r="B44" t="n">
-        <v>245.092296915587</v>
+        <v>420.207962668285</v>
       </c>
       <c r="C44" t="n">
-        <v>112.208012942677</v>
+        <v>128.360084048886</v>
       </c>
       <c r="D44" t="n">
-        <v>85.4219742030826</v>
-      </c>
-      <c r="E44" t="n">
-        <v>1944.75597590197</v>
-      </c>
+        <v>83.2753401201848</v>
+      </c>
+      <c r="E44"/>
       <c r="F44"/>
       <c r="G44" t="s">
         <v>10</v>
@@ -1788,10 +1706,10 @@
         <v>289</v>
       </c>
       <c r="I44" t="n">
-        <v>-43.9077030844129</v>
+        <v>131.207962668285</v>
       </c>
       <c r="J44" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="45">
@@ -1799,20 +1717,16 @@
         <v>45139</v>
       </c>
       <c r="B45" t="n">
-        <v>217.807138170104</v>
+        <v>354.824652057483</v>
       </c>
       <c r="C45" t="n">
-        <v>101.139557790893</v>
+        <v>118.03862103213</v>
       </c>
       <c r="D45" t="n">
-        <v>78.0684668153711</v>
-      </c>
-      <c r="E45" t="n">
-        <v>1150.76515235902</v>
-      </c>
-      <c r="F45" t="n">
-        <v>24869.8382817143</v>
-      </c>
+        <v>77.921259722608</v>
+      </c>
+      <c r="E45"/>
+      <c r="F45"/>
       <c r="G45" t="s">
         <v>10</v>
       </c>
@@ -1820,10 +1734,10 @@
         <v>234</v>
       </c>
       <c r="I45" t="n">
-        <v>-16.1928618298964</v>
+        <v>120.824652057483</v>
       </c>
       <c r="J45" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="46">
@@ -1831,20 +1745,16 @@
         <v>45170</v>
       </c>
       <c r="B46" t="n">
-        <v>207.913898018791</v>
+        <v>313.909169047554</v>
       </c>
       <c r="C46" t="n">
-        <v>96.2336517542998</v>
+        <v>110.714578176504</v>
       </c>
       <c r="D46" t="n">
-        <v>74.6741759259528</v>
-      </c>
-      <c r="E46" t="n">
-        <v>918.346957213837</v>
-      </c>
-      <c r="F46" t="n">
-        <v>8207.73926490541</v>
-      </c>
+        <v>72.9377317011087</v>
+      </c>
+      <c r="E46"/>
+      <c r="F46"/>
       <c r="G46" t="s">
         <v>10</v>
       </c>
@@ -1852,7 +1762,7 @@
         <v>193</v>
       </c>
       <c r="I46" t="n">
-        <v>14.9138980187911</v>
+        <v>120.909169047554</v>
       </c>
       <c r="J46" t="s">
         <v>12</v>
@@ -1863,20 +1773,16 @@
         <v>45200</v>
       </c>
       <c r="B47" t="n">
-        <v>194.069094413296</v>
+        <v>284.689529463439</v>
       </c>
       <c r="C47" t="n">
-        <v>88.5751739882669</v>
+        <v>105.100797437921</v>
       </c>
       <c r="D47" t="n">
-        <v>69.4240119746745</v>
-      </c>
-      <c r="E47" t="n">
-        <v>793.281678344519</v>
-      </c>
-      <c r="F47" t="n">
-        <v>5058.55301870779</v>
-      </c>
+        <v>69.1617968673203</v>
+      </c>
+      <c r="E47"/>
+      <c r="F47"/>
       <c r="G47" t="s">
         <v>10</v>
       </c>
@@ -1884,7 +1790,7 @@
         <v>193</v>
       </c>
       <c r="I47" t="n">
-        <v>1.06909441329577</v>
+        <v>91.689529463439</v>
       </c>
       <c r="J47" t="s">
         <v>12</v>
@@ -1895,20 +1801,16 @@
         <v>45231</v>
       </c>
       <c r="B48" t="n">
-        <v>206.367690370927</v>
+        <v>280.779426166169</v>
       </c>
       <c r="C48" t="n">
-        <v>93.1297191547481</v>
+        <v>103.817558359258</v>
       </c>
       <c r="D48" t="n">
-        <v>72.310034678597</v>
-      </c>
-      <c r="E48" t="n">
-        <v>821.840435509818</v>
-      </c>
-      <c r="F48" t="n">
-        <v>5933.91480918096</v>
-      </c>
+        <v>66.2500911375748</v>
+      </c>
+      <c r="E48"/>
+      <c r="F48"/>
       <c r="G48" t="s">
         <v>10</v>
       </c>
@@ -1916,7 +1818,7 @@
         <v>183</v>
       </c>
       <c r="I48" t="n">
-        <v>23.3676903709269</v>
+        <v>97.7794261661693</v>
       </c>
       <c r="J48" t="s">
         <v>12</v>
@@ -1927,20 +1829,16 @@
         <v>45261</v>
       </c>
       <c r="B49" t="n">
-        <v>189.078628648095</v>
+        <v>259.578081407565</v>
       </c>
       <c r="C49" t="n">
-        <v>83.4469401030609</v>
+        <v>99.117130475722</v>
       </c>
       <c r="D49" t="n">
-        <v>65.6986292824591</v>
-      </c>
-      <c r="E49" t="n">
-        <v>790.314615413093</v>
-      </c>
-      <c r="F49" t="n">
-        <v>5396.16141171301</v>
-      </c>
+        <v>63.6653291665157</v>
+      </c>
+      <c r="E49"/>
+      <c r="F49"/>
       <c r="G49" t="s">
         <v>10</v>
       </c>
@@ -1948,10 +1846,10 @@
         <v>245</v>
       </c>
       <c r="I49" t="n">
-        <v>-55.9213713519052</v>
+        <v>14.5780814075655</v>
       </c>
       <c r="J49" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/outcome/appendix/forecast/Malaria.xlsx
+++ b/outcome/appendix/forecast/Malaria.xlsx
@@ -427,19 +427,19 @@
         <v>43831</v>
       </c>
       <c r="B2" t="n">
-        <v>252.568638680165</v>
+        <v>277.970115200967</v>
       </c>
       <c r="C2" t="n">
-        <v>180.630280469455</v>
+        <v>188.954164732518</v>
       </c>
       <c r="D2" t="n">
-        <v>163.461155024921</v>
+        <v>170.476297442889</v>
       </c>
       <c r="E2" t="n">
-        <v>364.438466935827</v>
+        <v>446.001520911706</v>
       </c>
       <c r="F2" t="n">
-        <v>419.76635906632</v>
+        <v>542.820426864152</v>
       </c>
       <c r="G2" t="s">
         <v>10</v>
@@ -448,7 +448,7 @@
         <v>348</v>
       </c>
       <c r="I2" t="n">
-        <v>-95.4313613198354</v>
+        <v>-70.0298847990333</v>
       </c>
       <c r="J2" t="s">
         <v>11</v>
@@ -459,19 +459,19 @@
         <v>43862</v>
       </c>
       <c r="B3" t="n">
-        <v>226.31295289808</v>
+        <v>247.006854313176</v>
       </c>
       <c r="C3" t="n">
-        <v>145.368677912426</v>
+        <v>185.639673917351</v>
       </c>
       <c r="D3" t="n">
-        <v>128.861996982986</v>
+        <v>167.541053574534</v>
       </c>
       <c r="E3" t="n">
-        <v>339.226031798757</v>
+        <v>374.266896725025</v>
       </c>
       <c r="F3" t="n">
-        <v>402.48388194451</v>
+        <v>459.081807798747</v>
       </c>
       <c r="G3" t="s">
         <v>10</v>
@@ -480,7 +480,7 @@
         <v>126</v>
       </c>
       <c r="I3" t="n">
-        <v>100.31295289808</v>
+        <v>121.006854313176</v>
       </c>
       <c r="J3" t="s">
         <v>12</v>
@@ -491,19 +491,19 @@
         <v>43891</v>
       </c>
       <c r="B4" t="n">
-        <v>189.04288765304</v>
+        <v>191.601660020089</v>
       </c>
       <c r="C4" t="n">
-        <v>135.441294682479</v>
+        <v>143.003749894084</v>
       </c>
       <c r="D4" t="n">
-        <v>117.775569943133</v>
+        <v>129.397016328375</v>
       </c>
       <c r="E4" t="n">
-        <v>266.816330752101</v>
+        <v>256.759101678795</v>
       </c>
       <c r="F4" t="n">
-        <v>339.740580665944</v>
+        <v>307.024747320559</v>
       </c>
       <c r="G4" t="s">
         <v>10</v>
@@ -512,7 +512,7 @@
         <v>92</v>
       </c>
       <c r="I4" t="n">
-        <v>97.0428876530403</v>
+        <v>99.6016600200888</v>
       </c>
       <c r="J4" t="s">
         <v>12</v>
@@ -523,19 +523,19 @@
         <v>43922</v>
       </c>
       <c r="B5" t="n">
-        <v>213.356081837267</v>
+        <v>208.143127432556</v>
       </c>
       <c r="C5" t="n">
-        <v>151.084093734641</v>
+        <v>151.161642041185</v>
       </c>
       <c r="D5" t="n">
-        <v>131.611059919919</v>
+        <v>135.562180759713</v>
       </c>
       <c r="E5" t="n">
-        <v>393.07140173584</v>
+        <v>326.469064049898</v>
       </c>
       <c r="F5" t="n">
-        <v>569.508615583545</v>
+        <v>399.75942249111</v>
       </c>
       <c r="G5" t="s">
         <v>10</v>
@@ -544,7 +544,7 @@
         <v>54</v>
       </c>
       <c r="I5" t="n">
-        <v>159.356081837267</v>
+        <v>154.143127432556</v>
       </c>
       <c r="J5" t="s">
         <v>12</v>
@@ -555,19 +555,19 @@
         <v>43952</v>
       </c>
       <c r="B6" t="n">
-        <v>254.585198021026</v>
+        <v>234.731900778436</v>
       </c>
       <c r="C6" t="n">
-        <v>161.443253978248</v>
+        <v>161.52139030586</v>
       </c>
       <c r="D6" t="n">
-        <v>143.565957036256</v>
+        <v>143.681046012554</v>
       </c>
       <c r="E6" t="n">
-        <v>703.614749934152</v>
+        <v>437.479035114172</v>
       </c>
       <c r="F6" t="n">
-        <v>1353.32998498102</v>
+        <v>576.939897754903</v>
       </c>
       <c r="G6" t="s">
         <v>10</v>
@@ -576,7 +576,7 @@
         <v>40</v>
       </c>
       <c r="I6" t="n">
-        <v>214.585198021026</v>
+        <v>194.731900778436</v>
       </c>
       <c r="J6" t="s">
         <v>12</v>
@@ -587,19 +587,19 @@
         <v>43983</v>
       </c>
       <c r="B7" t="n">
-        <v>285.636084369867</v>
+        <v>258.371024493202</v>
       </c>
       <c r="C7" t="n">
-        <v>173.890418997155</v>
+        <v>173.967038769648</v>
       </c>
       <c r="D7" t="n">
-        <v>153.405891407278</v>
+        <v>153.517185037656</v>
       </c>
       <c r="E7" t="n">
-        <v>1061.59867692788</v>
+        <v>521.381895575432</v>
       </c>
       <c r="F7" t="n">
-        <v>3014.33433523021</v>
+        <v>735.43370525832</v>
       </c>
       <c r="G7" t="s">
         <v>10</v>
@@ -608,7 +608,7 @@
         <v>74</v>
       </c>
       <c r="I7" t="n">
-        <v>211.636084369867</v>
+        <v>184.371024493202</v>
       </c>
       <c r="J7" t="s">
         <v>12</v>
@@ -619,19 +619,19 @@
         <v>44013</v>
       </c>
       <c r="B8" t="n">
-        <v>292.979392352799</v>
+        <v>268.005045092618</v>
       </c>
       <c r="C8" t="n">
-        <v>186.703749781177</v>
+        <v>186.695224365279</v>
       </c>
       <c r="D8" t="n">
-        <v>153.625138418037</v>
+        <v>159.636877748982</v>
       </c>
       <c r="E8" t="n">
-        <v>1216.34468248857</v>
+        <v>520.24110494802</v>
       </c>
       <c r="F8" t="n">
-        <v>4620.37805226328</v>
+        <v>755.190213938771</v>
       </c>
       <c r="G8" t="s">
         <v>10</v>
@@ -640,7 +640,7 @@
         <v>57</v>
       </c>
       <c r="I8" t="n">
-        <v>235.979392352799</v>
+        <v>211.005045092618</v>
       </c>
       <c r="J8" t="s">
         <v>12</v>
@@ -651,19 +651,19 @@
         <v>44044</v>
       </c>
       <c r="B9" t="n">
-        <v>259.927671694288</v>
+        <v>236.016673069564</v>
       </c>
       <c r="C9" t="n">
-        <v>170.087209370837</v>
+        <v>164.224550637793</v>
       </c>
       <c r="D9" t="n">
-        <v>136.248855499664</v>
+        <v>138.286908277139</v>
       </c>
       <c r="E9" t="n">
-        <v>1041.08381905107</v>
+        <v>414.199722750695</v>
       </c>
       <c r="F9" t="n">
-        <v>3707.88472399568</v>
+        <v>581.945186940982</v>
       </c>
       <c r="G9" t="s">
         <v>10</v>
@@ -672,7 +672,7 @@
         <v>57</v>
       </c>
       <c r="I9" t="n">
-        <v>202.927671694288</v>
+        <v>179.016673069564</v>
       </c>
       <c r="J9" t="s">
         <v>12</v>
@@ -683,19 +683,19 @@
         <v>44075</v>
       </c>
       <c r="B10" t="n">
-        <v>242.047292918362</v>
+        <v>223.883666254289</v>
       </c>
       <c r="C10" t="n">
-        <v>157.353420475378</v>
+        <v>152.113955086947</v>
       </c>
       <c r="D10" t="n">
-        <v>121.749485393111</v>
+        <v>128.077605216073</v>
       </c>
       <c r="E10" t="n">
-        <v>888.430874372146</v>
+        <v>375.143002476385</v>
       </c>
       <c r="F10" t="n">
-        <v>2928.70557253548</v>
+        <v>538.465876992369</v>
       </c>
       <c r="G10" t="s">
         <v>10</v>
@@ -704,7 +704,7 @@
         <v>81</v>
       </c>
       <c r="I10" t="n">
-        <v>161.047292918362</v>
+        <v>142.883666254289</v>
       </c>
       <c r="J10" t="s">
         <v>12</v>
@@ -715,19 +715,19 @@
         <v>44105</v>
       </c>
       <c r="B11" t="n">
-        <v>223.409860113225</v>
+        <v>205.511941638851</v>
       </c>
       <c r="C11" t="n">
-        <v>143.787234010924</v>
+        <v>136.117978142177</v>
       </c>
       <c r="D11" t="n">
-        <v>111.32514734277</v>
+        <v>115.082579612229</v>
       </c>
       <c r="E11" t="n">
-        <v>803.414043553632</v>
+        <v>348.258068103939</v>
       </c>
       <c r="F11" t="n">
-        <v>2600.15228945214</v>
+        <v>488.654328153842</v>
       </c>
       <c r="G11" t="s">
         <v>10</v>
@@ -736,7 +736,7 @@
         <v>78</v>
       </c>
       <c r="I11" t="n">
-        <v>145.409860113225</v>
+        <v>127.511941638851</v>
       </c>
       <c r="J11" t="s">
         <v>12</v>
@@ -747,19 +747,19 @@
         <v>44136</v>
       </c>
       <c r="B12" t="n">
-        <v>231.372934110356</v>
+        <v>222.34735168661</v>
       </c>
       <c r="C12" t="n">
-        <v>133.901283223079</v>
+        <v>144.395950491197</v>
       </c>
       <c r="D12" t="n">
-        <v>103.566863691176</v>
+        <v>120.498669532153</v>
       </c>
       <c r="E12" t="n">
-        <v>757.039195090517</v>
+        <v>381.342631566561</v>
       </c>
       <c r="F12" t="n">
-        <v>2497.79160732466</v>
+        <v>570.827006336793</v>
       </c>
       <c r="G12" t="s">
         <v>10</v>
@@ -768,7 +768,7 @@
         <v>63</v>
       </c>
       <c r="I12" t="n">
-        <v>168.372934110356</v>
+        <v>159.34735168661</v>
       </c>
       <c r="J12" t="s">
         <v>12</v>
@@ -779,19 +779,19 @@
         <v>44166</v>
       </c>
       <c r="B13" t="n">
-        <v>213.109878859073</v>
+        <v>200.523665759597</v>
       </c>
       <c r="C13" t="n">
-        <v>125.581706591009</v>
+        <v>126.62266373062</v>
       </c>
       <c r="D13" t="n">
-        <v>97.0247669960211</v>
+        <v>106.465991087624</v>
       </c>
       <c r="E13" t="n">
-        <v>719.463534612442</v>
+        <v>357.080685859149</v>
       </c>
       <c r="F13" t="n">
-        <v>2427.21112737754</v>
+        <v>522.51531524559</v>
       </c>
       <c r="G13" t="s">
         <v>10</v>
@@ -800,7 +800,7 @@
         <v>73</v>
       </c>
       <c r="I13" t="n">
-        <v>140.109878859073</v>
+        <v>127.523665759597</v>
       </c>
       <c r="J13" t="s">
         <v>12</v>
@@ -811,19 +811,19 @@
         <v>44197</v>
       </c>
       <c r="B14" t="n">
-        <v>256.009764776544</v>
+        <v>263.012170970561</v>
       </c>
       <c r="C14" t="n">
-        <v>130.490847393005</v>
+        <v>168.728267274852</v>
       </c>
       <c r="D14" t="n">
-        <v>99.1518486050536</v>
+        <v>134.859380182689</v>
       </c>
       <c r="E14" t="n">
-        <v>953.83117800651</v>
+        <v>665.943604701312</v>
       </c>
       <c r="F14" t="n">
-        <v>5559.76585613618</v>
+        <v>1373.45825168874</v>
       </c>
       <c r="G14" t="s">
         <v>10</v>
@@ -832,7 +832,7 @@
         <v>68</v>
       </c>
       <c r="I14" t="n">
-        <v>188.009764776544</v>
+        <v>195.012170970561</v>
       </c>
       <c r="J14" t="s">
         <v>12</v>
@@ -843,19 +843,19 @@
         <v>44228</v>
       </c>
       <c r="B15" t="n">
-        <v>227.752198544533</v>
+        <v>234.533363786213</v>
       </c>
       <c r="C15" t="n">
-        <v>113.122485764122</v>
+        <v>147.185539051811</v>
       </c>
       <c r="D15" t="n">
-        <v>87.044099946096</v>
+        <v>118.895576384538</v>
       </c>
       <c r="E15" t="n">
-        <v>683.137105445684</v>
+        <v>515.566278263268</v>
       </c>
       <c r="F15" t="n">
-        <v>2535.07546123446</v>
+        <v>952.055622732045</v>
       </c>
       <c r="G15" t="s">
         <v>10</v>
@@ -864,7 +864,7 @@
         <v>58</v>
       </c>
       <c r="I15" t="n">
-        <v>169.752198544533</v>
+        <v>176.533363786213</v>
       </c>
       <c r="J15" t="s">
         <v>12</v>
@@ -875,19 +875,19 @@
         <v>44256</v>
       </c>
       <c r="B16" t="n">
-        <v>197.03425645485</v>
+        <v>188.699446817409</v>
       </c>
       <c r="C16" t="n">
-        <v>109.063219775919</v>
+        <v>114.537973114805</v>
       </c>
       <c r="D16" t="n">
-        <v>83.6576154659493</v>
+        <v>94.8361362717162</v>
       </c>
       <c r="E16" t="n">
-        <v>687.627106195488</v>
+        <v>352.785178102468</v>
       </c>
       <c r="F16" t="n">
-        <v>2780.11375231936</v>
+        <v>540.713835246059</v>
       </c>
       <c r="G16" t="s">
         <v>10</v>
@@ -896,7 +896,7 @@
         <v>63</v>
       </c>
       <c r="I16" t="n">
-        <v>134.03425645485</v>
+        <v>125.699446817409</v>
       </c>
       <c r="J16" t="s">
         <v>12</v>
@@ -907,19 +907,19 @@
         <v>44287</v>
       </c>
       <c r="B17" t="n">
-        <v>224.185010074699</v>
+        <v>203.942754089223</v>
       </c>
       <c r="C17" t="n">
-        <v>126.289050195608</v>
+        <v>120.844028200813</v>
       </c>
       <c r="D17" t="n">
-        <v>93.8010991660874</v>
+        <v>98.9454635271242</v>
       </c>
       <c r="E17" t="n">
-        <v>1392.46637721452</v>
+        <v>475.770355825513</v>
       </c>
       <c r="F17" t="n">
-        <v>200887.376853143</v>
+        <v>827.920073245812</v>
       </c>
       <c r="G17" t="s">
         <v>10</v>
@@ -928,7 +928,7 @@
         <v>74</v>
       </c>
       <c r="I17" t="n">
-        <v>150.185010074699</v>
+        <v>129.942754089223</v>
       </c>
       <c r="J17" t="s">
         <v>12</v>
@@ -939,18 +939,20 @@
         <v>44317</v>
       </c>
       <c r="B18" t="n">
-        <v>272.496631132189</v>
+        <v>228.173154783307</v>
       </c>
       <c r="C18" t="n">
-        <v>141.697358248265</v>
+        <v>132.108691920976</v>
       </c>
       <c r="D18" t="n">
-        <v>108.870238784308</v>
+        <v>106.445690496398</v>
       </c>
       <c r="E18" t="n">
-        <v>7165.82259333044</v>
-      </c>
-      <c r="F18"/>
+        <v>677.552197240875</v>
+      </c>
+      <c r="F18" t="n">
+        <v>1448.33724462178</v>
+      </c>
       <c r="G18" t="s">
         <v>10</v>
       </c>
@@ -958,7 +960,7 @@
         <v>97</v>
       </c>
       <c r="I18" t="n">
-        <v>175.496631132189</v>
+        <v>131.173154783307</v>
       </c>
       <c r="J18" t="s">
         <v>12</v>
@@ -969,18 +971,20 @@
         <v>44348</v>
       </c>
       <c r="B19" t="n">
-        <v>309.309937049464</v>
+        <v>249.599486249158</v>
       </c>
       <c r="C19" t="n">
-        <v>155.59652761237</v>
+        <v>141.591922699766</v>
       </c>
       <c r="D19" t="n">
-        <v>115.070404472372</v>
+        <v>112.467323129599</v>
       </c>
       <c r="E19" t="n">
-        <v>296269.187516295</v>
-      </c>
-      <c r="F19"/>
+        <v>834.698406424659</v>
+      </c>
+      <c r="F19" t="n">
+        <v>2137.18212493307</v>
+      </c>
       <c r="G19" t="s">
         <v>10</v>
       </c>
@@ -988,7 +992,7 @@
         <v>109</v>
       </c>
       <c r="I19" t="n">
-        <v>200.309937049464</v>
+        <v>140.599486249158</v>
       </c>
       <c r="J19" t="s">
         <v>12</v>
@@ -999,16 +1003,20 @@
         <v>44378</v>
       </c>
       <c r="B20" t="n">
-        <v>315.432048222359</v>
+        <v>257.154784852474</v>
       </c>
       <c r="C20" t="n">
-        <v>163.137876169536</v>
+        <v>144.140923165108</v>
       </c>
       <c r="D20" t="n">
-        <v>112.383070957253</v>
-      </c>
-      <c r="E20"/>
-      <c r="F20"/>
+        <v>113.624678990025</v>
+      </c>
+      <c r="E20" t="n">
+        <v>813.036959159555</v>
+      </c>
+      <c r="F20" t="n">
+        <v>2108.20255573763</v>
+      </c>
       <c r="G20" t="s">
         <v>10</v>
       </c>
@@ -1016,7 +1024,7 @@
         <v>92</v>
       </c>
       <c r="I20" t="n">
-        <v>223.432048222359</v>
+        <v>165.154784852474</v>
       </c>
       <c r="J20" t="s">
         <v>12</v>
@@ -1027,18 +1035,20 @@
         <v>44409</v>
       </c>
       <c r="B21" t="n">
-        <v>278.081255849103</v>
+        <v>227.804928601402</v>
       </c>
       <c r="C21" t="n">
-        <v>145.99647852591</v>
+        <v>127.635849300179</v>
       </c>
       <c r="D21" t="n">
-        <v>103.097354257156</v>
+        <v>101.806878778079</v>
       </c>
       <c r="E21" t="n">
-        <v>44502.4645717144</v>
-      </c>
-      <c r="F21"/>
+        <v>594.603784122612</v>
+      </c>
+      <c r="F21" t="n">
+        <v>1266.58956804694</v>
+      </c>
       <c r="G21" t="s">
         <v>10</v>
       </c>
@@ -1046,7 +1056,7 @@
         <v>60</v>
       </c>
       <c r="I21" t="n">
-        <v>218.081255849103</v>
+        <v>167.804928601402</v>
       </c>
       <c r="J21" t="s">
         <v>12</v>
@@ -1057,18 +1067,20 @@
         <v>44440</v>
       </c>
       <c r="B22" t="n">
-        <v>256.562042777797</v>
+        <v>216.835882803209</v>
       </c>
       <c r="C22" t="n">
-        <v>134.483115799078</v>
+        <v>120.079556375382</v>
       </c>
       <c r="D22" t="n">
-        <v>94.7770167411143</v>
+        <v>96.1208945463955</v>
       </c>
       <c r="E22" t="n">
-        <v>11272.8033720993</v>
-      </c>
-      <c r="F22"/>
+        <v>514.975337383422</v>
+      </c>
+      <c r="F22" t="n">
+        <v>1030.73765813721</v>
+      </c>
       <c r="G22" t="s">
         <v>10</v>
       </c>
@@ -1076,7 +1088,7 @@
         <v>49</v>
       </c>
       <c r="I22" t="n">
-        <v>207.562042777797</v>
+        <v>167.835882803209</v>
       </c>
       <c r="J22" t="s">
         <v>12</v>
@@ -1087,18 +1099,20 @@
         <v>44470</v>
       </c>
       <c r="B23" t="n">
-        <v>237.335018729396</v>
+        <v>201.2839206918</v>
       </c>
       <c r="C23" t="n">
-        <v>124.941992154777</v>
+        <v>109.497831444703</v>
       </c>
       <c r="D23" t="n">
-        <v>88.5815638061339</v>
+        <v>88.3269081628796</v>
       </c>
       <c r="E23" t="n">
-        <v>6504.17233007832</v>
-      </c>
-      <c r="F23"/>
+        <v>468.0310365387</v>
+      </c>
+      <c r="F23" t="n">
+        <v>907.068847571638</v>
+      </c>
       <c r="G23" t="s">
         <v>10</v>
       </c>
@@ -1106,7 +1120,7 @@
         <v>46</v>
       </c>
       <c r="I23" t="n">
-        <v>191.335018729396</v>
+        <v>155.2839206918</v>
       </c>
       <c r="J23" t="s">
         <v>12</v>
@@ -1117,18 +1131,20 @@
         <v>44501</v>
       </c>
       <c r="B24" t="n">
-        <v>242.520051664005</v>
+        <v>216.546234453499</v>
       </c>
       <c r="C24" t="n">
-        <v>117.799373617558</v>
+        <v>115.67442137399</v>
       </c>
       <c r="D24" t="n">
-        <v>83.8557279890529</v>
+        <v>92.2574629161476</v>
       </c>
       <c r="E24" t="n">
-        <v>4886.52129741299</v>
-      </c>
-      <c r="F24"/>
+        <v>483.302467869514</v>
+      </c>
+      <c r="F24" t="n">
+        <v>970.96927511734</v>
+      </c>
       <c r="G24" t="s">
         <v>10</v>
       </c>
@@ -1136,7 +1152,7 @@
         <v>62</v>
       </c>
       <c r="I24" t="n">
-        <v>180.520051664005</v>
+        <v>154.546234453499</v>
       </c>
       <c r="J24" t="s">
         <v>12</v>
@@ -1147,18 +1163,20 @@
         <v>44531</v>
       </c>
       <c r="B25" t="n">
-        <v>224.778457086248</v>
+        <v>197.29114999019</v>
       </c>
       <c r="C25" t="n">
-        <v>111.647071957014</v>
+        <v>103.457221520362</v>
       </c>
       <c r="D25" t="n">
-        <v>79.7372580155267</v>
+        <v>83.3920639454096</v>
       </c>
       <c r="E25" t="n">
-        <v>3933.18552695802</v>
-      </c>
-      <c r="F25"/>
+        <v>473.035993256833</v>
+      </c>
+      <c r="F25" t="n">
+        <v>956.459693142197</v>
+      </c>
       <c r="G25" t="s">
         <v>10</v>
       </c>
@@ -1166,7 +1184,7 @@
         <v>72</v>
       </c>
       <c r="I25" t="n">
-        <v>152.778457086248</v>
+        <v>125.29114999019</v>
       </c>
       <c r="J25" t="s">
         <v>12</v>
@@ -1177,18 +1195,20 @@
         <v>44562</v>
       </c>
       <c r="B26" t="n">
-        <v>267.976542847315</v>
+        <v>254.457587764971</v>
       </c>
       <c r="C26" t="n">
-        <v>116.346163309351</v>
+        <v>134.157979114921</v>
       </c>
       <c r="D26" t="n">
-        <v>81.8458092351525</v>
+        <v>103.101460330998</v>
       </c>
       <c r="E26" t="n">
-        <v>10142.9733283328</v>
-      </c>
-      <c r="F26"/>
+        <v>841.442711595921</v>
+      </c>
+      <c r="F26" t="n">
+        <v>3380.39184629514</v>
+      </c>
       <c r="G26" t="s">
         <v>10</v>
       </c>
@@ -1196,7 +1216,7 @@
         <v>26</v>
       </c>
       <c r="I26" t="n">
-        <v>241.976542847315</v>
+        <v>228.457587764971</v>
       </c>
       <c r="J26" t="s">
         <v>12</v>
@@ -1207,18 +1227,20 @@
         <v>44593</v>
       </c>
       <c r="B27" t="n">
-        <v>236.533228349101</v>
+        <v>228.172879311007</v>
       </c>
       <c r="C27" t="n">
-        <v>102.271618005409</v>
+        <v>119.319157338402</v>
       </c>
       <c r="D27" t="n">
-        <v>73.2716400803941</v>
+        <v>92.9499404602694</v>
       </c>
       <c r="E27" t="n">
-        <v>3109.47198961022</v>
-      </c>
-      <c r="F27"/>
+        <v>623.033698774171</v>
+      </c>
+      <c r="F27" t="n">
+        <v>1813.41241845084</v>
+      </c>
       <c r="G27" t="s">
         <v>10</v>
       </c>
@@ -1226,7 +1248,7 @@
         <v>30</v>
       </c>
       <c r="I27" t="n">
-        <v>206.533228349101</v>
+        <v>198.172879311007</v>
       </c>
       <c r="J27" t="s">
         <v>12</v>
@@ -1237,18 +1259,20 @@
         <v>44621</v>
       </c>
       <c r="B28" t="n">
-        <v>206.790120862447</v>
+        <v>185.870753584355</v>
       </c>
       <c r="C28" t="n">
-        <v>99.2121995671679</v>
+        <v>95.7986239623335</v>
       </c>
       <c r="D28" t="n">
-        <v>71.0504469649389</v>
+        <v>76.6633921277199</v>
       </c>
       <c r="E28" t="n">
-        <v>3053.72966356464</v>
-      </c>
-      <c r="F28"/>
+        <v>455.600132946735</v>
+      </c>
+      <c r="F28" t="n">
+        <v>950.323757096781</v>
+      </c>
       <c r="G28" t="s">
         <v>10</v>
       </c>
@@ -1256,7 +1280,7 @@
         <v>31</v>
       </c>
       <c r="I28" t="n">
-        <v>175.790120862447</v>
+        <v>154.870753584355</v>
       </c>
       <c r="J28" t="s">
         <v>12</v>
@@ -1267,18 +1291,20 @@
         <v>44652</v>
       </c>
       <c r="B29" t="n">
-        <v>239.979869886844</v>
+        <v>201.340010777765</v>
       </c>
       <c r="C29" t="n">
-        <v>114.331474212467</v>
+        <v>100.67916568893</v>
       </c>
       <c r="D29" t="n">
-        <v>79.1476728921853</v>
+        <v>79.7560573621784</v>
       </c>
       <c r="E29" t="n">
-        <v>159601.911151878</v>
-      </c>
-      <c r="F29"/>
+        <v>646.713430289104</v>
+      </c>
+      <c r="F29" t="n">
+        <v>1783.0285045173</v>
+      </c>
       <c r="G29" t="s">
         <v>10</v>
       </c>
@@ -1286,7 +1312,7 @@
         <v>34</v>
       </c>
       <c r="I29" t="n">
-        <v>205.979869886844</v>
+        <v>167.340010777765</v>
       </c>
       <c r="J29" t="s">
         <v>12</v>
@@ -1297,16 +1323,20 @@
         <v>44682</v>
       </c>
       <c r="B30" t="n">
-        <v>301.169492662923</v>
+        <v>224.143210128358</v>
       </c>
       <c r="C30" t="n">
-        <v>126.907942118747</v>
+        <v>109.176162567026</v>
       </c>
       <c r="D30" t="n">
-        <v>90.8869840862178</v>
-      </c>
-      <c r="E30"/>
-      <c r="F30"/>
+        <v>85.199526760052</v>
+      </c>
+      <c r="E30" t="n">
+        <v>995.732751042233</v>
+      </c>
+      <c r="F30" t="n">
+        <v>4895.47741923122</v>
+      </c>
       <c r="G30" t="s">
         <v>10</v>
       </c>
@@ -1314,7 +1344,7 @@
         <v>37</v>
       </c>
       <c r="I30" t="n">
-        <v>264.169492662923</v>
+        <v>187.143210128358</v>
       </c>
       <c r="J30" t="s">
         <v>12</v>
@@ -1325,16 +1355,20 @@
         <v>44713</v>
       </c>
       <c r="B31" t="n">
-        <v>348.123645531426</v>
+        <v>242.979179314435</v>
       </c>
       <c r="C31" t="n">
-        <v>136.900488844171</v>
+        <v>116.290654176761</v>
       </c>
       <c r="D31" t="n">
-        <v>95.9394193328927</v>
-      </c>
-      <c r="E31"/>
-      <c r="F31"/>
+        <v>89.5756900274107</v>
+      </c>
+      <c r="E31" t="n">
+        <v>1292.40177903095</v>
+      </c>
+      <c r="F31" t="n">
+        <v>12580.2911186661</v>
+      </c>
       <c r="G31" t="s">
         <v>10</v>
       </c>
@@ -1342,7 +1376,7 @@
         <v>62</v>
       </c>
       <c r="I31" t="n">
-        <v>286.123645531426</v>
+        <v>180.979179314435</v>
       </c>
       <c r="J31" t="s">
         <v>12</v>
@@ -1353,16 +1387,20 @@
         <v>44743</v>
       </c>
       <c r="B32" t="n">
-        <v>353.316680291142</v>
+        <v>248.607480857384</v>
       </c>
       <c r="C32" t="n">
-        <v>145.954132759052</v>
+        <v>118.346324692068</v>
       </c>
       <c r="D32" t="n">
-        <v>94.3431667203176</v>
-      </c>
-      <c r="E32"/>
-      <c r="F32"/>
+        <v>90.5814106782021</v>
+      </c>
+      <c r="E32" t="n">
+        <v>1235.88318040358</v>
+      </c>
+      <c r="F32" t="n">
+        <v>11314.0208323036</v>
+      </c>
       <c r="G32" t="s">
         <v>10</v>
       </c>
@@ -1370,7 +1408,7 @@
         <v>79</v>
       </c>
       <c r="I32" t="n">
-        <v>274.316680291142</v>
+        <v>169.607480857384</v>
       </c>
       <c r="J32" t="s">
         <v>12</v>
@@ -1381,16 +1419,20 @@
         <v>44774</v>
       </c>
       <c r="B33" t="n">
-        <v>307.113294943688</v>
+        <v>221.224724678546</v>
       </c>
       <c r="C33" t="n">
-        <v>129.899212301808</v>
+        <v>106.424616810178</v>
       </c>
       <c r="D33" t="n">
-        <v>87.6423620259259</v>
-      </c>
-      <c r="E33"/>
-      <c r="F33"/>
+        <v>82.4982301212113</v>
+      </c>
+      <c r="E33" t="n">
+        <v>824.635864565363</v>
+      </c>
+      <c r="F33" t="n">
+        <v>3387.2588833973</v>
+      </c>
       <c r="G33" t="s">
         <v>10</v>
       </c>
@@ -1398,7 +1440,7 @@
         <v>217</v>
       </c>
       <c r="I33" t="n">
-        <v>90.1132949436881</v>
+        <v>4.22472467854558</v>
       </c>
       <c r="J33" t="s">
         <v>12</v>
@@ -1409,16 +1451,20 @@
         <v>44805</v>
       </c>
       <c r="B34" t="n">
-        <v>279.085879966388</v>
+        <v>211.198953388804</v>
       </c>
       <c r="C34" t="n">
-        <v>120.57992167841</v>
+        <v>100.927547719168</v>
       </c>
       <c r="D34" t="n">
-        <v>81.4895628339297</v>
-      </c>
-      <c r="E34"/>
-      <c r="F34"/>
+        <v>78.5918993641988</v>
+      </c>
+      <c r="E34" t="n">
+        <v>687.824571489675</v>
+      </c>
+      <c r="F34" t="n">
+        <v>2302.0109682277</v>
+      </c>
       <c r="G34" t="s">
         <v>10</v>
       </c>
@@ -1426,7 +1472,7 @@
         <v>96</v>
       </c>
       <c r="I34" t="n">
-        <v>183.085879966388</v>
+        <v>115.198953388804</v>
       </c>
       <c r="J34" t="s">
         <v>12</v>
@@ -1437,16 +1483,20 @@
         <v>44835</v>
       </c>
       <c r="B35" t="n">
-        <v>256.462156956038</v>
+        <v>196.99305622989</v>
       </c>
       <c r="C35" t="n">
-        <v>114.02372419848</v>
+        <v>93.0236020266313</v>
       </c>
       <c r="D35" t="n">
-        <v>76.8566135628442</v>
-      </c>
-      <c r="E35"/>
-      <c r="F35"/>
+        <v>73.0637306315113</v>
+      </c>
+      <c r="E35" t="n">
+        <v>610.284360807833</v>
+      </c>
+      <c r="F35" t="n">
+        <v>1839.26540127099</v>
+      </c>
       <c r="G35" t="s">
         <v>10</v>
       </c>
@@ -1454,7 +1504,7 @@
         <v>92</v>
       </c>
       <c r="I35" t="n">
-        <v>164.462156956038</v>
+        <v>104.99305622989</v>
       </c>
       <c r="J35" t="s">
         <v>12</v>
@@ -1465,16 +1515,20 @@
         <v>44866</v>
       </c>
       <c r="B36" t="n">
-        <v>257.000142272237</v>
+        <v>209.760677943712</v>
       </c>
       <c r="C36" t="n">
-        <v>109.303391519181</v>
+        <v>97.8581936242163</v>
       </c>
       <c r="D36" t="n">
-        <v>73.2973819448893</v>
-      </c>
-      <c r="E36"/>
-      <c r="F36"/>
+        <v>76.0608478991016</v>
+      </c>
+      <c r="E36" t="n">
+        <v>630.700373535113</v>
+      </c>
+      <c r="F36" t="n">
+        <v>2015.44003290295</v>
+      </c>
       <c r="G36" t="s">
         <v>10</v>
       </c>
@@ -1482,7 +1536,7 @@
         <v>74</v>
       </c>
       <c r="I36" t="n">
-        <v>183.000142272237</v>
+        <v>135.760677943712</v>
       </c>
       <c r="J36" t="s">
         <v>12</v>
@@ -1493,16 +1547,20 @@
         <v>44896</v>
       </c>
       <c r="B37" t="n">
-        <v>238.681644285688</v>
+        <v>192.61402203265</v>
       </c>
       <c r="C37" t="n">
-        <v>104.073268378337</v>
+        <v>88.5834279649098</v>
       </c>
       <c r="D37" t="n">
-        <v>70.1585001959084</v>
-      </c>
-      <c r="E37"/>
-      <c r="F37"/>
+        <v>69.6397472651435</v>
+      </c>
+      <c r="E37" t="n">
+        <v>611.918947401867</v>
+      </c>
+      <c r="F37" t="n">
+        <v>1937.69647259616</v>
+      </c>
       <c r="G37" t="s">
         <v>10</v>
       </c>
@@ -1510,7 +1568,7 @@
         <v>79</v>
       </c>
       <c r="I37" t="n">
-        <v>159.681644285688</v>
+        <v>113.61402203265</v>
       </c>
       <c r="J37" t="s">
         <v>12</v>
@@ -1521,16 +1579,20 @@
         <v>44927</v>
       </c>
       <c r="B38" t="n">
-        <v>284.203804372223</v>
+        <v>245.95844501625</v>
       </c>
       <c r="C38" t="n">
-        <v>108.507507703217</v>
+        <v>112.308180206335</v>
       </c>
       <c r="D38" t="n">
-        <v>72.0652502805962</v>
-      </c>
-      <c r="E38"/>
-      <c r="F38"/>
+        <v>84.4299439105116</v>
+      </c>
+      <c r="E38" t="n">
+        <v>1121.56601358579</v>
+      </c>
+      <c r="F38" t="n">
+        <v>13006.5492681152</v>
+      </c>
       <c r="G38" t="s">
         <v>10</v>
       </c>
@@ -1538,7 +1600,7 @@
         <v>149</v>
       </c>
       <c r="I38" t="n">
-        <v>135.203804372223</v>
+        <v>96.9584450162503</v>
       </c>
       <c r="J38" t="s">
         <v>12</v>
@@ -1549,16 +1611,20 @@
         <v>44958</v>
       </c>
       <c r="B39" t="n">
-        <v>247.225822470744</v>
+        <v>221.228557228092</v>
       </c>
       <c r="C39" t="n">
-        <v>96.0651487383142</v>
+        <v>101.207949838748</v>
       </c>
       <c r="D39" t="n">
-        <v>65.1861240488509</v>
-      </c>
-      <c r="E39"/>
-      <c r="F39"/>
+        <v>77.1381233708295</v>
+      </c>
+      <c r="E39" t="n">
+        <v>824.11914207738</v>
+      </c>
+      <c r="F39" t="n">
+        <v>4203.57754334034</v>
+      </c>
       <c r="G39" t="s">
         <v>10</v>
       </c>
@@ -1566,7 +1632,7 @@
         <v>117</v>
       </c>
       <c r="I39" t="n">
-        <v>130.225822470744</v>
+        <v>104.228557228092</v>
       </c>
       <c r="J39" t="s">
         <v>12</v>
@@ -1577,16 +1643,20 @@
         <v>44986</v>
       </c>
       <c r="B40" t="n">
-        <v>218.283056333522</v>
+        <v>182.131901250481</v>
       </c>
       <c r="C40" t="n">
-        <v>93.460406412473</v>
+        <v>83.0116631349196</v>
       </c>
       <c r="D40" t="n">
-        <v>63.4763431901941</v>
-      </c>
-      <c r="E40"/>
-      <c r="F40"/>
+        <v>65.0058742291176</v>
+      </c>
+      <c r="E40" t="n">
+        <v>578.113737113759</v>
+      </c>
+      <c r="F40" t="n">
+        <v>1841.36250541945</v>
+      </c>
       <c r="G40" t="s">
         <v>10</v>
       </c>
@@ -1594,7 +1664,7 @@
         <v>138</v>
       </c>
       <c r="I40" t="n">
-        <v>80.2830563335218</v>
+        <v>44.1319012504806</v>
       </c>
       <c r="J40" t="s">
         <v>12</v>
@@ -1605,16 +1675,20 @@
         <v>45017</v>
       </c>
       <c r="B41" t="n">
-        <v>259.918599120952</v>
+        <v>197.378386954624</v>
       </c>
       <c r="C41" t="n">
-        <v>106.22303974662</v>
+        <v>86.9334213348252</v>
       </c>
       <c r="D41" t="n">
-        <v>70.3316669527368</v>
-      </c>
-      <c r="E41"/>
-      <c r="F41"/>
+        <v>67.4350389867159</v>
+      </c>
+      <c r="E41" t="n">
+        <v>871.930116252857</v>
+      </c>
+      <c r="F41" t="n">
+        <v>5390.78519915446</v>
+      </c>
       <c r="G41" t="s">
         <v>10</v>
       </c>
@@ -1622,7 +1696,7 @@
         <v>189</v>
       </c>
       <c r="I41" t="n">
-        <v>70.9185991209525</v>
+        <v>8.37838695462355</v>
       </c>
       <c r="J41" t="s">
         <v>12</v>
@@ -1633,16 +1707,20 @@
         <v>45047</v>
       </c>
       <c r="B42" t="n">
-        <v>344.409525744165</v>
+        <v>219.371402312582</v>
       </c>
       <c r="C42" t="n">
-        <v>112.468478821595</v>
+        <v>93.6571044391284</v>
       </c>
       <c r="D42" t="n">
-        <v>80.1213956073883</v>
-      </c>
-      <c r="E42"/>
-      <c r="F42"/>
+        <v>71.628943500536</v>
+      </c>
+      <c r="E42" t="n">
+        <v>1485.27519195904</v>
+      </c>
+      <c r="F42" t="n">
+        <v>519665.400641646</v>
+      </c>
       <c r="G42" t="s">
         <v>10</v>
       </c>
@@ -1650,7 +1728,7 @@
         <v>212</v>
       </c>
       <c r="I42" t="n">
-        <v>132.409525744165</v>
+        <v>7.37140231258218</v>
       </c>
       <c r="J42" t="s">
         <v>12</v>
@@ -1661,15 +1739,17 @@
         <v>45078</v>
       </c>
       <c r="B43" t="n">
-        <v>414.343270018655</v>
+        <v>237.174838257185</v>
       </c>
       <c r="C43" t="n">
-        <v>120.949532094999</v>
+        <v>99.2517317100058</v>
       </c>
       <c r="D43" t="n">
-        <v>84.4059353309257</v>
-      </c>
-      <c r="E43"/>
+        <v>74.9922904593624</v>
+      </c>
+      <c r="E43" t="n">
+        <v>2081.27332159598</v>
+      </c>
       <c r="F43"/>
       <c r="G43" t="s">
         <v>10</v>
@@ -1678,10 +1758,10 @@
         <v>264</v>
       </c>
       <c r="I43" t="n">
-        <v>150.343270018655</v>
+        <v>-26.8251617428153</v>
       </c>
       <c r="J43" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="44">
@@ -1689,15 +1769,17 @@
         <v>45108</v>
       </c>
       <c r="B44" t="n">
-        <v>420.207962668285</v>
+        <v>241.924922817947</v>
       </c>
       <c r="C44" t="n">
-        <v>128.360084048886</v>
+        <v>100.920066976276</v>
       </c>
       <c r="D44" t="n">
-        <v>83.2753401201848</v>
-      </c>
-      <c r="E44"/>
+        <v>75.8242764246125</v>
+      </c>
+      <c r="E44" t="n">
+        <v>1945.29645833231</v>
+      </c>
       <c r="F44"/>
       <c r="G44" t="s">
         <v>10</v>
@@ -1706,10 +1788,10 @@
         <v>289</v>
       </c>
       <c r="I44" t="n">
-        <v>131.207962668285</v>
+        <v>-47.075077182053</v>
       </c>
       <c r="J44" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="45">
@@ -1717,16 +1799,20 @@
         <v>45139</v>
       </c>
       <c r="B45" t="n">
-        <v>354.824652057483</v>
+        <v>215.595537770263</v>
       </c>
       <c r="C45" t="n">
-        <v>118.03862103213</v>
+        <v>91.7275272606993</v>
       </c>
       <c r="D45" t="n">
-        <v>77.921259722608</v>
-      </c>
-      <c r="E45"/>
-      <c r="F45"/>
+        <v>69.8003330631862</v>
+      </c>
+      <c r="E45" t="n">
+        <v>1151.00612419767</v>
+      </c>
+      <c r="F45" t="n">
+        <v>24983.4627200425</v>
+      </c>
       <c r="G45" t="s">
         <v>10</v>
       </c>
@@ -1734,10 +1820,10 @@
         <v>234</v>
       </c>
       <c r="I45" t="n">
-        <v>120.824652057483</v>
+        <v>-18.4044622297369</v>
       </c>
       <c r="J45" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="46">
@@ -1745,16 +1831,20 @@
         <v>45170</v>
       </c>
       <c r="B46" t="n">
-        <v>313.909169047554</v>
+        <v>205.998205137904</v>
       </c>
       <c r="C46" t="n">
-        <v>110.714578176504</v>
+        <v>87.4616264499305</v>
       </c>
       <c r="D46" t="n">
-        <v>72.9377317011087</v>
-      </c>
-      <c r="E46"/>
-      <c r="F46"/>
+        <v>66.8771163799685</v>
+      </c>
+      <c r="E46" t="n">
+        <v>918.545729152308</v>
+      </c>
+      <c r="F46" t="n">
+        <v>8223.85892237114</v>
+      </c>
       <c r="G46" t="s">
         <v>10</v>
       </c>
@@ -1762,7 +1852,7 @@
         <v>193</v>
       </c>
       <c r="I46" t="n">
-        <v>120.909169047554</v>
+        <v>12.9982051379036</v>
       </c>
       <c r="J46" t="s">
         <v>12</v>
@@ -1773,16 +1863,20 @@
         <v>45200</v>
       </c>
       <c r="B47" t="n">
-        <v>284.689529463439</v>
+        <v>192.833854852692</v>
       </c>
       <c r="C47" t="n">
-        <v>105.100797437921</v>
+        <v>81.2251701356311</v>
       </c>
       <c r="D47" t="n">
-        <v>69.1617968673203</v>
-      </c>
-      <c r="E47"/>
-      <c r="F47"/>
+        <v>62.6596385993824</v>
+      </c>
+      <c r="E47" t="n">
+        <v>793.462415278596</v>
+      </c>
+      <c r="F47" t="n">
+        <v>5065.58152399996</v>
+      </c>
       <c r="G47" t="s">
         <v>10</v>
       </c>
@@ -1790,10 +1884,10 @@
         <v>193</v>
       </c>
       <c r="I47" t="n">
-        <v>91.689529463439</v>
+        <v>-0.166145147307532</v>
       </c>
       <c r="J47" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="48">
@@ -1801,16 +1895,20 @@
         <v>45231</v>
       </c>
       <c r="B48" t="n">
-        <v>280.779426166169</v>
+        <v>205.008907561576</v>
       </c>
       <c r="C48" t="n">
-        <v>103.817558359258</v>
+        <v>85.1393611578737</v>
       </c>
       <c r="D48" t="n">
-        <v>66.2500911375748</v>
-      </c>
-      <c r="E48"/>
-      <c r="F48"/>
+        <v>65.0378722012469</v>
+      </c>
+      <c r="E48" t="n">
+        <v>822.033613400627</v>
+      </c>
+      <c r="F48" t="n">
+        <v>5943.44995016332</v>
+      </c>
       <c r="G48" t="s">
         <v>10</v>
       </c>
@@ -1818,7 +1916,7 @@
         <v>183</v>
       </c>
       <c r="I48" t="n">
-        <v>97.7794261661693</v>
+        <v>22.0089075615764</v>
       </c>
       <c r="J48" t="s">
         <v>12</v>
@@ -1829,16 +1927,20 @@
         <v>45261</v>
       </c>
       <c r="B49" t="n">
-        <v>259.578081407565</v>
+        <v>188.850666234453</v>
       </c>
       <c r="C49" t="n">
-        <v>99.117130475722</v>
+        <v>77.7493379541003</v>
       </c>
       <c r="D49" t="n">
-        <v>63.6653291665157</v>
-      </c>
-      <c r="E49"/>
-      <c r="F49"/>
+        <v>60.0794245763447</v>
+      </c>
+      <c r="E49" t="n">
+        <v>790.509482503634</v>
+      </c>
+      <c r="F49" t="n">
+        <v>5404.48501944553</v>
+      </c>
       <c r="G49" t="s">
         <v>10</v>
       </c>
@@ -1846,10 +1948,10 @@
         <v>245</v>
       </c>
       <c r="I49" t="n">
-        <v>14.5780814075655</v>
+        <v>-56.1493337655474</v>
       </c>
       <c r="J49" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/outcome/appendix/forecast/Malaria.xlsx
+++ b/outcome/appendix/forecast/Malaria.xlsx
@@ -427,13 +427,13 @@
         <v>43831</v>
       </c>
       <c r="B2" t="n">
-        <v>277.970115200967</v>
+        <v>277.927547070762</v>
       </c>
       <c r="C2" t="n">
-        <v>188.954164732518</v>
+        <v>188.887952431574</v>
       </c>
       <c r="D2" t="n">
-        <v>170.476297442889</v>
+        <v>170.451858450659</v>
       </c>
       <c r="E2" t="n">
         <v>446.001520911706</v>
@@ -448,7 +448,7 @@
         <v>348</v>
       </c>
       <c r="I2" t="n">
-        <v>-70.0298847990333</v>
+        <v>-70.0724529292382</v>
       </c>
       <c r="J2" t="s">
         <v>11</v>
@@ -459,13 +459,13 @@
         <v>43862</v>
       </c>
       <c r="B3" t="n">
-        <v>247.006854313176</v>
+        <v>246.876436412653</v>
       </c>
       <c r="C3" t="n">
-        <v>185.639673917351</v>
+        <v>185.544644475386</v>
       </c>
       <c r="D3" t="n">
-        <v>167.541053574534</v>
+        <v>168.835279582405</v>
       </c>
       <c r="E3" t="n">
         <v>374.266896725025</v>
@@ -480,7 +480,7 @@
         <v>126</v>
       </c>
       <c r="I3" t="n">
-        <v>121.006854313176</v>
+        <v>120.876436412653</v>
       </c>
       <c r="J3" t="s">
         <v>12</v>
@@ -491,7 +491,7 @@
         <v>43891</v>
       </c>
       <c r="B4" t="n">
-        <v>191.601660020089</v>
+        <v>191.564891268417</v>
       </c>
       <c r="C4" t="n">
         <v>143.003749894084</v>
@@ -512,7 +512,7 @@
         <v>92</v>
       </c>
       <c r="I4" t="n">
-        <v>99.6016600200888</v>
+        <v>99.5648912684169</v>
       </c>
       <c r="J4" t="s">
         <v>12</v>
@@ -523,7 +523,7 @@
         <v>43922</v>
       </c>
       <c r="B5" t="n">
-        <v>208.143127432556</v>
+        <v>208.244373889974</v>
       </c>
       <c r="C5" t="n">
         <v>151.161642041185</v>
@@ -544,7 +544,7 @@
         <v>54</v>
       </c>
       <c r="I5" t="n">
-        <v>154.143127432556</v>
+        <v>154.244373889974</v>
       </c>
       <c r="J5" t="s">
         <v>12</v>
@@ -555,7 +555,7 @@
         <v>43952</v>
       </c>
       <c r="B6" t="n">
-        <v>234.731900778436</v>
+        <v>234.886899793435</v>
       </c>
       <c r="C6" t="n">
         <v>161.52139030586</v>
@@ -576,7 +576,7 @@
         <v>40</v>
       </c>
       <c r="I6" t="n">
-        <v>194.731900778436</v>
+        <v>194.886899793435</v>
       </c>
       <c r="J6" t="s">
         <v>12</v>
@@ -587,7 +587,7 @@
         <v>43983</v>
       </c>
       <c r="B7" t="n">
-        <v>258.371024493202</v>
+        <v>258.468893867614</v>
       </c>
       <c r="C7" t="n">
         <v>173.967038769648</v>
@@ -608,7 +608,7 @@
         <v>74</v>
       </c>
       <c r="I7" t="n">
-        <v>184.371024493202</v>
+        <v>184.468893867614</v>
       </c>
       <c r="J7" t="s">
         <v>12</v>
@@ -619,10 +619,10 @@
         <v>44013</v>
       </c>
       <c r="B8" t="n">
-        <v>268.005045092618</v>
+        <v>267.947214069073</v>
       </c>
       <c r="C8" t="n">
-        <v>186.695224365279</v>
+        <v>186.7738875094</v>
       </c>
       <c r="D8" t="n">
         <v>159.636877748982</v>
@@ -640,7 +640,7 @@
         <v>57</v>
       </c>
       <c r="I8" t="n">
-        <v>211.005045092618</v>
+        <v>210.947214069073</v>
       </c>
       <c r="J8" t="s">
         <v>12</v>
@@ -651,7 +651,7 @@
         <v>44044</v>
       </c>
       <c r="B9" t="n">
-        <v>236.016673069564</v>
+        <v>235.870597847928</v>
       </c>
       <c r="C9" t="n">
         <v>164.224550637793</v>
@@ -672,7 +672,7 @@
         <v>57</v>
       </c>
       <c r="I9" t="n">
-        <v>179.016673069564</v>
+        <v>178.870597847928</v>
       </c>
       <c r="J9" t="s">
         <v>12</v>
@@ -683,7 +683,7 @@
         <v>44075</v>
       </c>
       <c r="B10" t="n">
-        <v>223.883666254289</v>
+        <v>223.739205718445</v>
       </c>
       <c r="C10" t="n">
         <v>152.113955086947</v>
@@ -704,7 +704,7 @@
         <v>81</v>
       </c>
       <c r="I10" t="n">
-        <v>142.883666254289</v>
+        <v>142.739205718445</v>
       </c>
       <c r="J10" t="s">
         <v>12</v>
@@ -715,7 +715,7 @@
         <v>44105</v>
       </c>
       <c r="B11" t="n">
-        <v>205.511941638851</v>
+        <v>205.429572310834</v>
       </c>
       <c r="C11" t="n">
         <v>136.117978142177</v>
@@ -736,7 +736,7 @@
         <v>78</v>
       </c>
       <c r="I11" t="n">
-        <v>127.511941638851</v>
+        <v>127.429572310834</v>
       </c>
       <c r="J11" t="s">
         <v>12</v>
@@ -747,7 +747,7 @@
         <v>44136</v>
       </c>
       <c r="B12" t="n">
-        <v>222.34735168661</v>
+        <v>222.223929157583</v>
       </c>
       <c r="C12" t="n">
         <v>144.395950491197</v>
@@ -768,7 +768,7 @@
         <v>63</v>
       </c>
       <c r="I12" t="n">
-        <v>159.34735168661</v>
+        <v>159.223929157583</v>
       </c>
       <c r="J12" t="s">
         <v>12</v>
@@ -779,7 +779,7 @@
         <v>44166</v>
       </c>
       <c r="B13" t="n">
-        <v>200.523665759597</v>
+        <v>200.409032108012</v>
       </c>
       <c r="C13" t="n">
         <v>126.62266373062</v>
@@ -800,7 +800,7 @@
         <v>73</v>
       </c>
       <c r="I13" t="n">
-        <v>127.523665759597</v>
+        <v>127.409032108012</v>
       </c>
       <c r="J13" t="s">
         <v>12</v>
@@ -811,7 +811,7 @@
         <v>44197</v>
       </c>
       <c r="B14" t="n">
-        <v>263.012170970561</v>
+        <v>262.897367734926</v>
       </c>
       <c r="C14" t="n">
         <v>168.728267274852</v>
@@ -832,7 +832,7 @@
         <v>68</v>
       </c>
       <c r="I14" t="n">
-        <v>195.012170970561</v>
+        <v>194.897367734926</v>
       </c>
       <c r="J14" t="s">
         <v>12</v>
@@ -843,7 +843,7 @@
         <v>44228</v>
       </c>
       <c r="B15" t="n">
-        <v>234.533363786213</v>
+        <v>234.373545098351</v>
       </c>
       <c r="C15" t="n">
         <v>147.185539051811</v>
@@ -864,7 +864,7 @@
         <v>58</v>
       </c>
       <c r="I15" t="n">
-        <v>176.533363786213</v>
+        <v>176.373545098351</v>
       </c>
       <c r="J15" t="s">
         <v>12</v>
@@ -875,7 +875,7 @@
         <v>44256</v>
       </c>
       <c r="B16" t="n">
-        <v>188.699446817409</v>
+        <v>188.59624290652</v>
       </c>
       <c r="C16" t="n">
         <v>114.537973114805</v>
@@ -896,7 +896,7 @@
         <v>63</v>
       </c>
       <c r="I16" t="n">
-        <v>125.699446817409</v>
+        <v>125.59624290652</v>
       </c>
       <c r="J16" t="s">
         <v>12</v>
@@ -907,7 +907,7 @@
         <v>44287</v>
       </c>
       <c r="B17" t="n">
-        <v>203.942754089223</v>
+        <v>203.958992214967</v>
       </c>
       <c r="C17" t="n">
         <v>120.844028200813</v>
@@ -928,7 +928,7 @@
         <v>74</v>
       </c>
       <c r="I17" t="n">
-        <v>129.942754089223</v>
+        <v>129.958992214967</v>
       </c>
       <c r="J17" t="s">
         <v>12</v>
@@ -939,7 +939,7 @@
         <v>44317</v>
       </c>
       <c r="B18" t="n">
-        <v>228.173154783307</v>
+        <v>228.268077980506</v>
       </c>
       <c r="C18" t="n">
         <v>132.108691920976</v>
@@ -960,7 +960,7 @@
         <v>97</v>
       </c>
       <c r="I18" t="n">
-        <v>131.173154783307</v>
+        <v>131.268077980506</v>
       </c>
       <c r="J18" t="s">
         <v>12</v>
@@ -971,7 +971,7 @@
         <v>44348</v>
       </c>
       <c r="B19" t="n">
-        <v>249.599486249158</v>
+        <v>249.683334760452</v>
       </c>
       <c r="C19" t="n">
         <v>141.591922699766</v>
@@ -992,7 +992,7 @@
         <v>109</v>
       </c>
       <c r="I19" t="n">
-        <v>140.599486249158</v>
+        <v>140.683334760452</v>
       </c>
       <c r="J19" t="s">
         <v>12</v>
@@ -1003,7 +1003,7 @@
         <v>44378</v>
       </c>
       <c r="B20" t="n">
-        <v>257.154784852474</v>
+        <v>257.134405066178</v>
       </c>
       <c r="C20" t="n">
         <v>144.140923165108</v>
@@ -1024,7 +1024,7 @@
         <v>92</v>
       </c>
       <c r="I20" t="n">
-        <v>165.154784852474</v>
+        <v>165.134405066178</v>
       </c>
       <c r="J20" t="s">
         <v>12</v>
@@ -1035,7 +1035,7 @@
         <v>44409</v>
       </c>
       <c r="B21" t="n">
-        <v>227.804928601402</v>
+        <v>227.68172195689</v>
       </c>
       <c r="C21" t="n">
         <v>127.635849300179</v>
@@ -1056,7 +1056,7 @@
         <v>60</v>
       </c>
       <c r="I21" t="n">
-        <v>167.804928601402</v>
+        <v>167.68172195689</v>
       </c>
       <c r="J21" t="s">
         <v>12</v>
@@ -1067,7 +1067,7 @@
         <v>44440</v>
       </c>
       <c r="B22" t="n">
-        <v>216.835882803209</v>
+        <v>216.670872089603</v>
       </c>
       <c r="C22" t="n">
         <v>120.079556375382</v>
@@ -1088,7 +1088,7 @@
         <v>49</v>
       </c>
       <c r="I22" t="n">
-        <v>167.835882803209</v>
+        <v>167.670872089603</v>
       </c>
       <c r="J22" t="s">
         <v>12</v>
@@ -1099,7 +1099,7 @@
         <v>44470</v>
       </c>
       <c r="B23" t="n">
-        <v>201.2839206918</v>
+        <v>201.143741113104</v>
       </c>
       <c r="C23" t="n">
         <v>109.497831444703</v>
@@ -1120,7 +1120,7 @@
         <v>46</v>
       </c>
       <c r="I23" t="n">
-        <v>155.2839206918</v>
+        <v>155.143741113104</v>
       </c>
       <c r="J23" t="s">
         <v>12</v>
@@ -1131,7 +1131,7 @@
         <v>44501</v>
       </c>
       <c r="B24" t="n">
-        <v>216.546234453499</v>
+        <v>216.39023552157</v>
       </c>
       <c r="C24" t="n">
         <v>115.67442137399</v>
@@ -1152,7 +1152,7 @@
         <v>62</v>
       </c>
       <c r="I24" t="n">
-        <v>154.546234453499</v>
+        <v>154.39023552157</v>
       </c>
       <c r="J24" t="s">
         <v>12</v>
@@ -1163,7 +1163,7 @@
         <v>44531</v>
       </c>
       <c r="B25" t="n">
-        <v>197.29114999019</v>
+        <v>197.132924139907</v>
       </c>
       <c r="C25" t="n">
         <v>103.457221520362</v>
@@ -1184,7 +1184,7 @@
         <v>72</v>
       </c>
       <c r="I25" t="n">
-        <v>125.29114999019</v>
+        <v>125.132924139907</v>
       </c>
       <c r="J25" t="s">
         <v>12</v>
@@ -1195,7 +1195,7 @@
         <v>44562</v>
       </c>
       <c r="B26" t="n">
-        <v>254.457587764971</v>
+        <v>254.303321129452</v>
       </c>
       <c r="C26" t="n">
         <v>134.157979114921</v>
@@ -1216,7 +1216,7 @@
         <v>26</v>
       </c>
       <c r="I26" t="n">
-        <v>228.457587764971</v>
+        <v>228.303321129452</v>
       </c>
       <c r="J26" t="s">
         <v>12</v>
@@ -1227,7 +1227,7 @@
         <v>44593</v>
       </c>
       <c r="B27" t="n">
-        <v>228.172879311007</v>
+        <v>228.001842104848</v>
       </c>
       <c r="C27" t="n">
         <v>119.319157338402</v>
@@ -1248,7 +1248,7 @@
         <v>30</v>
       </c>
       <c r="I27" t="n">
-        <v>198.172879311007</v>
+        <v>198.001842104848</v>
       </c>
       <c r="J27" t="s">
         <v>12</v>
@@ -1259,7 +1259,7 @@
         <v>44621</v>
       </c>
       <c r="B28" t="n">
-        <v>185.870753584355</v>
+        <v>185.724912452573</v>
       </c>
       <c r="C28" t="n">
         <v>95.7986239623335</v>
@@ -1280,7 +1280,7 @@
         <v>31</v>
       </c>
       <c r="I28" t="n">
-        <v>154.870753584355</v>
+        <v>154.724912452573</v>
       </c>
       <c r="J28" t="s">
         <v>12</v>
@@ -1291,7 +1291,7 @@
         <v>44652</v>
       </c>
       <c r="B29" t="n">
-        <v>201.340010777765</v>
+        <v>201.267529978539</v>
       </c>
       <c r="C29" t="n">
         <v>100.67916568893</v>
@@ -1312,7 +1312,7 @@
         <v>34</v>
       </c>
       <c r="I29" t="n">
-        <v>167.340010777765</v>
+        <v>167.267529978539</v>
       </c>
       <c r="J29" t="s">
         <v>12</v>
@@ -1323,7 +1323,7 @@
         <v>44682</v>
       </c>
       <c r="B30" t="n">
-        <v>224.143210128358</v>
+        <v>224.139989764082</v>
       </c>
       <c r="C30" t="n">
         <v>109.176162567026</v>
@@ -1344,7 +1344,7 @@
         <v>37</v>
       </c>
       <c r="I30" t="n">
-        <v>187.143210128358</v>
+        <v>187.139989764082</v>
       </c>
       <c r="J30" t="s">
         <v>12</v>
@@ -1355,7 +1355,7 @@
         <v>44713</v>
       </c>
       <c r="B31" t="n">
-        <v>242.979179314435</v>
+        <v>242.996482802531</v>
       </c>
       <c r="C31" t="n">
         <v>116.290654176761</v>
@@ -1376,7 +1376,7 @@
         <v>62</v>
       </c>
       <c r="I31" t="n">
-        <v>180.979179314435</v>
+        <v>180.996482802531</v>
       </c>
       <c r="J31" t="s">
         <v>12</v>
@@ -1387,7 +1387,7 @@
         <v>44743</v>
       </c>
       <c r="B32" t="n">
-        <v>248.607480857384</v>
+        <v>248.580584738038</v>
       </c>
       <c r="C32" t="n">
         <v>118.346324692068</v>
@@ -1408,7 +1408,7 @@
         <v>79</v>
       </c>
       <c r="I32" t="n">
-        <v>169.607480857384</v>
+        <v>169.580584738038</v>
       </c>
       <c r="J32" t="s">
         <v>12</v>
@@ -1419,7 +1419,7 @@
         <v>44774</v>
       </c>
       <c r="B33" t="n">
-        <v>221.224724678546</v>
+        <v>221.128840406422</v>
       </c>
       <c r="C33" t="n">
         <v>106.424616810178</v>
@@ -1440,7 +1440,7 @@
         <v>217</v>
       </c>
       <c r="I33" t="n">
-        <v>4.22472467854558</v>
+        <v>4.12884040642234</v>
       </c>
       <c r="J33" t="s">
         <v>12</v>
@@ -1451,7 +1451,7 @@
         <v>44805</v>
       </c>
       <c r="B34" t="n">
-        <v>211.198953388804</v>
+        <v>211.053920074947</v>
       </c>
       <c r="C34" t="n">
         <v>100.927547719168</v>
@@ -1472,7 +1472,7 @@
         <v>96</v>
       </c>
       <c r="I34" t="n">
-        <v>115.198953388804</v>
+        <v>115.053920074947</v>
       </c>
       <c r="J34" t="s">
         <v>12</v>
@@ -1483,7 +1483,7 @@
         <v>44835</v>
       </c>
       <c r="B35" t="n">
-        <v>196.99305622989</v>
+        <v>196.84028103001</v>
       </c>
       <c r="C35" t="n">
         <v>93.0236020266313</v>
@@ -1504,7 +1504,7 @@
         <v>92</v>
       </c>
       <c r="I35" t="n">
-        <v>104.99305622989</v>
+        <v>104.84028103001</v>
       </c>
       <c r="J35" t="s">
         <v>12</v>
@@ -1515,7 +1515,7 @@
         <v>44866</v>
       </c>
       <c r="B36" t="n">
-        <v>209.760677943712</v>
+        <v>209.597403124517</v>
       </c>
       <c r="C36" t="n">
         <v>97.8581936242163</v>
@@ -1536,7 +1536,7 @@
         <v>74</v>
       </c>
       <c r="I36" t="n">
-        <v>135.760677943712</v>
+        <v>135.597403124517</v>
       </c>
       <c r="J36" t="s">
         <v>12</v>
@@ -1547,7 +1547,7 @@
         <v>44896</v>
       </c>
       <c r="B37" t="n">
-        <v>192.61402203265</v>
+        <v>192.445091333447</v>
       </c>
       <c r="C37" t="n">
         <v>88.5834279649098</v>
@@ -1568,7 +1568,7 @@
         <v>79</v>
       </c>
       <c r="I37" t="n">
-        <v>113.61402203265</v>
+        <v>113.445091333447</v>
       </c>
       <c r="J37" t="s">
         <v>12</v>
@@ -1579,7 +1579,7 @@
         <v>44927</v>
       </c>
       <c r="B38" t="n">
-        <v>245.95844501625</v>
+        <v>245.790031746996</v>
       </c>
       <c r="C38" t="n">
         <v>112.308180206335</v>
@@ -1600,7 +1600,7 @@
         <v>149</v>
       </c>
       <c r="I38" t="n">
-        <v>96.9584450162503</v>
+        <v>96.7900317469961</v>
       </c>
       <c r="J38" t="s">
         <v>12</v>
@@ -1611,7 +1611,7 @@
         <v>44958</v>
       </c>
       <c r="B39" t="n">
-        <v>221.228557228092</v>
+        <v>221.054212178759</v>
       </c>
       <c r="C39" t="n">
         <v>101.207949838748</v>
@@ -1632,7 +1632,7 @@
         <v>117</v>
       </c>
       <c r="I39" t="n">
-        <v>104.228557228092</v>
+        <v>104.054212178759</v>
       </c>
       <c r="J39" t="s">
         <v>12</v>
@@ -1643,7 +1643,7 @@
         <v>44986</v>
       </c>
       <c r="B40" t="n">
-        <v>182.131901250481</v>
+        <v>181.967648563646</v>
       </c>
       <c r="C40" t="n">
         <v>83.0116631349196</v>
@@ -1664,7 +1664,7 @@
         <v>138</v>
       </c>
       <c r="I40" t="n">
-        <v>44.1319012504806</v>
+        <v>43.9676485636462</v>
       </c>
       <c r="J40" t="s">
         <v>12</v>
@@ -1675,7 +1675,7 @@
         <v>45017</v>
       </c>
       <c r="B41" t="n">
-        <v>197.378386954624</v>
+        <v>197.252236599127</v>
       </c>
       <c r="C41" t="n">
         <v>86.9334213348252</v>
@@ -1696,7 +1696,7 @@
         <v>189</v>
       </c>
       <c r="I41" t="n">
-        <v>8.37838695462355</v>
+        <v>8.25223659912749</v>
       </c>
       <c r="J41" t="s">
         <v>12</v>
@@ -1707,7 +1707,7 @@
         <v>45047</v>
       </c>
       <c r="B42" t="n">
-        <v>219.371402312582</v>
+        <v>219.292279022977</v>
       </c>
       <c r="C42" t="n">
         <v>93.6571044391284</v>
@@ -1728,7 +1728,7 @@
         <v>212</v>
       </c>
       <c r="I42" t="n">
-        <v>7.37140231258218</v>
+        <v>7.29227902297689</v>
       </c>
       <c r="J42" t="s">
         <v>12</v>
@@ -1739,7 +1739,7 @@
         <v>45078</v>
       </c>
       <c r="B43" t="n">
-        <v>237.174838257185</v>
+        <v>237.12362307858</v>
       </c>
       <c r="C43" t="n">
         <v>99.2517317100058</v>
@@ -1758,7 +1758,7 @@
         <v>264</v>
       </c>
       <c r="I43" t="n">
-        <v>-26.8251617428153</v>
+        <v>-26.8763769214198</v>
       </c>
       <c r="J43" t="s">
         <v>11</v>
@@ -1769,7 +1769,7 @@
         <v>45108</v>
       </c>
       <c r="B44" t="n">
-        <v>241.924922817947</v>
+        <v>241.864892033402</v>
       </c>
       <c r="C44" t="n">
         <v>100.920066976276</v>
@@ -1788,7 +1788,7 @@
         <v>289</v>
       </c>
       <c r="I44" t="n">
-        <v>-47.075077182053</v>
+        <v>-47.1351079665985</v>
       </c>
       <c r="J44" t="s">
         <v>11</v>
@@ -1799,7 +1799,7 @@
         <v>45139</v>
       </c>
       <c r="B45" t="n">
-        <v>215.595537770263</v>
+        <v>215.501262808985</v>
       </c>
       <c r="C45" t="n">
         <v>91.7275272606993</v>
@@ -1820,7 +1820,7 @@
         <v>234</v>
       </c>
       <c r="I45" t="n">
-        <v>-18.4044622297369</v>
+        <v>-18.4987371910153</v>
       </c>
       <c r="J45" t="s">
         <v>11</v>
@@ -1831,7 +1831,7 @@
         <v>45170</v>
       </c>
       <c r="B46" t="n">
-        <v>205.998205137904</v>
+        <v>205.868193659065</v>
       </c>
       <c r="C46" t="n">
         <v>87.4616264499305</v>
@@ -1852,7 +1852,7 @@
         <v>193</v>
       </c>
       <c r="I46" t="n">
-        <v>12.9982051379036</v>
+        <v>12.8681936590648</v>
       </c>
       <c r="J46" t="s">
         <v>12</v>
@@ -1863,7 +1863,7 @@
         <v>45200</v>
       </c>
       <c r="B47" t="n">
-        <v>192.833854852692</v>
+        <v>192.685831612078</v>
       </c>
       <c r="C47" t="n">
         <v>81.2251701356311</v>
@@ -1884,7 +1884,7 @@
         <v>193</v>
       </c>
       <c r="I47" t="n">
-        <v>-0.166145147307532</v>
+        <v>-0.314168387921683</v>
       </c>
       <c r="J47" t="s">
         <v>11</v>
@@ -1895,7 +1895,7 @@
         <v>45231</v>
       </c>
       <c r="B48" t="n">
-        <v>205.008907561576</v>
+        <v>204.849063984109</v>
       </c>
       <c r="C48" t="n">
         <v>85.1393611578737</v>
@@ -1916,7 +1916,7 @@
         <v>183</v>
       </c>
       <c r="I48" t="n">
-        <v>22.0089075615764</v>
+        <v>21.8490639841088</v>
       </c>
       <c r="J48" t="s">
         <v>12</v>
@@ -1927,7 +1927,7 @@
         <v>45261</v>
       </c>
       <c r="B49" t="n">
-        <v>188.850666234453</v>
+        <v>188.68348462555</v>
       </c>
       <c r="C49" t="n">
         <v>77.7493379541003</v>
@@ -1948,7 +1948,7 @@
         <v>245</v>
       </c>
       <c r="I49" t="n">
-        <v>-56.1493337655474</v>
+        <v>-56.3165153744503</v>
       </c>
       <c r="J49" t="s">
         <v>11</v>
